--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Gastos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gastos!$A$1:$H$200</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Andres</t>
   </si>
@@ -38,22 +41,61 @@
     <t>Digikey 1</t>
   </si>
   <si>
-    <t>Internet Avantel</t>
-  </si>
-  <si>
     <t>Internet Claro</t>
   </si>
   <si>
     <t>MCP4821</t>
   </si>
   <si>
-    <t>Valor en Pesos</t>
+    <t>Nombre</t>
   </si>
   <si>
-    <t>Valor en Dolares (Si aplica)</t>
+    <t>N/A</t>
   </si>
   <si>
-    <t>Nombre</t>
+    <t xml:space="preserve">Internet Avantel </t>
+  </si>
+  <si>
+    <t>Valor en Dolares</t>
+  </si>
+  <si>
+    <t>Valor en Pesos total</t>
+  </si>
+  <si>
+    <t>Valor por persona</t>
+  </si>
+  <si>
+    <t>Andres Debe</t>
+  </si>
+  <si>
+    <t>Luzbin Debe</t>
+  </si>
+  <si>
+    <t>Zurdo Debe</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>DAC ELETROKIC</t>
+  </si>
+  <si>
+    <t>Documentos Adionales\Avantel_abril.jpeg</t>
+  </si>
+  <si>
+    <t>Documentos Adionales\Primer_Pedido_Digikey.pdf</t>
+  </si>
+  <si>
+    <t>Documentos Adionales\Factura Claro.pdf</t>
+  </si>
+  <si>
+    <t>Soporte y/o comentarios</t>
+  </si>
+  <si>
+    <t>Bisturí y electrodos de retorno</t>
+  </si>
+  <si>
+    <t>Documentos Adionales\FACTURA LifeCareSolutions.pdf</t>
   </si>
 </sst>
 </file>
@@ -64,7 +106,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +121,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -111,23 +187,510 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -138,6 +701,34 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:K200" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:K200"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nombre" dataDxfId="12"/>
+    <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="11"/>
+    <tableColumn id="3" name="Valor en Dolares" dataDxfId="10" dataCellStyle="Moneda"/>
+    <tableColumn id="4" name="Valor en Pesos total" dataDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Valor por persona" dataDxfId="8" dataCellStyle="Moneda">
+      <calculatedColumnFormula>Tabla2[[#This Row],[Valor en Pesos total]]/3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Andres" dataDxfId="7"/>
+    <tableColumn id="6" name="Luzbin" dataDxfId="6"/>
+    <tableColumn id="7" name="Zurdo" dataDxfId="5"/>
+    <tableColumn id="9" name="Andres Debe" dataDxfId="3" dataCellStyle="Moneda">
+      <calculatedColumnFormula>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Luzbin Debe" dataDxfId="2" dataCellStyle="Moneda">
+      <calculatedColumnFormula>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Zurdo Debe" dataDxfId="1" dataCellStyle="Moneda">
+      <calculatedColumnFormula>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,86 +994,5148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E2" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>37333.333333333336</v>
+      </c>
+      <c r="F2" s="12">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G2" s="12">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E3" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>4000</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>4000</v>
+      </c>
+      <c r="J3" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4*3000</f>
+        <v>141000</v>
+      </c>
+      <c r="E4" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>47000</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>47000</v>
+      </c>
+      <c r="J4" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3">
-        <v>112000</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3">
-        <v>12000</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E5" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>10366.666666666666</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>10366.666666666666</v>
+      </c>
+      <c r="J5" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>10366.666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>105328</v>
+      </c>
+      <c r="E6" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>35109.333333333336</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K78" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K101" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K105" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K109" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K112" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K113" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K114" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K115" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K116" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K117" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K118" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K120" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K121" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K122" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K123" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K124" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J125" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K125" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K126" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K127" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K128" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J129" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K129" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J130" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K130" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J131" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K131" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K132" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J133" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K133" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J134" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K134" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J135" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K135" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J136" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K136" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J137" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K137" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J138" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K138" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J139" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K139" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J140" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K140" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J141" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K141" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J142" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K142" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J143" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K143" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J144" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K144" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J145" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K145" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J146" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K146" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J147" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K147" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J148" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K148" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J149" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K149" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J150" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K150" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J151" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K151" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J152" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K152" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J153" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K153" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J154" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K154" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J155" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K155" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J156" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K156" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J157" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K157" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J158" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K158" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J159" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K159" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J160" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K160" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J161" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K161" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J162" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K162" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J163" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K163" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J164" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K164" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J165" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K165" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J166" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K166" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J167" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K167" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J168" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K168" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J169" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K169" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J170" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K170" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J171" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K171" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J172" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K172" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J173" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K173" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J174" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K174" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J175" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K175" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J176" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K176" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J177" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K177" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J178" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K178" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J179" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K179" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J180" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K180" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J181" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K181" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J182" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K182" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J183" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K183" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J184" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K184" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J185" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K185" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="13"/>
+      <c r="I186" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J186" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K186" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F187" s="13"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="13"/>
+      <c r="I187" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J187" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K187" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F188" s="13"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J188" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K188" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J189" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K189" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="13"/>
+      <c r="I190" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J190" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K190" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J191" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K191" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="13"/>
+      <c r="I192" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J192" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K192" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F193" s="13"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J193" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K193" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F194" s="13"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="13"/>
+      <c r="I194" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J194" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K194" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="13"/>
+      <c r="I195" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J195" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K195" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="13"/>
+      <c r="I196" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J196" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K196" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="13"/>
+      <c r="I197" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J197" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K197" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J198" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K198" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="3">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J199" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K199" s="18">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="5"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="7">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J200" s="7">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K200" s="19">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H203" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I203" s="20">
+        <f>SUM(I2:I202)</f>
+        <v>61366.666666666664</v>
+      </c>
+      <c r="J203" s="20">
+        <f>SUM(J2:J202)</f>
+        <v>0</v>
+      </c>
+      <c r="K203" s="20">
+        <f>SUM(K2:K202)</f>
+        <v>61366.666666666664</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:H201">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -330,16 +330,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -383,6 +373,273 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -425,270 +682,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -704,26 +704,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:K200" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:K200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:K200"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nombre" dataDxfId="12"/>
-    <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="11"/>
-    <tableColumn id="3" name="Valor en Dolares" dataDxfId="10" dataCellStyle="Moneda"/>
-    <tableColumn id="4" name="Valor en Pesos total" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="Valor por persona" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="1" name="Nombre" dataDxfId="10"/>
+    <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="9"/>
+    <tableColumn id="3" name="Valor en Dolares" dataDxfId="8" dataCellStyle="Moneda"/>
+    <tableColumn id="4" name="Valor en Pesos total" dataDxfId="7" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Valor por persona" dataDxfId="6" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla2[[#This Row],[Valor en Pesos total]]/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Andres" dataDxfId="7"/>
-    <tableColumn id="6" name="Luzbin" dataDxfId="6"/>
-    <tableColumn id="7" name="Zurdo" dataDxfId="5"/>
-    <tableColumn id="9" name="Andres Debe" dataDxfId="3" dataCellStyle="Moneda">
+    <tableColumn id="5" name="Andres" dataDxfId="5"/>
+    <tableColumn id="6" name="Luzbin" dataDxfId="4"/>
+    <tableColumn id="7" name="Zurdo" dataDxfId="3"/>
+    <tableColumn id="9" name="Andres Debe" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Luzbin Debe" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="10" name="Luzbin Debe" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Zurdo Debe" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="11" name="Zurdo Debe" dataDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6122,7 +6122,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:H201">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",F2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Andres</t>
   </si>
@@ -97,6 +97,24 @@
   <si>
     <t>Documentos Adionales\FACTURA LifeCareSolutions.pdf</t>
   </si>
+  <si>
+    <t>Electrodos Bioimpedan y EcG</t>
+  </si>
+  <si>
+    <t>Calle 37 #24-15     6455131    3158475626</t>
+  </si>
+  <si>
+    <t>Pedido pcb primera corrida</t>
+  </si>
+  <si>
+    <t>Documentos Adionales\Easy_Eda_1.pdf</t>
+  </si>
+  <si>
+    <t>No se han comprado</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +124,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +159,11 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -289,7 +312,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -322,6 +345,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -704,9 +729,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:K200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:K200"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:L200"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="Nombre" dataDxfId="10"/>
     <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="9"/>
     <tableColumn id="3" name="Valor en Dolares" dataDxfId="8" dataCellStyle="Moneda"/>
@@ -726,6 +751,7 @@
     <tableColumn id="11" name="Zurdo Debe" dataDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="12" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -994,13 +1020,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K203"/>
+  <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
@@ -1010,9 +1036,10 @@
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1073,11 @@
       <c r="K1" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1081,12 +1111,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K2" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1120,12 +1151,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>4000</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1144,28 +1176,29 @@
         <v>47000</v>
       </c>
       <c r="F4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="12">
         <v>1</v>
       </c>
       <c r="H4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>47000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K4" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1199,12 +1232,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>10366.666666666666</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -1238,62 +1272,96 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K6" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="K6" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>19000</v>
+      </c>
       <c r="E7" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+        <v>6333.333333333333</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
       <c r="I7" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>6333.333333333333</v>
       </c>
       <c r="J7" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+        <v>6333.333333333333</v>
+      </c>
+      <c r="K7" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>6333.333333333333</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3">
+        <f>48*3000</f>
+        <v>144000</v>
+      </c>
       <c r="E8" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+        <v>48000</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
       <c r="I8" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="J8" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K8" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>48000</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -1313,12 +1381,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K9" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -1338,12 +1407,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K10" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -1363,12 +1433,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K11" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -1388,12 +1459,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -1413,12 +1485,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K13" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1438,12 +1511,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K14" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -1463,12 +1537,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K15" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -1488,12 +1563,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K16" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -1513,12 +1589,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K17" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -1538,12 +1615,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K18" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -1563,12 +1641,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K19" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -1588,12 +1667,13 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K20" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" hidden="1">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -1613,12 +1693,12 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K21" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="23">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -1643,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1668,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -1693,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1718,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1743,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -1768,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -1793,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -1818,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1843,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -1868,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -1893,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -1918,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -1943,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
@@ -1968,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
@@ -1993,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="4"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
@@ -2018,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
@@ -2043,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="4"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
@@ -2068,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="4"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
@@ -2093,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="4"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
@@ -2118,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="4"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
@@ -2143,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
@@ -2168,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
@@ -2193,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="4"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
@@ -2218,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
@@ -2243,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="4"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
@@ -2268,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="4"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
@@ -2293,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="4"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
@@ -2318,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="4"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
@@ -2343,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" s="4"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
@@ -2368,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="4"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
@@ -2393,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="4"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
@@ -2418,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="4"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
@@ -2443,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="4"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
@@ -2468,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="4"/>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
@@ -2493,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="4"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
@@ -2518,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="4"/>
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
@@ -2543,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="4"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
@@ -2568,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="4"/>
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
@@ -2593,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="4"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
@@ -2618,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="4"/>
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
@@ -2643,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="4"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
@@ -2668,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64" s="4"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
@@ -2693,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65" s="4"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
@@ -2718,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="4"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
@@ -2743,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="4"/>
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
@@ -2768,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="4"/>
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
@@ -2793,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="4"/>
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
@@ -2818,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70" s="4"/>
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
@@ -2843,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1">
       <c r="A71" s="4"/>
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
@@ -2868,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1">
       <c r="A72" s="4"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
@@ -2893,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73" s="4"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
@@ -2918,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" s="4"/>
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
@@ -2943,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75" s="4"/>
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
@@ -2968,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76" s="4"/>
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
@@ -2993,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77" s="4"/>
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
@@ -3018,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1">
       <c r="A78" s="4"/>
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
@@ -3043,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1">
       <c r="A79" s="4"/>
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
@@ -3068,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80" s="4"/>
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
@@ -3093,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1">
       <c r="A81" s="4"/>
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
@@ -3118,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82" s="4"/>
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
@@ -3143,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83" s="4"/>
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
@@ -3168,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84" s="4"/>
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
@@ -3193,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85" s="4"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
@@ -3218,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86" s="4"/>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
@@ -3243,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87" s="4"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
@@ -3268,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88" s="4"/>
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
@@ -3293,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1">
       <c r="A89" s="4"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
@@ -3318,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1">
       <c r="A90" s="4"/>
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
@@ -3343,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1">
       <c r="A91" s="4"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
@@ -3368,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1">
       <c r="A92" s="4"/>
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
@@ -3393,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1">
       <c r="A93" s="4"/>
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
@@ -3418,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1">
       <c r="A94" s="4"/>
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
@@ -3443,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1">
       <c r="A95" s="4"/>
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
@@ -3468,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1">
       <c r="A96" s="4"/>
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
@@ -3493,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1">
       <c r="A97" s="4"/>
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
@@ -3518,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1">
       <c r="A98" s="4"/>
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
@@ -3543,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1">
       <c r="A99" s="4"/>
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
@@ -3568,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1">
       <c r="A100" s="4"/>
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
@@ -3593,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1">
       <c r="A101" s="4"/>
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
@@ -3618,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1">
       <c r="A102" s="4"/>
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
@@ -3643,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1">
       <c r="A103" s="4"/>
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
@@ -3668,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1">
       <c r="A104" s="4"/>
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
@@ -3693,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1">
       <c r="A105" s="4"/>
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
@@ -3718,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1">
       <c r="A106" s="4"/>
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
@@ -3743,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1">
       <c r="A107" s="4"/>
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
@@ -3768,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1">
       <c r="A108" s="4"/>
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
@@ -3793,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1">
       <c r="A109" s="4"/>
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
@@ -3818,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1">
       <c r="A110" s="4"/>
       <c r="B110" s="2"/>
       <c r="C110" s="3"/>
@@ -3843,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1">
       <c r="A111" s="4"/>
       <c r="B111" s="2"/>
       <c r="C111" s="3"/>
@@ -3868,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1">
       <c r="A112" s="4"/>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
@@ -3893,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1">
       <c r="A113" s="4"/>
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
@@ -3918,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1">
       <c r="A114" s="4"/>
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
@@ -3943,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1">
       <c r="A115" s="4"/>
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
@@ -3968,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1">
       <c r="A116" s="4"/>
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
@@ -3993,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1">
       <c r="A117" s="4"/>
       <c r="B117" s="2"/>
       <c r="C117" s="3"/>
@@ -4018,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1">
       <c r="A118" s="4"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3"/>
@@ -4043,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1">
       <c r="A119" s="4"/>
       <c r="B119" s="2"/>
       <c r="C119" s="3"/>
@@ -4068,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1">
       <c r="A120" s="4"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
@@ -4093,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1">
       <c r="A121" s="4"/>
       <c r="B121" s="2"/>
       <c r="C121" s="3"/>
@@ -4118,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1">
       <c r="A122" s="4"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3"/>
@@ -4143,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1">
       <c r="A123" s="4"/>
       <c r="B123" s="2"/>
       <c r="C123" s="3"/>
@@ -4168,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1">
       <c r="A124" s="4"/>
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
@@ -4193,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1">
       <c r="A125" s="4"/>
       <c r="B125" s="2"/>
       <c r="C125" s="3"/>
@@ -4218,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1">
       <c r="A126" s="4"/>
       <c r="B126" s="2"/>
       <c r="C126" s="3"/>
@@ -4243,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1">
       <c r="A127" s="4"/>
       <c r="B127" s="2"/>
       <c r="C127" s="3"/>
@@ -4268,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1">
       <c r="A128" s="4"/>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
@@ -4293,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1">
       <c r="A129" s="4"/>
       <c r="B129" s="2"/>
       <c r="C129" s="3"/>
@@ -4318,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1">
       <c r="A130" s="4"/>
       <c r="B130" s="2"/>
       <c r="C130" s="3"/>
@@ -4343,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1">
       <c r="A131" s="4"/>
       <c r="B131" s="2"/>
       <c r="C131" s="3"/>
@@ -4368,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1">
       <c r="A132" s="4"/>
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
@@ -4393,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1">
       <c r="A133" s="4"/>
       <c r="B133" s="2"/>
       <c r="C133" s="3"/>
@@ -4418,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1">
       <c r="A134" s="4"/>
       <c r="B134" s="2"/>
       <c r="C134" s="3"/>
@@ -4443,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1">
       <c r="A135" s="4"/>
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
@@ -4468,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1">
       <c r="A136" s="4"/>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
@@ -4493,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1">
       <c r="A137" s="4"/>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
@@ -4518,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1">
       <c r="A138" s="4"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
@@ -4543,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1">
       <c r="A139" s="4"/>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
@@ -4568,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1">
       <c r="A140" s="4"/>
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
@@ -4593,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1">
       <c r="A141" s="4"/>
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
@@ -4618,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1">
       <c r="A142" s="4"/>
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
@@ -4643,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1">
       <c r="A143" s="4"/>
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
@@ -4668,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1">
       <c r="A144" s="4"/>
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
@@ -4693,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1">
       <c r="A145" s="4"/>
       <c r="B145" s="2"/>
       <c r="C145" s="3"/>
@@ -4718,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1">
       <c r="A146" s="4"/>
       <c r="B146" s="2"/>
       <c r="C146" s="3"/>
@@ -4743,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1">
       <c r="A147" s="4"/>
       <c r="B147" s="2"/>
       <c r="C147" s="3"/>
@@ -4768,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1">
       <c r="A148" s="4"/>
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
@@ -4793,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1">
       <c r="A149" s="4"/>
       <c r="B149" s="2"/>
       <c r="C149" s="3"/>
@@ -4818,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1">
       <c r="A150" s="4"/>
       <c r="B150" s="2"/>
       <c r="C150" s="3"/>
@@ -4843,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1">
       <c r="A151" s="4"/>
       <c r="B151" s="2"/>
       <c r="C151" s="3"/>
@@ -4868,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1">
       <c r="A152" s="4"/>
       <c r="B152" s="2"/>
       <c r="C152" s="3"/>
@@ -4893,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1">
       <c r="A153" s="4"/>
       <c r="B153" s="2"/>
       <c r="C153" s="3"/>
@@ -4918,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1">
       <c r="A154" s="4"/>
       <c r="B154" s="2"/>
       <c r="C154" s="3"/>
@@ -4943,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1">
       <c r="A155" s="4"/>
       <c r="B155" s="2"/>
       <c r="C155" s="3"/>
@@ -4968,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1">
       <c r="A156" s="4"/>
       <c r="B156" s="2"/>
       <c r="C156" s="3"/>
@@ -4993,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1">
       <c r="A157" s="4"/>
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
@@ -5018,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1">
       <c r="A158" s="4"/>
       <c r="B158" s="2"/>
       <c r="C158" s="3"/>
@@ -5043,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1">
       <c r="A159" s="4"/>
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
@@ -5068,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1">
       <c r="A160" s="4"/>
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
@@ -5093,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1">
       <c r="A161" s="4"/>
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
@@ -5118,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1">
       <c r="A162" s="4"/>
       <c r="B162" s="2"/>
       <c r="C162" s="3"/>
@@ -5143,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1">
       <c r="A163" s="4"/>
       <c r="B163" s="2"/>
       <c r="C163" s="3"/>
@@ -5168,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1">
       <c r="A164" s="4"/>
       <c r="B164" s="2"/>
       <c r="C164" s="3"/>
@@ -5193,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1">
       <c r="A165" s="4"/>
       <c r="B165" s="2"/>
       <c r="C165" s="3"/>
@@ -5218,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1">
       <c r="A166" s="4"/>
       <c r="B166" s="2"/>
       <c r="C166" s="3"/>
@@ -5243,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1">
       <c r="A167" s="4"/>
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
@@ -5268,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1">
       <c r="A168" s="4"/>
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
@@ -5293,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1">
       <c r="A169" s="4"/>
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
@@ -5318,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1">
       <c r="A170" s="4"/>
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
@@ -5343,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1">
       <c r="A171" s="4"/>
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
@@ -5368,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1">
       <c r="A172" s="4"/>
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
@@ -5393,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1">
       <c r="A173" s="4"/>
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
@@ -5418,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1">
       <c r="A174" s="4"/>
       <c r="B174" s="2"/>
       <c r="C174" s="3"/>
@@ -5443,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1">
       <c r="A175" s="4"/>
       <c r="B175" s="2"/>
       <c r="C175" s="3"/>
@@ -5468,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1">
       <c r="A176" s="4"/>
       <c r="B176" s="2"/>
       <c r="C176" s="3"/>
@@ -5493,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1">
       <c r="A177" s="4"/>
       <c r="B177" s="2"/>
       <c r="C177" s="3"/>
@@ -5518,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1">
       <c r="A178" s="4"/>
       <c r="B178" s="2"/>
       <c r="C178" s="3"/>
@@ -5543,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1">
       <c r="A179" s="4"/>
       <c r="B179" s="2"/>
       <c r="C179" s="3"/>
@@ -5568,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1">
       <c r="A180" s="4"/>
       <c r="B180" s="2"/>
       <c r="C180" s="3"/>
@@ -5593,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1">
       <c r="A181" s="4"/>
       <c r="B181" s="2"/>
       <c r="C181" s="3"/>
@@ -5618,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1">
       <c r="A182" s="4"/>
       <c r="B182" s="2"/>
       <c r="C182" s="3"/>
@@ -5643,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1">
       <c r="A183" s="4"/>
       <c r="B183" s="2"/>
       <c r="C183" s="3"/>
@@ -5668,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1">
       <c r="A184" s="4"/>
       <c r="B184" s="2"/>
       <c r="C184" s="3"/>
@@ -5693,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1">
       <c r="A185" s="4"/>
       <c r="B185" s="2"/>
       <c r="C185" s="3"/>
@@ -5718,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1">
       <c r="A186" s="4"/>
       <c r="B186" s="2"/>
       <c r="C186" s="3"/>
@@ -5743,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1">
       <c r="A187" s="4"/>
       <c r="B187" s="2"/>
       <c r="C187" s="3"/>
@@ -5768,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1">
       <c r="A188" s="4"/>
       <c r="B188" s="2"/>
       <c r="C188" s="3"/>
@@ -5793,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1">
       <c r="A189" s="4"/>
       <c r="B189" s="2"/>
       <c r="C189" s="3"/>
@@ -5818,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1">
       <c r="A190" s="4"/>
       <c r="B190" s="2"/>
       <c r="C190" s="3"/>
@@ -5843,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1">
       <c r="A191" s="4"/>
       <c r="B191" s="2"/>
       <c r="C191" s="3"/>
@@ -5868,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1">
       <c r="A192" s="4"/>
       <c r="B192" s="2"/>
       <c r="C192" s="3"/>
@@ -5893,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1">
       <c r="A193" s="4"/>
       <c r="B193" s="2"/>
       <c r="C193" s="3"/>
@@ -5918,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1">
       <c r="A194" s="4"/>
       <c r="B194" s="2"/>
       <c r="C194" s="3"/>
@@ -5943,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1">
       <c r="A195" s="4"/>
       <c r="B195" s="2"/>
       <c r="C195" s="3"/>
@@ -5968,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1">
       <c r="A196" s="4"/>
       <c r="B196" s="2"/>
       <c r="C196" s="3"/>
@@ -5993,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1">
       <c r="A197" s="4"/>
       <c r="B197" s="2"/>
       <c r="C197" s="3"/>
@@ -6018,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1">
       <c r="A198" s="4"/>
       <c r="B198" s="2"/>
       <c r="C198" s="3"/>
@@ -6043,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1">
       <c r="A199" s="4"/>
       <c r="B199" s="2"/>
       <c r="C199" s="3"/>
@@ -6068,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1">
       <c r="A200" s="5"/>
       <c r="B200" s="6"/>
       <c r="C200" s="7"/>
@@ -6093,31 +6173,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="F201" s="15"/>
       <c r="G201" s="15"/>
       <c r="H201" s="15"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
       <c r="H203" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="20">
         <f>SUM(I2:I202)</f>
-        <v>61366.666666666664</v>
+        <v>68700</v>
       </c>
       <c r="J203" s="20">
         <f>SUM(J2:J202)</f>
-        <v>0</v>
+        <v>6333.333333333333</v>
       </c>
       <c r="K203" s="20">
         <f>SUM(K2:K202)</f>
-        <v>61366.666666666664</v>
+        <v>68700</v>
       </c>
     </row>
   </sheetData>
@@ -6131,11 +6211,12 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Andres</t>
   </si>
@@ -110,10 +110,28 @@
     <t>Documentos Adionales\Easy_Eda_1.pdf</t>
   </si>
   <si>
-    <t>No se han comprado</t>
+    <t>Columna1</t>
   </si>
   <si>
-    <t>Columna1</t>
+    <t>Fuente de PC</t>
+  </si>
+  <si>
+    <t>Sanandresito</t>
+  </si>
+  <si>
+    <t>Adaptadores Electrodos</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>Pedido casillero virtual coordinadora</t>
+  </si>
+  <si>
+    <t>Documentos Adionales\Pedido Casillero Coordinadora.png</t>
+  </si>
+  <si>
+    <t>Hptas impuestos de las pcb's</t>
   </si>
 </sst>
 </file>
@@ -312,7 +330,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -347,6 +365,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -576,7 +599,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1022,15 +1044,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1046,7 +1068,7 @@
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -1074,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1084,7 +1106,7 @@
       <c r="B2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3">
@@ -1124,7 +1146,7 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
@@ -1141,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1153,7 +1175,7 @@
       </c>
       <c r="K3" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -1164,7 +1186,7 @@
       <c r="B4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="25">
         <v>47</v>
       </c>
       <c r="D4" s="3">
@@ -1205,7 +1227,7 @@
       <c r="B5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3">
@@ -1245,7 +1267,7 @@
       <c r="B6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3">
@@ -1279,13 +1301,13 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="28" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3">
@@ -1299,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="12">
         <v>0</v>
@@ -1310,15 +1332,13 @@
       </c>
       <c r="J7" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>6333.333333333333</v>
       </c>
-      <c r="K7" s="3">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>6333.333333333333</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
@@ -1327,7 +1347,7 @@
       <c r="B8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="25">
         <v>48</v>
       </c>
       <c r="D8" s="3">
@@ -1339,7 +1359,7 @@
         <v>48000</v>
       </c>
       <c r="F8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="12">
         <v>1</v>
@@ -1349,33 +1369,47 @@
       </c>
       <c r="I8" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>48000</v>
       </c>
-      <c r="J8" s="3">
-        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>48000</v>
-      </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>42000</v>
+      </c>
       <c r="E9" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+        <v>14000</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
       <c r="I9" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="J9" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1388,20 +1422,35 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="25">
+        <v>4.28</v>
+      </c>
+      <c r="D10" s="3">
+        <f>Tabla2[[#This Row],[Valor en Dolares]]*3000</f>
+        <v>12840</v>
+      </c>
       <c r="E10" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+        <v>4280</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
       <c r="I10" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4280</v>
       </c>
       <c r="J10" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1409,25 +1458,40 @@
       </c>
       <c r="K10" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4280</v>
       </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="25">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3">
+        <f>Tabla2[[#This Row],[Valor en Dolares]]*3000</f>
+        <v>132000</v>
+      </c>
       <c r="E11" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+        <v>44000</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
       <c r="I11" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="J11" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1435,25 +1499,37 @@
       </c>
       <c r="K11" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>55000</v>
+      </c>
       <c r="E12" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+        <v>18333.333333333332</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
       <c r="I12" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>18333.333333333332</v>
       </c>
       <c r="J12" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1468,8 +1544,10 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
       <c r="E13" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
         <v>0</v>
@@ -1494,7 +1572,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1520,7 +1598,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1546,7 +1624,7 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1572,7 +1650,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1598,7 +1676,7 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1624,7 +1702,7 @@
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1650,7 +1728,7 @@
     <row r="20" spans="1:12">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1676,7 +1754,7 @@
     <row r="21" spans="1:12" hidden="1">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1701,7 +1779,7 @@
     <row r="22" spans="1:12" hidden="1">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1726,7 +1804,7 @@
     <row r="23" spans="1:12" hidden="1">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1751,7 +1829,7 @@
     <row r="24" spans="1:12" hidden="1">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1776,7 +1854,7 @@
     <row r="25" spans="1:12" hidden="1">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1801,7 +1879,7 @@
     <row r="26" spans="1:12" hidden="1">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1826,7 +1904,7 @@
     <row r="27" spans="1:12" hidden="1">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1851,7 +1929,7 @@
     <row r="28" spans="1:12" hidden="1">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1876,7 +1954,7 @@
     <row r="29" spans="1:12" hidden="1">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1901,7 +1979,7 @@
     <row r="30" spans="1:12" hidden="1">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1926,7 +2004,7 @@
     <row r="31" spans="1:12" hidden="1">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1951,7 +2029,7 @@
     <row r="32" spans="1:12" hidden="1">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -1976,7 +2054,7 @@
     <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2001,7 +2079,7 @@
     <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2026,7 +2104,7 @@
     <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2051,7 +2129,7 @@
     <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2076,7 +2154,7 @@
     <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="4"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2101,7 +2179,7 @@
     <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2126,7 +2204,7 @@
     <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="4"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2151,7 +2229,7 @@
     <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="4"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2176,7 +2254,7 @@
     <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="4"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2201,7 +2279,7 @@
     <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="4"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2226,7 +2304,7 @@
     <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2251,7 +2329,7 @@
     <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2276,7 +2354,7 @@
     <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="4"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2301,7 +2379,7 @@
     <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2326,7 +2404,7 @@
     <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="4"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2351,7 +2429,7 @@
     <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="4"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2376,7 +2454,7 @@
     <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="4"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2401,7 +2479,7 @@
     <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="4"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2426,7 +2504,7 @@
     <row r="51" spans="1:11" hidden="1">
       <c r="A51" s="4"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2451,7 +2529,7 @@
     <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="4"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2476,7 +2554,7 @@
     <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="4"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2501,7 +2579,7 @@
     <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="4"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2526,7 +2604,7 @@
     <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="4"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2551,7 +2629,7 @@
     <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="4"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2576,7 +2654,7 @@
     <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="4"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2601,7 +2679,7 @@
     <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="4"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2626,7 +2704,7 @@
     <row r="59" spans="1:11" hidden="1">
       <c r="A59" s="4"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2651,7 +2729,7 @@
     <row r="60" spans="1:11" hidden="1">
       <c r="A60" s="4"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2676,7 +2754,7 @@
     <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="4"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2701,7 +2779,7 @@
     <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="4"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2726,7 +2804,7 @@
     <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="4"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2751,7 +2829,7 @@
     <row r="64" spans="1:11" hidden="1">
       <c r="A64" s="4"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2776,7 +2854,7 @@
     <row r="65" spans="1:11" hidden="1">
       <c r="A65" s="4"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2801,7 +2879,7 @@
     <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="4"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2826,7 +2904,7 @@
     <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="4"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2851,7 +2929,7 @@
     <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="4"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2876,7 +2954,7 @@
     <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="4"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2901,7 +2979,7 @@
     <row r="70" spans="1:11" hidden="1">
       <c r="A70" s="4"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2926,7 +3004,7 @@
     <row r="71" spans="1:11" hidden="1">
       <c r="A71" s="4"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2951,7 +3029,7 @@
     <row r="72" spans="1:11" hidden="1">
       <c r="A72" s="4"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2976,7 +3054,7 @@
     <row r="73" spans="1:11" hidden="1">
       <c r="A73" s="4"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3001,7 +3079,7 @@
     <row r="74" spans="1:11" hidden="1">
       <c r="A74" s="4"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="3"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3026,7 +3104,7 @@
     <row r="75" spans="1:11" hidden="1">
       <c r="A75" s="4"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="3"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3051,7 +3129,7 @@
     <row r="76" spans="1:11" hidden="1">
       <c r="A76" s="4"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="3"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3076,7 +3154,7 @@
     <row r="77" spans="1:11" hidden="1">
       <c r="A77" s="4"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="3"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3101,7 +3179,7 @@
     <row r="78" spans="1:11" hidden="1">
       <c r="A78" s="4"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="3"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3126,7 +3204,7 @@
     <row r="79" spans="1:11" hidden="1">
       <c r="A79" s="4"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="3"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3151,7 +3229,7 @@
     <row r="80" spans="1:11" hidden="1">
       <c r="A80" s="4"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="3"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3176,7 +3254,7 @@
     <row r="81" spans="1:11" hidden="1">
       <c r="A81" s="4"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="3"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3201,7 +3279,7 @@
     <row r="82" spans="1:11" hidden="1">
       <c r="A82" s="4"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3226,7 +3304,7 @@
     <row r="83" spans="1:11" hidden="1">
       <c r="A83" s="4"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="3"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3251,7 +3329,7 @@
     <row r="84" spans="1:11" hidden="1">
       <c r="A84" s="4"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="3"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3276,7 +3354,7 @@
     <row r="85" spans="1:11" hidden="1">
       <c r="A85" s="4"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="3"/>
+      <c r="C85" s="25"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3301,7 +3379,7 @@
     <row r="86" spans="1:11" hidden="1">
       <c r="A86" s="4"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="3"/>
+      <c r="C86" s="25"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3326,7 +3404,7 @@
     <row r="87" spans="1:11" hidden="1">
       <c r="A87" s="4"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="3"/>
+      <c r="C87" s="25"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3351,7 +3429,7 @@
     <row r="88" spans="1:11" hidden="1">
       <c r="A88" s="4"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="3"/>
+      <c r="C88" s="25"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3376,7 +3454,7 @@
     <row r="89" spans="1:11" hidden="1">
       <c r="A89" s="4"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="3"/>
+      <c r="C89" s="25"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3401,7 +3479,7 @@
     <row r="90" spans="1:11" hidden="1">
       <c r="A90" s="4"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="3"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3426,7 +3504,7 @@
     <row r="91" spans="1:11" hidden="1">
       <c r="A91" s="4"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="3"/>
+      <c r="C91" s="25"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3451,7 +3529,7 @@
     <row r="92" spans="1:11" hidden="1">
       <c r="A92" s="4"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="3"/>
+      <c r="C92" s="25"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3476,7 +3554,7 @@
     <row r="93" spans="1:11" hidden="1">
       <c r="A93" s="4"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="3"/>
+      <c r="C93" s="25"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3501,7 +3579,7 @@
     <row r="94" spans="1:11" hidden="1">
       <c r="A94" s="4"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="3"/>
+      <c r="C94" s="25"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3526,7 +3604,7 @@
     <row r="95" spans="1:11" hidden="1">
       <c r="A95" s="4"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="3"/>
+      <c r="C95" s="25"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3551,7 +3629,7 @@
     <row r="96" spans="1:11" hidden="1">
       <c r="A96" s="4"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="3"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3576,7 +3654,7 @@
     <row r="97" spans="1:11" hidden="1">
       <c r="A97" s="4"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="3"/>
+      <c r="C97" s="25"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3601,7 +3679,7 @@
     <row r="98" spans="1:11" hidden="1">
       <c r="A98" s="4"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="3"/>
+      <c r="C98" s="25"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3626,7 +3704,7 @@
     <row r="99" spans="1:11" hidden="1">
       <c r="A99" s="4"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="3"/>
+      <c r="C99" s="25"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3651,7 +3729,7 @@
     <row r="100" spans="1:11" hidden="1">
       <c r="A100" s="4"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="3"/>
+      <c r="C100" s="25"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3676,7 +3754,7 @@
     <row r="101" spans="1:11" hidden="1">
       <c r="A101" s="4"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="3"/>
+      <c r="C101" s="25"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3701,7 +3779,7 @@
     <row r="102" spans="1:11" hidden="1">
       <c r="A102" s="4"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="3"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3726,7 +3804,7 @@
     <row r="103" spans="1:11" hidden="1">
       <c r="A103" s="4"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="3"/>
+      <c r="C103" s="25"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3751,7 +3829,7 @@
     <row r="104" spans="1:11" hidden="1">
       <c r="A104" s="4"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="3"/>
+      <c r="C104" s="25"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3776,7 +3854,7 @@
     <row r="105" spans="1:11" hidden="1">
       <c r="A105" s="4"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="3"/>
+      <c r="C105" s="25"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3801,7 +3879,7 @@
     <row r="106" spans="1:11" hidden="1">
       <c r="A106" s="4"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="3"/>
+      <c r="C106" s="25"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3826,7 +3904,7 @@
     <row r="107" spans="1:11" hidden="1">
       <c r="A107" s="4"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="3"/>
+      <c r="C107" s="25"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3851,7 +3929,7 @@
     <row r="108" spans="1:11" hidden="1">
       <c r="A108" s="4"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="3"/>
+      <c r="C108" s="25"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3876,7 +3954,7 @@
     <row r="109" spans="1:11" hidden="1">
       <c r="A109" s="4"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="3"/>
+      <c r="C109" s="25"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3901,7 +3979,7 @@
     <row r="110" spans="1:11" hidden="1">
       <c r="A110" s="4"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="3"/>
+      <c r="C110" s="25"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3926,7 +4004,7 @@
     <row r="111" spans="1:11" hidden="1">
       <c r="A111" s="4"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="3"/>
+      <c r="C111" s="25"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3951,7 +4029,7 @@
     <row r="112" spans="1:11" hidden="1">
       <c r="A112" s="4"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="3"/>
+      <c r="C112" s="25"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3976,7 +4054,7 @@
     <row r="113" spans="1:11" hidden="1">
       <c r="A113" s="4"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="3"/>
+      <c r="C113" s="25"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4001,7 +4079,7 @@
     <row r="114" spans="1:11" hidden="1">
       <c r="A114" s="4"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="3"/>
+      <c r="C114" s="25"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4026,7 +4104,7 @@
     <row r="115" spans="1:11" hidden="1">
       <c r="A115" s="4"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="3"/>
+      <c r="C115" s="25"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4051,7 +4129,7 @@
     <row r="116" spans="1:11" hidden="1">
       <c r="A116" s="4"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="3"/>
+      <c r="C116" s="25"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4076,7 +4154,7 @@
     <row r="117" spans="1:11" hidden="1">
       <c r="A117" s="4"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="3"/>
+      <c r="C117" s="25"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4101,7 +4179,7 @@
     <row r="118" spans="1:11" hidden="1">
       <c r="A118" s="4"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="3"/>
+      <c r="C118" s="25"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4126,7 +4204,7 @@
     <row r="119" spans="1:11" hidden="1">
       <c r="A119" s="4"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="3"/>
+      <c r="C119" s="25"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4151,7 +4229,7 @@
     <row r="120" spans="1:11" hidden="1">
       <c r="A120" s="4"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="3"/>
+      <c r="C120" s="25"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4176,7 +4254,7 @@
     <row r="121" spans="1:11" hidden="1">
       <c r="A121" s="4"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="3"/>
+      <c r="C121" s="25"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4201,7 +4279,7 @@
     <row r="122" spans="1:11" hidden="1">
       <c r="A122" s="4"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="3"/>
+      <c r="C122" s="25"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4226,7 +4304,7 @@
     <row r="123" spans="1:11" hidden="1">
       <c r="A123" s="4"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="3"/>
+      <c r="C123" s="25"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4251,7 +4329,7 @@
     <row r="124" spans="1:11" hidden="1">
       <c r="A124" s="4"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="3"/>
+      <c r="C124" s="25"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4276,7 +4354,7 @@
     <row r="125" spans="1:11" hidden="1">
       <c r="A125" s="4"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="3"/>
+      <c r="C125" s="25"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4301,7 +4379,7 @@
     <row r="126" spans="1:11" hidden="1">
       <c r="A126" s="4"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="3"/>
+      <c r="C126" s="25"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4326,7 +4404,7 @@
     <row r="127" spans="1:11" hidden="1">
       <c r="A127" s="4"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="3"/>
+      <c r="C127" s="25"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4351,7 +4429,7 @@
     <row r="128" spans="1:11" hidden="1">
       <c r="A128" s="4"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="3"/>
+      <c r="C128" s="25"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4376,7 +4454,7 @@
     <row r="129" spans="1:11" hidden="1">
       <c r="A129" s="4"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="3"/>
+      <c r="C129" s="25"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4401,7 +4479,7 @@
     <row r="130" spans="1:11" hidden="1">
       <c r="A130" s="4"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="3"/>
+      <c r="C130" s="25"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4426,7 +4504,7 @@
     <row r="131" spans="1:11" hidden="1">
       <c r="A131" s="4"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="3"/>
+      <c r="C131" s="25"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4451,7 +4529,7 @@
     <row r="132" spans="1:11" hidden="1">
       <c r="A132" s="4"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="3"/>
+      <c r="C132" s="25"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4476,7 +4554,7 @@
     <row r="133" spans="1:11" hidden="1">
       <c r="A133" s="4"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="3"/>
+      <c r="C133" s="25"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4501,7 +4579,7 @@
     <row r="134" spans="1:11" hidden="1">
       <c r="A134" s="4"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="3"/>
+      <c r="C134" s="25"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4526,7 +4604,7 @@
     <row r="135" spans="1:11" hidden="1">
       <c r="A135" s="4"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="3"/>
+      <c r="C135" s="25"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4551,7 +4629,7 @@
     <row r="136" spans="1:11" hidden="1">
       <c r="A136" s="4"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="3"/>
+      <c r="C136" s="25"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4576,7 +4654,7 @@
     <row r="137" spans="1:11" hidden="1">
       <c r="A137" s="4"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="3"/>
+      <c r="C137" s="25"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4601,7 +4679,7 @@
     <row r="138" spans="1:11" hidden="1">
       <c r="A138" s="4"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="3"/>
+      <c r="C138" s="25"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4626,7 +4704,7 @@
     <row r="139" spans="1:11" hidden="1">
       <c r="A139" s="4"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="3"/>
+      <c r="C139" s="25"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4651,7 +4729,7 @@
     <row r="140" spans="1:11" hidden="1">
       <c r="A140" s="4"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="3"/>
+      <c r="C140" s="25"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4676,7 +4754,7 @@
     <row r="141" spans="1:11" hidden="1">
       <c r="A141" s="4"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="3"/>
+      <c r="C141" s="25"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4701,7 +4779,7 @@
     <row r="142" spans="1:11" hidden="1">
       <c r="A142" s="4"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="3"/>
+      <c r="C142" s="25"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4726,7 +4804,7 @@
     <row r="143" spans="1:11" hidden="1">
       <c r="A143" s="4"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="3"/>
+      <c r="C143" s="25"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4751,7 +4829,7 @@
     <row r="144" spans="1:11" hidden="1">
       <c r="A144" s="4"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="3"/>
+      <c r="C144" s="25"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4776,7 +4854,7 @@
     <row r="145" spans="1:11" hidden="1">
       <c r="A145" s="4"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="3"/>
+      <c r="C145" s="25"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4801,7 +4879,7 @@
     <row r="146" spans="1:11" hidden="1">
       <c r="A146" s="4"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="3"/>
+      <c r="C146" s="25"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4826,7 +4904,7 @@
     <row r="147" spans="1:11" hidden="1">
       <c r="A147" s="4"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="3"/>
+      <c r="C147" s="25"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4851,7 +4929,7 @@
     <row r="148" spans="1:11" hidden="1">
       <c r="A148" s="4"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="3"/>
+      <c r="C148" s="25"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4876,7 +4954,7 @@
     <row r="149" spans="1:11" hidden="1">
       <c r="A149" s="4"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="3"/>
+      <c r="C149" s="25"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4901,7 +4979,7 @@
     <row r="150" spans="1:11" hidden="1">
       <c r="A150" s="4"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="3"/>
+      <c r="C150" s="25"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4926,7 +5004,7 @@
     <row r="151" spans="1:11" hidden="1">
       <c r="A151" s="4"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="3"/>
+      <c r="C151" s="25"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4951,7 +5029,7 @@
     <row r="152" spans="1:11" hidden="1">
       <c r="A152" s="4"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="3"/>
+      <c r="C152" s="25"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4976,7 +5054,7 @@
     <row r="153" spans="1:11" hidden="1">
       <c r="A153" s="4"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="3"/>
+      <c r="C153" s="25"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5001,7 +5079,7 @@
     <row r="154" spans="1:11" hidden="1">
       <c r="A154" s="4"/>
       <c r="B154" s="2"/>
-      <c r="C154" s="3"/>
+      <c r="C154" s="25"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5026,7 +5104,7 @@
     <row r="155" spans="1:11" hidden="1">
       <c r="A155" s="4"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="3"/>
+      <c r="C155" s="25"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5051,7 +5129,7 @@
     <row r="156" spans="1:11" hidden="1">
       <c r="A156" s="4"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="3"/>
+      <c r="C156" s="25"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5076,7 +5154,7 @@
     <row r="157" spans="1:11" hidden="1">
       <c r="A157" s="4"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="3"/>
+      <c r="C157" s="25"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5101,7 +5179,7 @@
     <row r="158" spans="1:11" hidden="1">
       <c r="A158" s="4"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="3"/>
+      <c r="C158" s="25"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5126,7 +5204,7 @@
     <row r="159" spans="1:11" hidden="1">
       <c r="A159" s="4"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="3"/>
+      <c r="C159" s="25"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5151,7 +5229,7 @@
     <row r="160" spans="1:11" hidden="1">
       <c r="A160" s="4"/>
       <c r="B160" s="2"/>
-      <c r="C160" s="3"/>
+      <c r="C160" s="25"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5176,7 +5254,7 @@
     <row r="161" spans="1:11" hidden="1">
       <c r="A161" s="4"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="3"/>
+      <c r="C161" s="25"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5201,7 +5279,7 @@
     <row r="162" spans="1:11" hidden="1">
       <c r="A162" s="4"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="3"/>
+      <c r="C162" s="25"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5226,7 +5304,7 @@
     <row r="163" spans="1:11" hidden="1">
       <c r="A163" s="4"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="3"/>
+      <c r="C163" s="25"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5251,7 +5329,7 @@
     <row r="164" spans="1:11" hidden="1">
       <c r="A164" s="4"/>
       <c r="B164" s="2"/>
-      <c r="C164" s="3"/>
+      <c r="C164" s="25"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5276,7 +5354,7 @@
     <row r="165" spans="1:11" hidden="1">
       <c r="A165" s="4"/>
       <c r="B165" s="2"/>
-      <c r="C165" s="3"/>
+      <c r="C165" s="25"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5301,7 +5379,7 @@
     <row r="166" spans="1:11" hidden="1">
       <c r="A166" s="4"/>
       <c r="B166" s="2"/>
-      <c r="C166" s="3"/>
+      <c r="C166" s="25"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5326,7 +5404,7 @@
     <row r="167" spans="1:11" hidden="1">
       <c r="A167" s="4"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="3"/>
+      <c r="C167" s="25"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5351,7 +5429,7 @@
     <row r="168" spans="1:11" hidden="1">
       <c r="A168" s="4"/>
       <c r="B168" s="2"/>
-      <c r="C168" s="3"/>
+      <c r="C168" s="25"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5376,7 +5454,7 @@
     <row r="169" spans="1:11" hidden="1">
       <c r="A169" s="4"/>
       <c r="B169" s="2"/>
-      <c r="C169" s="3"/>
+      <c r="C169" s="25"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5401,7 +5479,7 @@
     <row r="170" spans="1:11" hidden="1">
       <c r="A170" s="4"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="3"/>
+      <c r="C170" s="25"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5426,7 +5504,7 @@
     <row r="171" spans="1:11" hidden="1">
       <c r="A171" s="4"/>
       <c r="B171" s="2"/>
-      <c r="C171" s="3"/>
+      <c r="C171" s="25"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5451,7 +5529,7 @@
     <row r="172" spans="1:11" hidden="1">
       <c r="A172" s="4"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="3"/>
+      <c r="C172" s="25"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5476,7 +5554,7 @@
     <row r="173" spans="1:11" hidden="1">
       <c r="A173" s="4"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="3"/>
+      <c r="C173" s="25"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5501,7 +5579,7 @@
     <row r="174" spans="1:11" hidden="1">
       <c r="A174" s="4"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="3"/>
+      <c r="C174" s="25"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5526,7 +5604,7 @@
     <row r="175" spans="1:11" hidden="1">
       <c r="A175" s="4"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="3"/>
+      <c r="C175" s="25"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5551,7 +5629,7 @@
     <row r="176" spans="1:11" hidden="1">
       <c r="A176" s="4"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="3"/>
+      <c r="C176" s="25"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5576,7 +5654,7 @@
     <row r="177" spans="1:11" hidden="1">
       <c r="A177" s="4"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="3"/>
+      <c r="C177" s="25"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5601,7 +5679,7 @@
     <row r="178" spans="1:11" hidden="1">
       <c r="A178" s="4"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="3"/>
+      <c r="C178" s="25"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5626,7 +5704,7 @@
     <row r="179" spans="1:11" hidden="1">
       <c r="A179" s="4"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="3"/>
+      <c r="C179" s="25"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5651,7 +5729,7 @@
     <row r="180" spans="1:11" hidden="1">
       <c r="A180" s="4"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="3"/>
+      <c r="C180" s="25"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5676,7 +5754,7 @@
     <row r="181" spans="1:11" hidden="1">
       <c r="A181" s="4"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="3"/>
+      <c r="C181" s="25"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5701,7 +5779,7 @@
     <row r="182" spans="1:11" hidden="1">
       <c r="A182" s="4"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="3"/>
+      <c r="C182" s="25"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5726,7 +5804,7 @@
     <row r="183" spans="1:11" hidden="1">
       <c r="A183" s="4"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="3"/>
+      <c r="C183" s="25"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5751,7 +5829,7 @@
     <row r="184" spans="1:11" hidden="1">
       <c r="A184" s="4"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="3"/>
+      <c r="C184" s="25"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5776,7 +5854,7 @@
     <row r="185" spans="1:11" hidden="1">
       <c r="A185" s="4"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="3"/>
+      <c r="C185" s="25"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5801,7 +5879,7 @@
     <row r="186" spans="1:11" hidden="1">
       <c r="A186" s="4"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="3"/>
+      <c r="C186" s="25"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5826,7 +5904,7 @@
     <row r="187" spans="1:11" hidden="1">
       <c r="A187" s="4"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="3"/>
+      <c r="C187" s="25"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5851,7 +5929,7 @@
     <row r="188" spans="1:11" hidden="1">
       <c r="A188" s="4"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="3"/>
+      <c r="C188" s="25"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5876,7 +5954,7 @@
     <row r="189" spans="1:11" hidden="1">
       <c r="A189" s="4"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="3"/>
+      <c r="C189" s="25"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5901,7 +5979,7 @@
     <row r="190" spans="1:11" hidden="1">
       <c r="A190" s="4"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="3"/>
+      <c r="C190" s="25"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5926,7 +6004,7 @@
     <row r="191" spans="1:11" hidden="1">
       <c r="A191" s="4"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="3"/>
+      <c r="C191" s="25"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5951,7 +6029,7 @@
     <row r="192" spans="1:11" hidden="1">
       <c r="A192" s="4"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="3"/>
+      <c r="C192" s="25"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5976,7 +6054,7 @@
     <row r="193" spans="1:11" hidden="1">
       <c r="A193" s="4"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="3"/>
+      <c r="C193" s="25"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6001,7 +6079,7 @@
     <row r="194" spans="1:11" hidden="1">
       <c r="A194" s="4"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="3"/>
+      <c r="C194" s="25"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6026,7 +6104,7 @@
     <row r="195" spans="1:11" hidden="1">
       <c r="A195" s="4"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="3"/>
+      <c r="C195" s="25"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6051,7 +6129,7 @@
     <row r="196" spans="1:11" hidden="1">
       <c r="A196" s="4"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="3"/>
+      <c r="C196" s="25"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6076,7 +6154,7 @@
     <row r="197" spans="1:11" hidden="1">
       <c r="A197" s="4"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="3"/>
+      <c r="C197" s="25"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6101,7 +6179,7 @@
     <row r="198" spans="1:11" hidden="1">
       <c r="A198" s="4"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="3"/>
+      <c r="C198" s="25"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6126,7 +6204,7 @@
     <row r="199" spans="1:11" hidden="1">
       <c r="A199" s="4"/>
       <c r="B199" s="2"/>
-      <c r="C199" s="3"/>
+      <c r="C199" s="25"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6151,7 +6229,7 @@
     <row r="200" spans="1:11" hidden="1">
       <c r="A200" s="5"/>
       <c r="B200" s="6"/>
-      <c r="C200" s="7"/>
+      <c r="C200" s="26"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6184,20 +6262,28 @@
       <c r="H202" s="11"/>
     </row>
     <row r="203" spans="1:11">
+      <c r="D203" s="1">
+        <f>SUM(D2:D202)</f>
+        <v>806268</v>
+      </c>
+      <c r="E203" s="1">
+        <f>SUM(E2:E202)</f>
+        <v>268756</v>
+      </c>
       <c r="H203" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="20">
         <f>SUM(I2:I202)</f>
-        <v>68700</v>
+        <v>101313.33333333333</v>
       </c>
       <c r="J203" s="20">
         <f>SUM(J2:J202)</f>
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="K203" s="20">
         <f>SUM(K2:K202)</f>
-        <v>68700</v>
+        <v>112980</v>
       </c>
     </row>
   </sheetData>
@@ -6212,11 +6298,12 @@
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4"/>
     <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Andres</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Hptas impuestos de las pcb's</t>
+  </si>
+  <si>
+    <t>Didacticas Electronicas</t>
+  </si>
+  <si>
+    <t>LCD</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1051,7 @@
   <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I203" sqref="I203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1542,22 +1548,32 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>76800</v>
       </c>
       <c r="E13" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+        <v>25600</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
       <c r="I13" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>25600</v>
       </c>
       <c r="J13" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1565,33 +1581,45 @@
       </c>
       <c r="K13" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>25600</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3">
+        <v>98500</v>
+      </c>
       <c r="E14" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+        <v>32833.333333333336</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
       <c r="I14" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>32833.333333333336</v>
       </c>
       <c r="J14" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>32833.333333333336</v>
       </c>
       <c r="K14" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>32833.333333333336</v>
       </c>
       <c r="L14" s="2"/>
     </row>
@@ -6264,26 +6292,26 @@
     <row r="203" spans="1:11">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>806268</v>
+        <v>981568</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>268756</v>
+        <v>327189.33333333331</v>
       </c>
       <c r="H203" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="20">
         <f>SUM(I2:I202)</f>
-        <v>101313.33333333333</v>
+        <v>159746.66666666666</v>
       </c>
       <c r="J203" s="20">
         <f>SUM(J2:J202)</f>
-        <v>0</v>
+        <v>32833.333333333336</v>
       </c>
       <c r="K203" s="20">
         <f>SUM(K2:K202)</f>
-        <v>112980</v>
+        <v>171413.33333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Andres</t>
   </si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>LCD</t>
+  </si>
+  <si>
+    <t>Documentos Adionales\Preliquidacion_ofdelgad_20170530112206.pdf</t>
+  </si>
+  <si>
+    <t>TIP 41 y TIP42 Eletrokit</t>
+  </si>
+  <si>
+    <t>Trafo potencia</t>
+  </si>
+  <si>
+    <t>Centro comercial la pulgas</t>
+  </si>
+  <si>
+    <t>Avantel 2</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1066,7 @@
   <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I203" sqref="I203"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1513,7 +1528,9 @@
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="C12" s="25" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1619,85 +1636,123 @@
       </c>
       <c r="K14" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>32833.333333333336</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4800</v>
+      </c>
       <c r="E15" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+        <v>1600</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
       <c r="I15" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J15" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="K15" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10000</v>
+      </c>
       <c r="E16" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
       <c r="I16" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="J16" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K16" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8000</v>
+      </c>
       <c r="E17" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+        <v>2666.6666666666665</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
       <c r="I17" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="J17" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="K17" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="L17" s="2"/>
     </row>
@@ -6292,26 +6347,26 @@
     <row r="203" spans="1:11">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>981568</v>
+        <v>1004368</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>327189.33333333331</v>
+        <v>334789.33333333331</v>
       </c>
       <c r="H203" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="20">
         <f>SUM(I2:I202)</f>
-        <v>159746.66666666666</v>
+        <v>167346.66666666666</v>
       </c>
       <c r="J203" s="20">
         <f>SUM(J2:J202)</f>
-        <v>32833.333333333336</v>
+        <v>40433.333333333336</v>
       </c>
       <c r="K203" s="20">
         <f>SUM(K2:K202)</f>
-        <v>171413.33333333334</v>
+        <v>146180</v>
       </c>
     </row>
   </sheetData>
@@ -6327,11 +6382,12 @@
     <hyperlink ref="B6" r:id="rId4"/>
     <hyperlink ref="B8" r:id="rId5"/>
     <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Andres</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Avantel 2</t>
+  </si>
+  <si>
+    <t>Diseñado industrial</t>
   </si>
 </sst>
 </file>
@@ -399,6 +402,16 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -748,16 +761,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -772,26 +775,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L200" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L200"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Nombre" dataDxfId="10"/>
-    <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="9"/>
-    <tableColumn id="3" name="Valor en Dolares" dataDxfId="8" dataCellStyle="Moneda"/>
-    <tableColumn id="4" name="Valor en Pesos total" dataDxfId="7" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="Valor por persona" dataDxfId="6" dataCellStyle="Moneda">
+    <tableColumn id="1" name="Nombre" dataDxfId="11"/>
+    <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="10"/>
+    <tableColumn id="3" name="Valor en Dolares" dataDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="4" name="Valor en Pesos total" dataDxfId="8" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Valor por persona" dataDxfId="7" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla2[[#This Row],[Valor en Pesos total]]/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Andres" dataDxfId="5"/>
-    <tableColumn id="6" name="Luzbin" dataDxfId="4"/>
-    <tableColumn id="7" name="Zurdo" dataDxfId="3"/>
-    <tableColumn id="9" name="Andres Debe" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="5" name="Andres" dataDxfId="6"/>
+    <tableColumn id="6" name="Luzbin" dataDxfId="5"/>
+    <tableColumn id="7" name="Zurdo" dataDxfId="4"/>
+    <tableColumn id="9" name="Andres Debe" dataDxfId="3" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Luzbin Debe" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="10" name="Luzbin Debe" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Zurdo Debe" dataDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="11" name="Zurdo Debe" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="Columna1"/>
@@ -1065,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1339,7 +1342,7 @@
         <v>6333.333333333333</v>
       </c>
       <c r="F7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="12">
         <v>1</v>
@@ -1349,7 +1352,7 @@
       </c>
       <c r="I7" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1467,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1479,7 +1482,7 @@
       </c>
       <c r="K10" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4280</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2"/>
     </row>
@@ -1502,7 +1505,7 @@
         <v>44000</v>
       </c>
       <c r="F11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="12">
         <v>1</v>
@@ -1512,7 +1515,7 @@
       </c>
       <c r="I11" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1586,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1598,7 +1601,7 @@
       </c>
       <c r="K13" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>25600</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2"/>
     </row>
@@ -1702,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1714,7 +1717,7 @@
       </c>
       <c r="K16" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2"/>
     </row>
@@ -1740,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1752,15 +1755,21 @@
       </c>
       <c r="K17" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2666.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
       <c r="E18" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
         <v>0</v>
@@ -6358,7 +6367,7 @@
       </c>
       <c r="I203" s="20">
         <f>SUM(I2:I202)</f>
-        <v>167346.66666666666</v>
+        <v>117013.33333333334</v>
       </c>
       <c r="J203" s="20">
         <f>SUM(J2:J202)</f>
@@ -6366,12 +6375,12 @@
       </c>
       <c r="K203" s="20">
         <f>SUM(K2:K202)</f>
-        <v>146180</v>
+        <v>110300</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:H201">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",F2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Andres</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Diseñado industrial</t>
+  </si>
+  <si>
+    <t>Transformador</t>
+  </si>
+  <si>
+    <t>Antena</t>
   </si>
 </sst>
 </file>
@@ -402,16 +408,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -761,6 +757,16 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -775,26 +781,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L200" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:L200"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Nombre" dataDxfId="11"/>
-    <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="10"/>
-    <tableColumn id="3" name="Valor en Dolares" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="4" name="Valor en Pesos total" dataDxfId="8" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="Valor por persona" dataDxfId="7" dataCellStyle="Moneda">
+    <tableColumn id="1" name="Nombre" dataDxfId="10"/>
+    <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="9"/>
+    <tableColumn id="3" name="Valor en Dolares" dataDxfId="8" dataCellStyle="Moneda"/>
+    <tableColumn id="4" name="Valor en Pesos total" dataDxfId="7" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Valor por persona" dataDxfId="6" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla2[[#This Row],[Valor en Pesos total]]/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Andres" dataDxfId="6"/>
-    <tableColumn id="6" name="Luzbin" dataDxfId="5"/>
-    <tableColumn id="7" name="Zurdo" dataDxfId="4"/>
-    <tableColumn id="9" name="Andres Debe" dataDxfId="3" dataCellStyle="Moneda">
+    <tableColumn id="5" name="Andres" dataDxfId="5"/>
+    <tableColumn id="6" name="Luzbin" dataDxfId="4"/>
+    <tableColumn id="7" name="Zurdo" dataDxfId="3"/>
+    <tableColumn id="9" name="Andres Debe" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Luzbin Debe" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="10" name="Luzbin Debe" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Zurdo Debe" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="11" name="Zurdo Debe" dataDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="Columna1"/>
@@ -1069,7 +1075,7 @@
   <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1792,7 +1798,9 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="25"/>
       <c r="D19" s="3"/>
@@ -1818,28 +1826,40 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3">
+        <v>75000</v>
+      </c>
       <c r="E20" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+        <v>25000</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
       <c r="I20" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="J20" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="K20" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="L20" s="2"/>
     </row>
@@ -6356,31 +6376,31 @@
     <row r="203" spans="1:11">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>1004368</v>
+        <v>1079368</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>334789.33333333331</v>
+        <v>359789.33333333331</v>
       </c>
       <c r="H203" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="20">
         <f>SUM(I2:I202)</f>
-        <v>117013.33333333334</v>
+        <v>142013.33333333334</v>
       </c>
       <c r="J203" s="20">
         <f>SUM(J2:J202)</f>
-        <v>40433.333333333336</v>
+        <v>65433.333333333336</v>
       </c>
       <c r="K203" s="20">
         <f>SUM(K2:K202)</f>
-        <v>110300</v>
+        <v>135300</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:H201">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",F2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Gastos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gastos!$A$1:$H$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gastos!$A$1:$H$201</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Andres</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Didacticas Electronicas</t>
   </si>
   <si>
-    <t>LCD</t>
-  </si>
-  <si>
     <t>Documentos Adionales\Preliquidacion_ofdelgad_20170530112206.pdf</t>
   </si>
   <si>
@@ -163,6 +160,39 @@
   <si>
     <t>Antena</t>
   </si>
+  <si>
+    <t>LCD_1</t>
+  </si>
+  <si>
+    <t>LCD_2</t>
+  </si>
+  <si>
+    <t>Abono 2 al total de la pantalla</t>
+  </si>
+  <si>
+    <t>Abono 1 al total de la pantalla</t>
+  </si>
+  <si>
+    <t>ECG Chino</t>
+  </si>
+  <si>
+    <t>Digikey 2</t>
+  </si>
+  <si>
+    <t>Pulgas</t>
+  </si>
+  <si>
+    <t>Disipadores, fuente y trafo</t>
+  </si>
+  <si>
+    <t>Pendiente de actualizar al valor real</t>
+  </si>
+  <si>
+    <t>AD9833 chino</t>
+  </si>
+  <si>
+    <t>Cable Tens chino</t>
+  </si>
 </sst>
 </file>
 
@@ -172,7 +202,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +244,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +270,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -263,19 +305,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -343,35 +372,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,25 +399,22 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -781,8 +796,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L200" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:L200"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L201" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:L201"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Nombre" dataDxfId="10"/>
     <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="9"/>
@@ -1074,15 +1089,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1098,7 +1113,7 @@
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -1122,10 +1137,10 @@
       <c r="J1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1133,10 +1148,10 @@
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3">
@@ -1176,7 +1191,7 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
@@ -1213,10 +1228,10 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="21">
         <v>47</v>
       </c>
       <c r="D4" s="3">
@@ -1254,10 +1269,10 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3">
@@ -1274,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1286,7 +1301,7 @@
       </c>
       <c r="K5" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10366.666666666666</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2"/>
     </row>
@@ -1294,10 +1309,10 @@
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3">
@@ -1331,13 +1346,13 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3">
@@ -1354,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1366,7 +1381,7 @@
       </c>
       <c r="K7" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -1374,10 +1389,10 @@
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="21">
         <v>48</v>
       </c>
       <c r="D8" s="3">
@@ -1412,13 +1427,13 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3">
@@ -1458,7 +1473,7 @@
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <v>4.28</v>
       </c>
       <c r="D10" s="3">
@@ -1496,10 +1511,10 @@
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="21">
         <v>44</v>
       </c>
       <c r="D11" s="3">
@@ -1537,10 +1552,10 @@
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
@@ -1578,7 +1593,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3">
@@ -1613,10 +1628,12 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3">
@@ -1651,10 +1668,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="3">
@@ -1671,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1683,18 +1700,18 @@
       </c>
       <c r="K15" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="3">
@@ -1729,10 +1746,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="3">
@@ -1767,10 +1784,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="3">
@@ -1780,9 +1797,15 @@
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
         <v>0</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
       <c r="I18" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
@@ -1799,18 +1822,24 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="25"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
         <v>0</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
       <c r="I19" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
@@ -1827,10 +1856,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="3">
@@ -1863,160 +1892,236 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" hidden="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="3"/>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3">
+        <v>118000</v>
+      </c>
       <c r="E21" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+        <v>39333.333333333336</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
       <c r="I21" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>39333.333333333336</v>
       </c>
       <c r="J21" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="23">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1">
-      <c r="A22" s="4"/>
+        <v>39333.333333333336</v>
+      </c>
+      <c r="K21" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>39333.333333333336</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="21">
+        <v>11.38</v>
+      </c>
+      <c r="D22" s="3">
+        <f>Tabla2[[#This Row],[Valor en Dolares]]*3000</f>
+        <v>34140</v>
+      </c>
       <c r="E22" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+        <v>11380</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
       <c r="I22" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>11380</v>
       </c>
       <c r="J22" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="3"/>
+        <v>11380</v>
+      </c>
+      <c r="K22" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>11380</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="27">
+        <v>100</v>
+      </c>
+      <c r="D23" s="3">
+        <f>Tabla2[[#This Row],[Valor en Dolares]]*3000</f>
+        <v>300000</v>
+      </c>
       <c r="E23" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+        <v>100000</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
       <c r="I23" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J23" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K23" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>100000</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3">
+        <v>31000</v>
+      </c>
       <c r="E24" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+        <v>10333.333333333334</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
       <c r="I24" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10333.333333333334</v>
       </c>
       <c r="J24" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1">
-      <c r="A25" s="4"/>
+        <v>10333.333333333334</v>
+      </c>
+      <c r="K24" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>10333.333333333334</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="21">
+        <v>4.49</v>
+      </c>
+      <c r="D25" s="3">
+        <f>Tabla2[[#This Row],[Valor en Dolares]]*3000</f>
+        <v>13470</v>
+      </c>
       <c r="E25" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
+        <v>4490</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4490</v>
       </c>
       <c r="J25" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1">
-      <c r="A26" s="4"/>
+        <v>4490</v>
+      </c>
+      <c r="K25" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>4490</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="21">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D26" s="3">
+        <f>3000*Tabla2[[#This Row],[Valor en Dolares]]</f>
+        <v>3330.0000000000005</v>
+      </c>
       <c r="E26" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
+        <v>1110.0000000000002</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1110.0000000000002</v>
       </c>
       <c r="J26" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1">
+        <v>1110.0000000000002</v>
+      </c>
+      <c r="K26" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>1110.0000000000002</v>
+      </c>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="25"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2033,15 +2138,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K27" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1">
+      <c r="K27" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="25"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2058,15 +2164,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K28" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" hidden="1">
+      <c r="K28" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="25"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2083,15 +2190,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K29" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1">
+      <c r="K29" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="25"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2108,15 +2216,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K30" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1">
+      <c r="K30" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="25"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2133,15 +2242,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K31" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1">
+      <c r="K31" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="25"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2158,15 +2268,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K32" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1">
+      <c r="K32" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="4"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="25"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2183,15 +2294,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K33" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1">
+      <c r="K33" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="4"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="25"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2208,15 +2320,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K34" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1">
+      <c r="K34" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="25"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2233,15 +2346,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K35" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1">
+      <c r="K35" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="4"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="25"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2258,15 +2372,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K36" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1">
+      <c r="K36" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="4"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="25"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2283,15 +2398,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K37" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1">
+      <c r="K37" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="4"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="25"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2308,15 +2424,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K38" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1">
+      <c r="K38" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="4"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="25"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2333,15 +2450,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K39" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1">
+      <c r="K39" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="4"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="25"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2358,15 +2476,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K40" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1">
+      <c r="K40" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="4"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="25"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2383,15 +2502,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K41" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1">
+      <c r="K41" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="4"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="25"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2408,15 +2528,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K42" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1">
+      <c r="K42" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="4"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="25"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2433,15 +2554,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K43" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1">
+      <c r="K43" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="25"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2458,15 +2580,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K44" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1">
+      <c r="K44" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="4"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="25"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2483,15 +2606,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K45" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1">
+      <c r="K45" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="4"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="25"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2508,15 +2632,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K46" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1">
+      <c r="K46" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="4"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="25"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2533,15 +2658,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K47" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1">
+      <c r="K47" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="4"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="25"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2558,15 +2684,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K48" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1">
+      <c r="K48" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="4"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="25"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2583,15 +2710,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K49" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1">
+      <c r="K49" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="4"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="25"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2608,15 +2736,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K50" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1">
+      <c r="K50" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="4"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="25"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2633,15 +2762,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K51" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1">
+      <c r="K51" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="4"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="25"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2658,15 +2788,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K52" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1">
+      <c r="K52" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="4"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="25"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2683,15 +2814,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K53" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1">
+      <c r="K53" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="4"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="25"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2708,15 +2840,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K54" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1">
+      <c r="K54" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="4"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="25"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2733,15 +2866,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K55" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1">
+      <c r="K55" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="4"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="25"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2758,15 +2892,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K56" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1">
+      <c r="K56" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="4"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="25"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2783,15 +2918,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K57" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1">
+      <c r="K57" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="4"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="25"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2808,15 +2944,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K58" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1">
+      <c r="K58" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="4"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="25"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2833,15 +2970,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K59" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1">
+      <c r="K59" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="4"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="25"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2858,15 +2996,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K60" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1">
+      <c r="K60" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="4"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="25"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2883,15 +3022,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K61" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1">
+      <c r="K61" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="4"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="25"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2908,15 +3048,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K62" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1">
+      <c r="K62" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="4"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="25"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2933,15 +3074,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K63" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1">
+      <c r="K63" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="4"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="25"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2958,15 +3100,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K64" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1">
+      <c r="K64" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="4"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="25"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2983,15 +3126,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K65" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1">
+      <c r="K65" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="4"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="25"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3008,15 +3152,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K66" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1">
+      <c r="K66" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="4"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="25"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3033,15 +3178,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K67" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1">
+      <c r="K67" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="4"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="25"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3058,15 +3204,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K68" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1">
+      <c r="K68" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="4"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="25"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3083,15 +3230,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K69" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1">
+      <c r="K69" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="4"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="25"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3108,15 +3256,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K70" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1">
+      <c r="K70" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="4"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="25"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3133,15 +3282,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K71" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1">
+      <c r="K71" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="4"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="25"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3158,15 +3308,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K72" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1">
+      <c r="K72" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="4"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="25"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3183,15 +3334,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K73" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1">
+      <c r="K73" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="4"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="25"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3208,15 +3360,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K74" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1">
+      <c r="K74" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="4"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="25"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3233,15 +3386,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K75" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1">
+      <c r="K75" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="4"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="25"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3258,15 +3412,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K76" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1">
+      <c r="K76" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="4"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="25"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3283,15 +3438,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K77" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1">
+      <c r="K77" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="4"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="25"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3308,15 +3464,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K78" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1">
+      <c r="K78" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="4"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="25"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3333,15 +3490,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K79" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1">
+      <c r="K79" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="4"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="25"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3358,15 +3516,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K80" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1">
+      <c r="K80" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="4"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="25"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3383,15 +3542,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K81" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1">
+      <c r="K81" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="4"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="25"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3408,15 +3568,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K82" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1">
+      <c r="K82" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="4"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="25"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3433,15 +3594,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K83" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1">
+      <c r="K83" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="4"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="25"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3458,15 +3620,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K84" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1">
+      <c r="K84" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="4"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="25"/>
+      <c r="C85" s="21"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3483,15 +3646,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K85" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1">
+      <c r="K85" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="4"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="25"/>
+      <c r="C86" s="21"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3508,15 +3672,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K86" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1">
+      <c r="K86" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="4"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="25"/>
+      <c r="C87" s="21"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3533,15 +3698,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K87" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1">
+      <c r="K87" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="4"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="25"/>
+      <c r="C88" s="21"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3558,15 +3724,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K88" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1">
+      <c r="K88" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="4"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="25"/>
+      <c r="C89" s="21"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3583,15 +3750,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K89" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1">
+      <c r="K89" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="4"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="25"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3608,15 +3776,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K90" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1">
+      <c r="K90" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="4"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="25"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3633,15 +3802,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K91" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1">
+      <c r="K91" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="4"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="25"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3658,15 +3828,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K92" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1">
+      <c r="K92" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="4"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="25"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3683,15 +3854,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K93" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1">
+      <c r="K93" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="4"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="25"/>
+      <c r="C94" s="21"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3708,15 +3880,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K94" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1">
+      <c r="K94" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="4"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="25"/>
+      <c r="C95" s="21"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3733,15 +3906,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K95" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1">
+      <c r="K95" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="4"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="25"/>
+      <c r="C96" s="21"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3758,15 +3932,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K96" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1">
+      <c r="K96" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="4"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="25"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3783,15 +3958,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K97" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1">
+      <c r="K97" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="4"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="25"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3808,15 +3984,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K98" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1">
+      <c r="K98" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="4"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="25"/>
+      <c r="C99" s="21"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3833,15 +4010,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K99" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1">
+      <c r="K99" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="4"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="25"/>
+      <c r="C100" s="21"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3858,15 +4036,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K100" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1">
+      <c r="K100" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="4"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="25"/>
+      <c r="C101" s="21"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3883,15 +4062,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K101" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" hidden="1">
+      <c r="K101" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="2"/>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="4"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="25"/>
+      <c r="C102" s="21"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3908,15 +4088,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K102" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" hidden="1">
+      <c r="K102" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="4"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="25"/>
+      <c r="C103" s="21"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3933,15 +4114,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K103" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" hidden="1">
+      <c r="K103" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="4"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="25"/>
+      <c r="C104" s="21"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3958,15 +4140,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K104" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" hidden="1">
+      <c r="K104" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="4"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="25"/>
+      <c r="C105" s="21"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -3983,15 +4166,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K105" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" hidden="1">
+      <c r="K105" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="4"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="25"/>
+      <c r="C106" s="21"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4008,15 +4192,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K106" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1">
+      <c r="K106" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="4"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="25"/>
+      <c r="C107" s="21"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4033,15 +4218,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K107" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1">
+      <c r="K107" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="4"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="25"/>
+      <c r="C108" s="21"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4058,15 +4244,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K108" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" hidden="1">
+      <c r="K108" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="4"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="25"/>
+      <c r="C109" s="21"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4083,15 +4270,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K109" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1">
+      <c r="K109" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="4"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="25"/>
+      <c r="C110" s="21"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4108,15 +4296,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K110" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" hidden="1">
+      <c r="K110" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="4"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="25"/>
+      <c r="C111" s="21"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4133,15 +4322,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K111" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" hidden="1">
+      <c r="K111" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="4"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="25"/>
+      <c r="C112" s="21"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4158,15 +4348,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K112" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" hidden="1">
+      <c r="K112" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="4"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="25"/>
+      <c r="C113" s="21"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4183,15 +4374,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K113" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" hidden="1">
+      <c r="K113" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="2"/>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="4"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="25"/>
+      <c r="C114" s="21"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4208,15 +4400,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K114" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" hidden="1">
+      <c r="K114" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L114" s="2"/>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="4"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="25"/>
+      <c r="C115" s="21"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4233,15 +4426,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K115" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" hidden="1">
+      <c r="K115" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L115" s="2"/>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="4"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="25"/>
+      <c r="C116" s="21"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4258,15 +4452,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K116" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" hidden="1">
+      <c r="K116" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="4"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="25"/>
+      <c r="C117" s="21"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4283,15 +4478,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K117" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" hidden="1">
+      <c r="K117" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="2"/>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="4"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="25"/>
+      <c r="C118" s="21"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4308,15 +4504,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K118" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" hidden="1">
+      <c r="K118" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="4"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="25"/>
+      <c r="C119" s="21"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4333,15 +4530,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K119" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" hidden="1">
+      <c r="K119" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="2"/>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="4"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="25"/>
+      <c r="C120" s="21"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4358,15 +4556,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K120" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" hidden="1">
+      <c r="K120" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="4"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="25"/>
+      <c r="C121" s="21"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4383,15 +4582,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K121" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" hidden="1">
+      <c r="K121" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L121" s="2"/>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="4"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="25"/>
+      <c r="C122" s="21"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4408,15 +4608,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K122" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1">
+      <c r="K122" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="4"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="25"/>
+      <c r="C123" s="21"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4433,15 +4634,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K123" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1">
+      <c r="K123" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L123" s="2"/>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="4"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="25"/>
+      <c r="C124" s="21"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4458,15 +4660,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K124" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" hidden="1">
+      <c r="K124" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L124" s="2"/>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="4"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="25"/>
+      <c r="C125" s="21"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4483,15 +4686,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K125" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" hidden="1">
+      <c r="K125" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L125" s="2"/>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="4"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="25"/>
+      <c r="C126" s="21"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4508,15 +4712,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K126" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" hidden="1">
+      <c r="K126" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L126" s="2"/>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="4"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="25"/>
+      <c r="C127" s="21"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4533,15 +4738,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K127" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" hidden="1">
+      <c r="K127" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L127" s="2"/>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="4"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="25"/>
+      <c r="C128" s="21"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4558,15 +4764,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K128" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1">
+      <c r="K128" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="2"/>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="4"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="25"/>
+      <c r="C129" s="21"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4583,15 +4790,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K129" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" hidden="1">
+      <c r="K129" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="2"/>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="4"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="25"/>
+      <c r="C130" s="21"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4608,15 +4816,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K130" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" hidden="1">
+      <c r="K130" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="2"/>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="4"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="25"/>
+      <c r="C131" s="21"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4633,15 +4842,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K131" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" hidden="1">
+      <c r="K131" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L131" s="2"/>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="4"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="25"/>
+      <c r="C132" s="21"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4658,15 +4868,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K132" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" hidden="1">
+      <c r="K132" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L132" s="2"/>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="4"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="25"/>
+      <c r="C133" s="21"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4683,15 +4894,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K133" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" hidden="1">
+      <c r="K133" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L133" s="2"/>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="4"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="25"/>
+      <c r="C134" s="21"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4708,15 +4920,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K134" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" hidden="1">
+      <c r="K134" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L134" s="2"/>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="4"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="25"/>
+      <c r="C135" s="21"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4733,15 +4946,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K135" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" hidden="1">
+      <c r="K135" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L135" s="2"/>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="4"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="25"/>
+      <c r="C136" s="21"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4758,15 +4972,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K136" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" hidden="1">
+      <c r="K136" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L136" s="2"/>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="4"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="25"/>
+      <c r="C137" s="21"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4783,15 +4998,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K137" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" hidden="1">
+      <c r="K137" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L137" s="2"/>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="4"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="25"/>
+      <c r="C138" s="21"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4808,15 +5024,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K138" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" hidden="1">
+      <c r="K138" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L138" s="2"/>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="4"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="25"/>
+      <c r="C139" s="21"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4833,15 +5050,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K139" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" hidden="1">
+      <c r="K139" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L139" s="2"/>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="4"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="25"/>
+      <c r="C140" s="21"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4858,15 +5076,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K140" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" hidden="1">
+      <c r="K140" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L140" s="2"/>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="4"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="25"/>
+      <c r="C141" s="21"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4883,15 +5102,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K141" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" hidden="1">
+      <c r="K141" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L141" s="2"/>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="4"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="25"/>
+      <c r="C142" s="21"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4908,15 +5128,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K142" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" hidden="1">
+      <c r="K142" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L142" s="2"/>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="4"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="25"/>
+      <c r="C143" s="21"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4933,15 +5154,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K143" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" hidden="1">
+      <c r="K143" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L143" s="2"/>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="4"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="25"/>
+      <c r="C144" s="21"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4958,15 +5180,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K144" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" hidden="1">
+      <c r="K144" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L144" s="2"/>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="4"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="25"/>
+      <c r="C145" s="21"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -4983,15 +5206,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K145" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" hidden="1">
+      <c r="K145" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L145" s="2"/>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="4"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="25"/>
+      <c r="C146" s="21"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5008,15 +5232,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K146" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" hidden="1">
+      <c r="K146" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L146" s="2"/>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="4"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="25"/>
+      <c r="C147" s="21"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5033,15 +5258,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K147" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" hidden="1">
+      <c r="K147" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L147" s="2"/>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="4"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="25"/>
+      <c r="C148" s="21"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5058,15 +5284,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K148" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" hidden="1">
+      <c r="K148" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L148" s="2"/>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="4"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="25"/>
+      <c r="C149" s="21"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5083,15 +5310,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K149" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" hidden="1">
+      <c r="K149" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L149" s="2"/>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="4"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="25"/>
+      <c r="C150" s="21"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5108,15 +5336,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K150" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" hidden="1">
+      <c r="K150" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L150" s="2"/>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="4"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="25"/>
+      <c r="C151" s="21"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5133,15 +5362,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K151" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" hidden="1">
+      <c r="K151" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L151" s="2"/>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="4"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="25"/>
+      <c r="C152" s="21"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5158,15 +5388,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K152" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" hidden="1">
+      <c r="K152" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L152" s="2"/>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="4"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="25"/>
+      <c r="C153" s="21"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5183,15 +5414,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K153" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" hidden="1">
+      <c r="K153" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L153" s="2"/>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="4"/>
       <c r="B154" s="2"/>
-      <c r="C154" s="25"/>
+      <c r="C154" s="21"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5208,15 +5440,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K154" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" hidden="1">
+      <c r="K154" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L154" s="2"/>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="4"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="25"/>
+      <c r="C155" s="21"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5233,15 +5466,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K155" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" hidden="1">
+      <c r="K155" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L155" s="2"/>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="4"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="25"/>
+      <c r="C156" s="21"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5258,15 +5492,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K156" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" hidden="1">
+      <c r="K156" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L156" s="2"/>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="4"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="25"/>
+      <c r="C157" s="21"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5283,15 +5518,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K157" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" hidden="1">
+      <c r="K157" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L157" s="2"/>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="4"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="25"/>
+      <c r="C158" s="21"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5308,15 +5544,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K158" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" hidden="1">
+      <c r="K158" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L158" s="2"/>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="4"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="25"/>
+      <c r="C159" s="21"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5333,15 +5570,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K159" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" hidden="1">
+      <c r="K159" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L159" s="2"/>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="4"/>
       <c r="B160" s="2"/>
-      <c r="C160" s="25"/>
+      <c r="C160" s="21"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5358,15 +5596,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K160" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" hidden="1">
+      <c r="K160" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L160" s="2"/>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="4"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="25"/>
+      <c r="C161" s="21"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5383,15 +5622,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K161" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" hidden="1">
+      <c r="K161" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L161" s="2"/>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="4"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="25"/>
+      <c r="C162" s="21"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5408,15 +5648,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K162" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" hidden="1">
+      <c r="K162" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L162" s="2"/>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="4"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="25"/>
+      <c r="C163" s="21"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5433,15 +5674,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K163" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" hidden="1">
+      <c r="K163" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L163" s="2"/>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="4"/>
       <c r="B164" s="2"/>
-      <c r="C164" s="25"/>
+      <c r="C164" s="21"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5458,15 +5700,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K164" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" hidden="1">
+      <c r="K164" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L164" s="2"/>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="4"/>
       <c r="B165" s="2"/>
-      <c r="C165" s="25"/>
+      <c r="C165" s="21"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5483,15 +5726,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K165" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" hidden="1">
+      <c r="K165" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L165" s="2"/>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="4"/>
       <c r="B166" s="2"/>
-      <c r="C166" s="25"/>
+      <c r="C166" s="21"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5508,15 +5752,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K166" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" hidden="1">
+      <c r="K166" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L166" s="2"/>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="4"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="25"/>
+      <c r="C167" s="21"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5533,15 +5778,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K167" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" hidden="1">
+      <c r="K167" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L167" s="2"/>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="4"/>
       <c r="B168" s="2"/>
-      <c r="C168" s="25"/>
+      <c r="C168" s="21"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5558,15 +5804,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K168" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" hidden="1">
+      <c r="K168" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L168" s="2"/>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="4"/>
       <c r="B169" s="2"/>
-      <c r="C169" s="25"/>
+      <c r="C169" s="21"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5583,15 +5830,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K169" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" hidden="1">
+      <c r="K169" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L169" s="2"/>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="4"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="25"/>
+      <c r="C170" s="21"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5608,15 +5856,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K170" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" hidden="1">
+      <c r="K170" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L170" s="2"/>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="4"/>
       <c r="B171" s="2"/>
-      <c r="C171" s="25"/>
+      <c r="C171" s="21"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5633,15 +5882,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K171" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" hidden="1">
+      <c r="K171" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L171" s="2"/>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="4"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="25"/>
+      <c r="C172" s="21"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5658,15 +5908,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K172" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" hidden="1">
+      <c r="K172" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L172" s="2"/>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="4"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="25"/>
+      <c r="C173" s="21"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5683,15 +5934,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K173" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" hidden="1">
+      <c r="K173" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L173" s="2"/>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="4"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="25"/>
+      <c r="C174" s="21"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5708,15 +5960,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K174" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" hidden="1">
+      <c r="K174" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L174" s="2"/>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="4"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="25"/>
+      <c r="C175" s="21"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5733,15 +5986,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K175" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" hidden="1">
+      <c r="K175" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L175" s="2"/>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="4"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="25"/>
+      <c r="C176" s="21"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5758,15 +6012,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K176" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" hidden="1">
+      <c r="K176" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L176" s="2"/>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="4"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="25"/>
+      <c r="C177" s="21"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5783,15 +6038,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K177" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" hidden="1">
+      <c r="K177" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L177" s="2"/>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="4"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="25"/>
+      <c r="C178" s="21"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5808,15 +6064,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K178" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" hidden="1">
+      <c r="K178" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L178" s="2"/>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="4"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="25"/>
+      <c r="C179" s="21"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5833,15 +6090,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K179" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" hidden="1">
+      <c r="K179" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L179" s="2"/>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="4"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="25"/>
+      <c r="C180" s="21"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5858,15 +6116,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K180" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" hidden="1">
+      <c r="K180" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L180" s="2"/>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="4"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="25"/>
+      <c r="C181" s="21"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5883,15 +6142,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K181" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" hidden="1">
+      <c r="K181" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L181" s="2"/>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="4"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="25"/>
+      <c r="C182" s="21"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5908,15 +6168,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K182" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" hidden="1">
+      <c r="K182" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L182" s="2"/>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="4"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="25"/>
+      <c r="C183" s="21"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5933,15 +6194,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K183" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" hidden="1">
+      <c r="K183" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L183" s="2"/>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="4"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="25"/>
+      <c r="C184" s="21"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5958,15 +6220,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K184" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" hidden="1">
+      <c r="K184" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L184" s="2"/>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="4"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="25"/>
+      <c r="C185" s="21"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -5983,15 +6246,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K185" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" hidden="1">
+      <c r="K185" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L185" s="2"/>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="4"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="25"/>
+      <c r="C186" s="21"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6008,15 +6272,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K186" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" hidden="1">
+      <c r="K186" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L186" s="2"/>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="4"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="25"/>
+      <c r="C187" s="21"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6033,15 +6298,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K187" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" hidden="1">
+      <c r="K187" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L187" s="2"/>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="4"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="25"/>
+      <c r="C188" s="21"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6058,15 +6324,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K188" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" hidden="1">
+      <c r="K188" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L188" s="2"/>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="4"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="25"/>
+      <c r="C189" s="21"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6083,15 +6350,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K189" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" hidden="1">
+      <c r="K189" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L189" s="2"/>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="4"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="25"/>
+      <c r="C190" s="21"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6108,15 +6376,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K190" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" hidden="1">
+      <c r="K190" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L190" s="2"/>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="4"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="25"/>
+      <c r="C191" s="21"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6133,15 +6402,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K191" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" hidden="1">
+      <c r="K191" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L191" s="2"/>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="4"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="25"/>
+      <c r="C192" s="21"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6158,15 +6428,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K192" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" hidden="1">
+      <c r="K192" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L192" s="2"/>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="4"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="25"/>
+      <c r="C193" s="21"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6183,15 +6454,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K193" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" hidden="1">
+      <c r="K193" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L193" s="2"/>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="4"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="25"/>
+      <c r="C194" s="21"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6208,15 +6480,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K194" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" hidden="1">
+      <c r="K194" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L194" s="2"/>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="4"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="25"/>
+      <c r="C195" s="21"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6233,15 +6506,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K195" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" hidden="1">
+      <c r="K195" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L195" s="2"/>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="4"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="25"/>
+      <c r="C196" s="21"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6258,15 +6532,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K196" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" hidden="1">
+      <c r="K196" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L196" s="2"/>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="4"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="25"/>
+      <c r="C197" s="21"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6283,15 +6558,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K197" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" hidden="1">
+      <c r="K197" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L197" s="2"/>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="4"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="25"/>
+      <c r="C198" s="21"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6308,15 +6584,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K198" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" hidden="1">
+      <c r="K198" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L198" s="2"/>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" s="4"/>
       <c r="B199" s="2"/>
-      <c r="C199" s="25"/>
+      <c r="C199" s="21"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6333,15 +6610,16 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K199" s="18">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" hidden="1">
+      <c r="K199" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L199" s="2"/>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" s="5"/>
       <c r="B200" s="6"/>
-      <c r="C200" s="26"/>
+      <c r="C200" s="22"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -6358,44 +6636,65 @@
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
-      <c r="K200" s="19">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="F201" s="15"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="15"/>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="K200" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L200" s="2"/>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="5"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26">
+        <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
+        <v>0</v>
+      </c>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="7">
+        <v>0</v>
+      </c>
+      <c r="J201" s="7">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K201" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="L201" s="2"/>
+    </row>
+    <row r="202" spans="1:12">
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>1079368</v>
+        <v>1579308</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>359789.33333333331</v>
-      </c>
-      <c r="H203" s="16" t="s">
+        <v>526436</v>
+      </c>
+      <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I203" s="20">
+      <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>142013.33333333334</v>
-      </c>
-      <c r="J203" s="20">
+        <v>308660</v>
+      </c>
+      <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>65433.333333333336</v>
-      </c>
-      <c r="K203" s="20">
+        <v>232080.00000000003</v>
+      </c>
+      <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>135300</v>
+        <v>283646.66666666669</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Andres</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Hptas impuestos de las pcb's</t>
   </si>
   <si>
-    <t>Didacticas Electronicas</t>
-  </si>
-  <si>
     <t>Documentos Adionales\Preliquidacion_ofdelgad_20170530112206.pdf</t>
   </si>
   <si>
@@ -192,6 +189,15 @@
   </si>
   <si>
     <t>Cable Tens chino</t>
+  </si>
+  <si>
+    <t>IRF 1404 MAROEL</t>
+  </si>
+  <si>
+    <t>Didacticas Electronicas 1</t>
+  </si>
+  <si>
+    <t>Didacticas Electronicas 2</t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +384,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -414,7 +420,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1089,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I203" sqref="I203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1553,7 +1560,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>7</v>
@@ -1590,7 +1597,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="21" t="s">
@@ -1628,10 +1635,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>7</v>
@@ -1668,7 +1675,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="21" t="s">
@@ -1706,10 +1713,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>7</v>
@@ -1746,7 +1753,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="21" t="s">
@@ -1783,8 +1790,8 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4" t="s">
-        <v>41</v>
+      <c r="A18" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="21" t="s">
@@ -1821,12 +1828,14 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4" t="s">
-        <v>42</v>
+      <c r="A19" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
       <c r="E19" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
         <v>0</v>
@@ -1856,7 +1865,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="21" t="s">
@@ -1894,10 +1903,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>7</v>
@@ -1916,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1928,13 +1937,13 @@
       </c>
       <c r="K21" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>39333.333333333336</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="21">
@@ -1973,10 +1982,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="27">
         <v>100</v>
@@ -1990,7 +1999,7 @@
         <v>100000</v>
       </c>
       <c r="F23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
@@ -2000,7 +2009,7 @@
       </c>
       <c r="I23" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2014,10 +2023,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>7</v>
@@ -2036,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2048,13 +2057,13 @@
       </c>
       <c r="K24" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10333.333333333334</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="21">
@@ -2068,9 +2077,15 @@
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
         <v>4490</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
       <c r="I25" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>4490</v>
@@ -2087,7 +2102,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="21">
@@ -2101,9 +2116,15 @@
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
         <v>1110.0000000000002</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
       <c r="I26" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>1110.0000000000002</v>
@@ -2119,43 +2140,67 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>8500</v>
+      </c>
       <c r="E27" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+        <v>2833.3333333333335</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
       <c r="I27" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="J27" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="K27" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2833.3333333333335</v>
       </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
       <c r="E28" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
         <v>0</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
       <c r="I28" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
@@ -6675,26 +6720,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>1579308</v>
+        <v>1587808</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>526436</v>
+        <v>529269.33333333337</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>308660</v>
+        <v>211493.33333333337</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>232080.00000000003</v>
+        <v>234913.33333333337</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>283646.66666666669</v>
+        <v>236813.33333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I203" sqref="I203"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2039,7 +2039,7 @@
         <v>10333.333333333334</v>
       </c>
       <c r="F24" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="13">
         <v>0</v>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="I24" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10333.333333333334</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>211493.33333333337</v>
+        <v>201160.00000000003</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Andres</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>Didacticas Electronicas 2</t>
+  </si>
+  <si>
+    <t>Flyback</t>
+  </si>
+  <si>
+    <t>Resistencias de potencia</t>
+  </si>
+  <si>
+    <t>TuEncomienda</t>
+  </si>
+  <si>
+    <t>Cosas Ferretería</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1885,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1897,7 +1909,7 @@
       </c>
       <c r="K20" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2"/>
     </row>
@@ -2216,106 +2228,155 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3">
+        <v>8000</v>
+      </c>
       <c r="E29" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+        <v>2666.6666666666665</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
       <c r="I29" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="J29" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="K29" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5000</v>
+      </c>
       <c r="E30" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
       <c r="I30" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="J30" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="K30" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="21">
+        <v>41</v>
+      </c>
+      <c r="D31" s="3">
+        <f>Tabla2[[#This Row],[Valor en Dolares]]*3000</f>
+        <v>123000</v>
+      </c>
       <c r="E31" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+        <v>41000</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
       <c r="I31" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="J31" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="K31" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3">
+        <v>12000</v>
+      </c>
       <c r="E32" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+        <v>4000</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
       <c r="I32" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J32" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="K32" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="L32" s="2"/>
     </row>
@@ -6720,26 +6781,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>1587808</v>
+        <v>1735808</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>529269.33333333337</v>
+        <v>578602.66666666663</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>201160.00000000003</v>
+        <v>250493.33333333334</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>234913.33333333337</v>
+        <v>284246.66666666669</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>236813.33333333334</v>
+        <v>261146.66666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Andres</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Cosas Ferretería</t>
+  </si>
+  <si>
+    <t>Regletas y cap de dynamo</t>
+  </si>
+  <si>
+    <t>Avantel FCM4844023</t>
+  </si>
+  <si>
+    <t>Los 10 de galindo</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="C196" workbookViewId="0">
+      <selection activeCell="H203" sqref="H203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1429,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1441,7 +1450,7 @@
       </c>
       <c r="K8" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2"/>
     </row>
@@ -1931,7 +1940,7 @@
         <v>39333.333333333336</v>
       </c>
       <c r="F21" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="13">
         <v>0</v>
@@ -1941,7 +1950,7 @@
       </c>
       <c r="I21" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>39333.333333333336</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1970,7 +1979,7 @@
         <v>11380</v>
       </c>
       <c r="F22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="13">
         <v>0</v>
@@ -1980,7 +1989,7 @@
       </c>
       <c r="I22" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>11380</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2173,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2185,7 +2194,7 @@
       </c>
       <c r="K27" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2833.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2"/>
     </row>
@@ -2205,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2381,17 +2390,31 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
       <c r="E33" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
         <v>0</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
       <c r="I33" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
@@ -2407,28 +2430,40 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3">
+        <v>108000</v>
+      </c>
       <c r="E34" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+        <v>36000</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
       <c r="I34" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="J34" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="K34" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="L34" s="2"/>
     </row>
@@ -6781,26 +6816,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>1735808</v>
+        <v>1843808</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>578602.66666666663</v>
+        <v>614602.66666666663</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>250493.33333333334</v>
+        <v>235780</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>284246.66666666669</v>
+        <v>320246.66666666669</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>261146.66666666666</v>
+        <v>246313.33333333331</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gastos" sheetId="1" r:id="rId1"/>
+    <sheet name="Mio" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gastos!$A$1:$H$201</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>Andres</t>
   </si>
@@ -219,6 +220,72 @@
   </si>
   <si>
     <t>Los 10 de galindo</t>
+  </si>
+  <si>
+    <t>Mosfets Didacticas electronicas</t>
+  </si>
+  <si>
+    <t>Disipadores, regletas y termoencogibles, CD4047</t>
+  </si>
+  <si>
+    <t>Arduinos nano</t>
+  </si>
+  <si>
+    <t>Conversor de livel logico</t>
+  </si>
+  <si>
+    <t>Oximetro</t>
+  </si>
+  <si>
+    <t>Oximetro chino</t>
+  </si>
+  <si>
+    <t>Arduinos adicionales</t>
+  </si>
+  <si>
+    <t>Pasta térmica</t>
+  </si>
+  <si>
+    <t>Ochoa??</t>
+  </si>
+  <si>
+    <t>555's y otros</t>
+  </si>
+  <si>
+    <t>Cuadrar por aparte del presupuesto 52000</t>
+  </si>
+  <si>
+    <t>Microscopio LCD</t>
+  </si>
+  <si>
+    <t>Microscopio USB</t>
+  </si>
+  <si>
+    <t>Estacion de calor</t>
+  </si>
+  <si>
+    <t>Generador de frecuencias</t>
+  </si>
+  <si>
+    <t>LCD 3,2"</t>
+  </si>
+  <si>
+    <t>Arduinos</t>
+  </si>
+  <si>
+    <t>Bananas, caimas y cables</t>
+  </si>
+  <si>
+    <t>Jumpers</t>
+  </si>
+  <si>
+    <t>Estaño</t>
+  </si>
+  <si>
+    <t>Jeringas y otros</t>
+  </si>
+  <si>
+    <t>Gasto adicionales</t>
   </si>
 </sst>
 </file>
@@ -1117,13 +1184,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C196" workbookViewId="0">
-      <selection activeCell="H203" sqref="H203"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1472,7 +1539,7 @@
         <v>14000</v>
       </c>
       <c r="F9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="12">
         <v>1</v>
@@ -1482,7 +1549,7 @@
       </c>
       <c r="I9" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1560,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1572,7 +1639,7 @@
       </c>
       <c r="K11" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2"/>
     </row>
@@ -1853,7 +1920,9 @@
         <v>41</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="3">
         <v>0</v>
       </c>
@@ -1985,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1997,7 +2066,7 @@
       </c>
       <c r="K22" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>11380</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2"/>
     </row>
@@ -2105,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2117,7 +2186,7 @@
       </c>
       <c r="K25" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4490</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2"/>
     </row>
@@ -2144,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2156,7 +2225,7 @@
       </c>
       <c r="K26" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1110.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2"/>
     </row>
@@ -2258,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2270,7 +2339,7 @@
       </c>
       <c r="K29" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2666.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2"/>
     </row>
@@ -2296,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2308,7 +2377,7 @@
       </c>
       <c r="K30" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1666.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2"/>
     </row>
@@ -2373,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2385,7 +2454,7 @@
       </c>
       <c r="K32" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2"/>
     </row>
@@ -2445,7 +2514,7 @@
         <v>36000</v>
       </c>
       <c r="F34" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="13">
         <v>0</v>
@@ -2455,37 +2524,49 @@
       </c>
       <c r="I34" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>36000</v>
       </c>
-      <c r="J34" s="3">
-        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+      <c r="K34" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>36000</v>
       </c>
-      <c r="K34" s="3">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>36000</v>
-      </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3">
+        <v>15000</v>
+      </c>
       <c r="E35" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+        <v>5000</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1</v>
+      </c>
       <c r="I35" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J35" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K35" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2494,17 +2575,27 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="21"/>
+      <c r="C36" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
         <v>0</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13">
+        <v>1</v>
+      </c>
       <c r="I36" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
@@ -2520,113 +2611,167 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3">
+        <v>52000</v>
+      </c>
       <c r="E37" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+        <v>17333.333333333332</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
       <c r="I37" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17333.333333333332</v>
       </c>
       <c r="J37" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17333.333333333332</v>
       </c>
       <c r="K37" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17333.333333333332</v>
       </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="3"/>
+      <c r="C38" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3">
+        <v>9000</v>
+      </c>
       <c r="E38" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+        <v>3000</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
       <c r="I38" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J38" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K38" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="3"/>
+      <c r="C39" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3">
+        <v>24000</v>
+      </c>
       <c r="E39" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+        <v>8000</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
       <c r="I39" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J39" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="K39" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="4"/>
+      <c r="A40" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="3"/>
+      <c r="C40" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3">
+        <v>50000</v>
+      </c>
       <c r="E40" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+        <v>16666.666666666668</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
       <c r="I40" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>16666.666666666668</v>
       </c>
       <c r="J40" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>16666.666666666668</v>
       </c>
       <c r="K40" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>16666.666666666668</v>
       </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="4"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2650,35 +2795,51 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="4"/>
+      <c r="A42" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="3"/>
+      <c r="C42" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3">
+        <v>9000</v>
+      </c>
       <c r="E42" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+        <v>3000</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
       <c r="I42" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J42" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K42" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="4"/>
+      <c r="A43" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="21"/>
+      <c r="C43" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
@@ -2702,28 +2863,40 @@
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="4"/>
+      <c r="A44" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="3"/>
+      <c r="C44" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3">
+        <v>10000</v>
+      </c>
       <c r="E44" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
       <c r="I44" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="J44" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K44" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="L44" s="2"/>
     </row>
@@ -6816,26 +6989,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>1843808</v>
+        <v>2012808</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>614602.66666666663</v>
+        <v>670936</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>235780</v>
+        <v>242113.33333333334</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>320246.66666666669</v>
+        <v>376580</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>246313.33333333331</v>
+        <v>228333.33333333334</v>
       </c>
     </row>
   </sheetData>
@@ -6859,4 +7032,117 @@
     <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1">
+        <f>SUM(B1:B23)</f>
+        <v>1445000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Gastos" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
   <si>
     <t>Andres</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>555's y otros</t>
-  </si>
-  <si>
-    <t>Cuadrar por aparte del presupuesto 52000</t>
   </si>
   <si>
     <t>Microscopio LCD</t>
@@ -472,7 +469,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -510,6 +507,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1184,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="C190" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1297,7 +1295,7 @@
         <v>4000</v>
       </c>
       <c r="F3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="12">
         <v>1</v>
@@ -1307,7 +1305,7 @@
       </c>
       <c r="I3" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1378,7 +1376,7 @@
         <v>10366.666666666666</v>
       </c>
       <c r="F5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="12">
         <v>1</v>
@@ -1388,7 +1386,7 @@
       </c>
       <c r="I5" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10366.666666666666</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1580,7 +1578,7 @@
         <v>4280</v>
       </c>
       <c r="F10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="12">
         <v>1</v>
@@ -1590,7 +1588,7 @@
       </c>
       <c r="I10" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4280</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1661,7 +1659,7 @@
         <v>18333.333333333332</v>
       </c>
       <c r="F12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="12">
         <v>1</v>
@@ -1671,7 +1669,7 @@
       </c>
       <c r="I12" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>18333.333333333332</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1699,7 +1697,7 @@
         <v>25600</v>
       </c>
       <c r="F13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="12">
         <v>1</v>
@@ -1709,7 +1707,7 @@
       </c>
       <c r="I13" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>25600</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1777,7 +1775,7 @@
         <v>1600</v>
       </c>
       <c r="F15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="12">
         <v>0</v>
@@ -1787,7 +1785,7 @@
       </c>
       <c r="I15" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1817,7 +1815,7 @@
         <v>3333.3333333333335</v>
       </c>
       <c r="F16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="12">
         <v>0</v>
@@ -1827,7 +1825,7 @@
       </c>
       <c r="I16" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1855,7 +1853,7 @@
         <v>2666.6666666666665</v>
       </c>
       <c r="F17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="12">
         <v>0</v>
@@ -1865,7 +1863,7 @@
       </c>
       <c r="I17" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2666.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2168,7 +2166,7 @@
         <v>4490</v>
       </c>
       <c r="F25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="13">
         <v>0</v>
@@ -2178,7 +2176,7 @@
       </c>
       <c r="I25" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4490</v>
+        <v>0</v>
       </c>
       <c r="J25" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2245,7 +2243,7 @@
         <v>2833.3333333333335</v>
       </c>
       <c r="F27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="13">
         <v>0</v>
@@ -2255,7 +2253,7 @@
       </c>
       <c r="I27" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2833.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2321,7 +2319,7 @@
         <v>2666.6666666666665</v>
       </c>
       <c r="F29" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2331,7 +2329,7 @@
       </c>
       <c r="I29" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2666.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2404,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2416,7 +2414,7 @@
       </c>
       <c r="K31" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2"/>
     </row>
@@ -2428,7 +2426,7 @@
       <c r="C32" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="29">
         <v>12000</v>
       </c>
       <c r="E32" s="3">
@@ -2632,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2644,7 +2642,7 @@
       </c>
       <c r="K37" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>17333.333333333332</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2"/>
     </row>
@@ -2670,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2682,7 +2680,7 @@
       </c>
       <c r="K38" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L38" s="2"/>
     </row>
@@ -2708,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2720,7 +2718,7 @@
       </c>
       <c r="K39" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2"/>
     </row>
@@ -2766,27 +2764,33 @@
       <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3">
+        <v>52000</v>
+      </c>
       <c r="E41" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+        <v>17333.333333333332</v>
+      </c>
+      <c r="F41" s="13">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1</v>
+      </c>
       <c r="I41" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
       <c r="J41" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17333.333333333332</v>
       </c>
       <c r="K41" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -6989,26 +6993,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>2012808</v>
+        <v>2064808</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>670936</v>
+        <v>688269.33333333337</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>242113.33333333334</v>
+        <v>161943.33333333331</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>376580</v>
+        <v>393913.33333333331</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>228333.33333333334</v>
+        <v>159000</v>
       </c>
     </row>
   </sheetData>
@@ -7038,8 +7042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7050,7 +7054,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1">
         <v>150000</v>
@@ -7058,7 +7062,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1">
         <v>50000</v>
@@ -7066,7 +7070,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1">
         <v>650000</v>
@@ -7074,7 +7078,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1">
         <v>300000</v>
@@ -7082,7 +7086,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1">
         <v>100000</v>
@@ -7090,7 +7094,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1">
         <v>50000</v>
@@ -7098,7 +7102,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1">
         <v>30000</v>
@@ -7106,7 +7110,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1">
         <v>20000</v>
@@ -7114,7 +7118,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1">
         <v>10000</v>
@@ -7122,7 +7126,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1">
         <v>5000</v>
@@ -7130,7 +7134,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1">
         <v>80000</v>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>Andres</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>Gasto adicionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avantel </t>
+  </si>
+  <si>
+    <t>Modulo FTDI</t>
+  </si>
+  <si>
+    <t>Sensores de corriente</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C190" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2905,80 +2914,116 @@
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="4"/>
+      <c r="A45" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="3"/>
+      <c r="C45" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3">
+        <v>58000</v>
+      </c>
       <c r="E45" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+        <v>19333.333333333332</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
       <c r="I45" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>19333.333333333332</v>
       </c>
       <c r="J45" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>19333.333333333332</v>
       </c>
       <c r="K45" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>19333.333333333332</v>
       </c>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="4"/>
+      <c r="A46" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="3"/>
+      <c r="C46" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3">
+        <v>21000</v>
+      </c>
       <c r="E46" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+        <v>7000</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="13">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
       <c r="I46" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="J46" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="K46" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="4"/>
+      <c r="A47" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="3"/>
+      <c r="C47" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3">
+        <v>53000</v>
+      </c>
       <c r="E47" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+        <v>17666.666666666668</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
       <c r="I47" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17666.666666666668</v>
       </c>
       <c r="J47" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17666.666666666668</v>
       </c>
       <c r="K47" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17666.666666666668</v>
       </c>
       <c r="L47" s="2"/>
     </row>
@@ -6993,26 +7038,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>2064808</v>
+        <v>2196808</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>688269.33333333337</v>
+        <v>732269.33333333337</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>161943.33333333331</v>
+        <v>205943.33333333331</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>393913.33333333331</v>
+        <v>437913.33333333331</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>159000</v>
+        <v>203000</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+    <sheetView tabSelected="1" topLeftCell="C184" workbookViewId="0">
+      <selection activeCell="K203" sqref="K203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7088,7 +7088,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>Andres</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>Sensores de corriente</t>
+  </si>
+  <si>
+    <t>Cosas para maquina de estados</t>
+  </si>
+  <si>
+    <t>FUENTE Y GENERADOR</t>
+  </si>
+  <si>
+    <t>Modulos de reles</t>
+  </si>
+  <si>
+    <t>DIDACTICAS PEDIDO ZURD</t>
   </si>
 </sst>
 </file>
@@ -1191,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C184" workbookViewId="0">
-      <selection activeCell="K203" sqref="K203"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2960,11 +2972,11 @@
         <v>7</v>
       </c>
       <c r="D46" s="3">
-        <v>21000</v>
+        <v>32800</v>
       </c>
       <c r="E46" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>7000</v>
+        <v>10933.333333333334</v>
       </c>
       <c r="F46" s="13">
         <v>0</v>
@@ -2977,15 +2989,15 @@
       </c>
       <c r="I46" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>7000</v>
+        <v>10933.333333333334</v>
       </c>
       <c r="J46" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>7000</v>
+        <v>10933.333333333334</v>
       </c>
       <c r="K46" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>7000</v>
+        <v>10933.333333333334</v>
       </c>
       <c r="L46" s="2"/>
     </row>
@@ -3028,106 +3040,154 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="3"/>
+      <c r="C48" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3">
+        <v>12000</v>
+      </c>
       <c r="E48" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+        <v>4000</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
       <c r="I48" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J48" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="K48" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="3"/>
+      <c r="C49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3">
+        <v>115000</v>
+      </c>
       <c r="E49" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+        <v>38333.333333333336</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
       <c r="I49" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>38333.333333333336</v>
       </c>
       <c r="J49" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>38333.333333333336</v>
       </c>
       <c r="K49" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>38333.333333333336</v>
       </c>
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="4"/>
+      <c r="A50" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="3"/>
+      <c r="C50" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3">
+        <v>80100</v>
+      </c>
       <c r="E50" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+        <v>26700</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
       <c r="I50" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>26700</v>
       </c>
       <c r="J50" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>26700</v>
       </c>
       <c r="K50" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>26700</v>
       </c>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="4"/>
+      <c r="A51" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="3"/>
+      <c r="C51" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3">
+        <v>46900</v>
+      </c>
       <c r="E51" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+        <v>15633.333333333334</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
       <c r="I51" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>15633.333333333334</v>
       </c>
       <c r="J51" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>15633.333333333334</v>
       </c>
       <c r="K51" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>15633.333333333334</v>
       </c>
       <c r="L51" s="2"/>
     </row>
@@ -7038,26 +7098,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>2196808</v>
+        <v>2462608</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>732269.33333333337</v>
+        <v>820869.33333333349</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>205943.33333333331</v>
+        <v>294543.33333333331</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>437913.33333333331</v>
+        <v>526513.33333333326</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>203000</v>
+        <v>291600</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t>Andres</t>
   </si>
@@ -303,7 +303,34 @@
     <t>Modulos de reles</t>
   </si>
   <si>
-    <t>DIDACTICAS PEDIDO ZURD</t>
+    <t>DIDACTICAS PEDIDO ZURDO</t>
+  </si>
+  <si>
+    <t>Electrokit 04/09/2017</t>
+  </si>
+  <si>
+    <t>Proto mini</t>
+  </si>
+  <si>
+    <t>CARNE 2</t>
+  </si>
+  <si>
+    <t>CARNE 1</t>
+  </si>
+  <si>
+    <t>DIODOS ZURDO 1</t>
+  </si>
+  <si>
+    <t>BUZZER, DIODOS SHOKTY Y OTROS</t>
+  </si>
+  <si>
+    <t>mas 4000 para zurdo</t>
+  </si>
+  <si>
+    <t>pagó zurdo</t>
+  </si>
+  <si>
+    <t>pagó Andres</t>
   </si>
 </sst>
 </file>
@@ -1203,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3131,7 +3158,7 @@
         <v>26700</v>
       </c>
       <c r="F50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="13">
         <v>0</v>
@@ -3141,7 +3168,7 @@
       </c>
       <c r="I50" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>26700</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3157,7 +3184,9 @@
       <c r="A51" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="C51" s="21" t="s">
         <v>7</v>
       </c>
@@ -3169,7 +3198,7 @@
         <v>15633.333333333334</v>
       </c>
       <c r="F51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="13">
         <v>0</v>
@@ -3179,171 +3208,249 @@
       </c>
       <c r="I51" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>15633.333333333334</v>
       </c>
-      <c r="J51" s="3">
-        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+      <c r="K51" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>15633.333333333334</v>
       </c>
-      <c r="K51" s="3">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>15633.333333333334</v>
-      </c>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="4"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3">
+        <v>14000</v>
+      </c>
       <c r="E52" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+        <v>4666.666666666667</v>
+      </c>
+      <c r="F52" s="13">
+        <v>1</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
       <c r="I52" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
       <c r="J52" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4666.666666666667</v>
       </c>
       <c r="K52" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4666.666666666667</v>
       </c>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="4"/>
+      <c r="A53" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="3"/>
+      <c r="C53" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3">
+        <v>7000</v>
+      </c>
       <c r="E53" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+        <v>2333.3333333333335</v>
+      </c>
+      <c r="F53" s="13">
+        <v>0</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
       <c r="I53" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="J53" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="K53" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="4"/>
+      <c r="A54" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="3"/>
+      <c r="C54" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3">
+        <v>4000</v>
+      </c>
       <c r="E54" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
       <c r="I54" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="J54" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="K54" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1333.3333333333333</v>
       </c>
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="4"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="3">
+        <v>7000</v>
+      </c>
       <c r="E55" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+        <v>2333.3333333333335</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
       <c r="I55" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="J55" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="K55" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="4"/>
+      <c r="A56" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="3"/>
+      <c r="C56" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="3">
+        <v>6000</v>
+      </c>
       <c r="E56" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+        <v>2000</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
       <c r="I56" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J56" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K56" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="4"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="3">
+        <v>9500</v>
+      </c>
       <c r="E57" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+        <v>3166.6666666666665</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0</v>
+      </c>
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
       <c r="I57" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3166.6666666666665</v>
       </c>
       <c r="J57" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3166.6666666666665</v>
       </c>
       <c r="K57" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3166.6666666666665</v>
       </c>
       <c r="L57" s="2"/>
     </row>
@@ -7098,26 +7205,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>2462608</v>
+        <v>2510108</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>820869.33333333349</v>
+        <v>836702.66666666686</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>294543.33333333331</v>
+        <v>263376.66666666669</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>526513.33333333326</v>
+        <v>542346.66666666663</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>291600</v>
+        <v>307433.33333333331</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="105">
   <si>
     <t>Andres</t>
   </si>
@@ -324,13 +324,25 @@
     <t>BUZZER, DIODOS SHOKTY Y OTROS</t>
   </si>
   <si>
-    <t>mas 4000 para zurdo</t>
-  </si>
-  <si>
-    <t>pagó zurdo</t>
-  </si>
-  <si>
-    <t>pagó Andres</t>
+    <t>DIDACTICAS PEDIDO ZURDO 2</t>
+  </si>
+  <si>
+    <t>RELE SOLO</t>
+  </si>
+  <si>
+    <t>RESISTENCIAS, BANANAS, Y OTROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVANTEL </t>
+  </si>
+  <si>
+    <t>CASILLERO</t>
+  </si>
+  <si>
+    <t>Saldo a favor zurdo</t>
+  </si>
+  <si>
+    <t>Capacitores tanque elc y resistencia 10k potencia</t>
   </si>
 </sst>
 </file>
@@ -1230,13 +1242,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2141,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2153,7 +2165,7 @@
       </c>
       <c r="K23" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2"/>
     </row>
@@ -2444,7 +2456,7 @@
         <v>41000</v>
       </c>
       <c r="F31" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="13">
         <v>0</v>
@@ -2454,7 +2466,7 @@
       </c>
       <c r="I31" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2482,7 +2494,7 @@
         <v>4000</v>
       </c>
       <c r="F32" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="13">
         <v>0</v>
@@ -2492,7 +2504,7 @@
       </c>
       <c r="I32" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2672,7 +2684,7 @@
         <v>17333.333333333332</v>
       </c>
       <c r="F37" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="13">
         <v>0</v>
@@ -2682,7 +2694,7 @@
       </c>
       <c r="I37" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>17333.333333333332</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2710,7 +2722,7 @@
         <v>3000</v>
       </c>
       <c r="F38" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="13">
         <v>0</v>
@@ -2720,7 +2732,7 @@
       </c>
       <c r="I38" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3006,7 +3018,7 @@
         <v>10933.333333333334</v>
       </c>
       <c r="F46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -3016,7 +3028,7 @@
       </c>
       <c r="I46" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10933.333333333334</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3184,9 +3196,7 @@
       <c r="A51" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="21" t="s">
         <v>7</v>
       </c>
@@ -3224,9 +3234,7 @@
       <c r="A52" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="21" t="s">
         <v>7</v>
       </c>
@@ -3340,9 +3348,7 @@
       <c r="A55" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="21" t="s">
         <v>7</v>
       </c>
@@ -3418,9 +3424,7 @@
       <c r="A57" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="B57" s="2"/>
       <c r="C57" s="21" t="s">
         <v>7</v>
       </c>
@@ -3455,76 +3459,112 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="4"/>
+      <c r="A58" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="3"/>
+      <c r="C58" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3">
+        <v>52200</v>
+      </c>
       <c r="E58" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+        <v>17400</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
       <c r="I58" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="J58" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="K58" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="4"/>
+      <c r="A59" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="3"/>
+      <c r="C59" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="3">
+        <v>10000</v>
+      </c>
       <c r="E59" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="F59" s="13">
+        <v>0</v>
+      </c>
+      <c r="G59" s="13">
+        <v>0</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
       <c r="I59" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="J59" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K59" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="4"/>
+      <c r="A60" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="3"/>
+      <c r="C60" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="3">
+        <v>12000</v>
+      </c>
       <c r="E60" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+        <v>4000</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0</v>
+      </c>
+      <c r="H60" s="13">
+        <v>1</v>
+      </c>
       <c r="I60" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J60" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="K60" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3533,80 +3573,116 @@
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="3"/>
+      <c r="C61" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3">
+        <v>48000</v>
+      </c>
       <c r="E61" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+        <v>16000</v>
+      </c>
+      <c r="F61" s="13">
+        <v>0</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0</v>
+      </c>
+      <c r="H61" s="13">
+        <v>0</v>
+      </c>
       <c r="I61" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="J61" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="K61" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="3"/>
+      <c r="C62" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="3">
+        <v>10000</v>
+      </c>
       <c r="E62" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="F62" s="13">
+        <v>0</v>
+      </c>
+      <c r="G62" s="13">
+        <v>0</v>
+      </c>
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
       <c r="I62" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="J62" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K62" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="4"/>
+      <c r="A63" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="3"/>
+      <c r="C63" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3">
+        <v>10000</v>
+      </c>
       <c r="E63" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0</v>
+      </c>
+      <c r="H63" s="13">
+        <v>0</v>
+      </c>
       <c r="I63" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="J63" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K63" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="L63" s="2"/>
     </row>
@@ -7205,26 +7281,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>2510108</v>
+        <v>2652308</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>836702.66666666686</v>
+        <v>884102.66666666698</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>263376.66666666669</v>
+        <v>234510.00000000006</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>542346.66666666663</v>
+        <v>589746.66666666674</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>307433.33333333331</v>
+        <v>250833.3333333334</v>
       </c>
     </row>
   </sheetData>
@@ -7252,10 +7328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7264,7 +7340,7 @@
     <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -7272,7 +7348,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -7280,7 +7356,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -7288,7 +7364,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -7296,7 +7372,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -7304,7 +7380,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -7312,7 +7388,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -7320,7 +7396,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -7328,23 +7404,29 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="1">
         <v>5000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10">
+        <v>85700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>84</v>
       </c>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
   <si>
     <t>Andres</t>
   </si>
@@ -343,6 +343,24 @@
   </si>
   <si>
     <t>Capacitores tanque elc y resistencia 10k potencia</t>
+  </si>
+  <si>
+    <t>Carnes de res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carne Cerdo </t>
+  </si>
+  <si>
+    <t>Mosfets tipo P</t>
+  </si>
+  <si>
+    <t>Compras Electrokit MosfetN, conectores, reguladores</t>
+  </si>
+  <si>
+    <t>Disipador azul, speaker, resistencias, cap y 386</t>
+  </si>
+  <si>
+    <t>Andres 10mil y zurdo 3mil</t>
   </si>
 </sst>
 </file>
@@ -1242,13 +1260,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="C193" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1800,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="12">
         <v>1</v>
@@ -1811,7 +1829,7 @@
       </c>
       <c r="J14" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>32833.333333333336</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1838,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="12">
         <v>1</v>
@@ -1849,7 +1867,7 @@
       </c>
       <c r="J15" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1878,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="12">
         <v>1</v>
@@ -1889,7 +1907,7 @@
       </c>
       <c r="J16" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="K16" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1916,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="12">
         <v>1</v>
@@ -1927,7 +1945,7 @@
       </c>
       <c r="J17" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2666.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1954,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="13">
         <v>0</v>
@@ -1992,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="13">
         <v>0</v>
@@ -2030,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="13">
         <v>1</v>
@@ -2041,7 +2059,7 @@
       </c>
       <c r="J20" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2070,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="13">
         <v>1</v>
@@ -2081,7 +2099,7 @@
       </c>
       <c r="J21" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>39333.333333333336</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2109,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="13">
         <v>1</v>
@@ -2120,7 +2138,7 @@
       </c>
       <c r="J22" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>11380</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2150,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="13">
         <v>1</v>
@@ -2161,7 +2179,7 @@
       </c>
       <c r="J23" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2190,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="13">
         <v>1</v>
@@ -2201,7 +2219,7 @@
       </c>
       <c r="J24" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10333.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2229,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="13">
         <v>1</v>
@@ -2240,7 +2258,7 @@
       </c>
       <c r="J25" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4490</v>
+        <v>0</v>
       </c>
       <c r="K25" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2268,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="13">
         <v>1</v>
@@ -2279,7 +2297,7 @@
       </c>
       <c r="J26" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1110.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2306,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="13">
         <v>1</v>
@@ -2317,7 +2335,7 @@
       </c>
       <c r="J27" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2833.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2382,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="13">
         <v>1</v>
@@ -2393,7 +2411,7 @@
       </c>
       <c r="J29" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2666.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2420,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="13">
         <v>1</v>
@@ -2431,7 +2449,7 @@
       </c>
       <c r="J30" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1666.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2459,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="13">
         <v>1</v>
@@ -2470,7 +2488,7 @@
       </c>
       <c r="J31" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2497,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="13">
         <v>1</v>
@@ -2508,7 +2526,7 @@
       </c>
       <c r="J32" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2575,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="13">
         <v>0</v>
@@ -2586,7 +2604,7 @@
       </c>
       <c r="J34" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="K34" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2613,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="13">
         <v>1</v>
@@ -2624,7 +2642,7 @@
       </c>
       <c r="J35" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2687,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="13">
         <v>1</v>
@@ -2698,7 +2716,7 @@
       </c>
       <c r="J37" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>17333.333333333332</v>
+        <v>0</v>
       </c>
       <c r="K37" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2725,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="13">
         <v>1</v>
@@ -2736,7 +2754,7 @@
       </c>
       <c r="J38" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K38" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2763,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="13">
         <v>1</v>
@@ -2774,7 +2792,7 @@
       </c>
       <c r="J39" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="K39" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2801,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="13">
         <v>0</v>
@@ -2812,7 +2830,7 @@
       </c>
       <c r="J40" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>16666.666666666668</v>
+        <v>0</v>
       </c>
       <c r="K40" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2839,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="13">
         <v>1</v>
@@ -2850,7 +2868,7 @@
       </c>
       <c r="J41" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>17333.333333333332</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2877,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="13">
         <v>0</v>
@@ -2888,7 +2906,7 @@
       </c>
       <c r="J42" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2910,7 +2928,9 @@
         <v>0</v>
       </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="G43" s="13">
+        <v>1</v>
+      </c>
       <c r="H43" s="13"/>
       <c r="I43" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2945,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="13">
         <v>0</v>
@@ -2956,7 +2976,7 @@
       </c>
       <c r="J44" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2983,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="13">
         <v>0</v>
@@ -2994,7 +3014,7 @@
       </c>
       <c r="J45" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>19333.333333333332</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3021,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="13">
         <v>0</v>
@@ -3032,7 +3052,7 @@
       </c>
       <c r="J46" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10933.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3059,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="13">
         <v>0</v>
@@ -3070,7 +3090,7 @@
       </c>
       <c r="J47" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>17666.666666666668</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3097,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="13">
         <v>0</v>
@@ -3108,7 +3128,7 @@
       </c>
       <c r="J48" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3135,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="13">
         <v>0</v>
@@ -3146,7 +3166,7 @@
       </c>
       <c r="J49" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>38333.333333333336</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3173,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="13">
         <v>0</v>
@@ -3184,7 +3204,7 @@
       </c>
       <c r="J50" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>26700</v>
+        <v>0</v>
       </c>
       <c r="K50" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3211,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="13">
         <v>0</v>
@@ -3222,7 +3242,7 @@
       </c>
       <c r="J51" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>15633.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K51" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3249,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="13">
         <v>0</v>
@@ -3260,7 +3280,7 @@
       </c>
       <c r="J52" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3287,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="13">
         <v>0</v>
@@ -3298,7 +3318,7 @@
       </c>
       <c r="J53" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="K53" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3325,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="13">
         <v>0</v>
@@ -3336,7 +3356,7 @@
       </c>
       <c r="J54" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1333.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3363,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="13">
         <v>0</v>
@@ -3374,7 +3394,7 @@
       </c>
       <c r="J55" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="K55" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3401,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="13">
         <v>0</v>
@@ -3412,7 +3432,7 @@
       </c>
       <c r="J56" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K56" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3439,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="13">
         <v>0</v>
@@ -3450,7 +3470,7 @@
       </c>
       <c r="J57" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3166.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3477,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="13">
         <v>0</v>
@@ -3488,7 +3508,7 @@
       </c>
       <c r="J58" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>17400</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3515,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="13">
         <v>0</v>
@@ -3526,7 +3546,7 @@
       </c>
       <c r="J59" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3553,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="13">
         <v>1</v>
@@ -3564,7 +3584,7 @@
       </c>
       <c r="J60" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3591,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="13">
         <v>0</v>
@@ -3602,7 +3622,7 @@
       </c>
       <c r="J61" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3629,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="13">
         <v>0</v>
@@ -3640,7 +3660,7 @@
       </c>
       <c r="J62" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3667,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="13">
         <v>0</v>
@@ -3678,29 +3698,41 @@
       </c>
       <c r="J63" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>3333.3333333333335</v>
       </c>
-      <c r="K63" s="3">
-        <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
-      </c>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="3"/>
+      <c r="C64" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="3">
+        <v>4500</v>
+      </c>
       <c r="E64" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
+        <v>1500</v>
+      </c>
+      <c r="F64" s="13">
+        <v>0</v>
+      </c>
+      <c r="G64" s="13">
+        <v>1</v>
+      </c>
+      <c r="H64" s="13">
+        <v>0</v>
+      </c>
       <c r="I64" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J64" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3708,25 +3740,37 @@
       </c>
       <c r="K64" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="4"/>
+      <c r="A65" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="3"/>
+      <c r="C65" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3">
+        <v>3600</v>
+      </c>
       <c r="E65" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
+        <v>1200</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0</v>
+      </c>
+      <c r="G65" s="13">
+        <v>1</v>
+      </c>
+      <c r="H65" s="13">
+        <v>0</v>
+      </c>
       <c r="I65" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J65" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3734,25 +3778,37 @@
       </c>
       <c r="K65" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="4"/>
+      <c r="A66" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="3"/>
+      <c r="C66" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="3">
+        <v>10800</v>
+      </c>
       <c r="E66" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
+        <v>3600</v>
+      </c>
+      <c r="F66" s="13">
+        <v>0</v>
+      </c>
+      <c r="G66" s="13">
+        <v>1</v>
+      </c>
+      <c r="H66" s="13">
+        <v>0</v>
+      </c>
       <c r="I66" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="J66" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3760,25 +3816,37 @@
       </c>
       <c r="K66" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="4"/>
+      <c r="A67" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="3"/>
+      <c r="C67" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="3">
+        <v>19100</v>
+      </c>
       <c r="E67" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
+        <v>6366.666666666667</v>
+      </c>
+      <c r="F67" s="13">
+        <v>0</v>
+      </c>
+      <c r="G67" s="13">
+        <v>1</v>
+      </c>
+      <c r="H67" s="13">
+        <v>0</v>
+      </c>
       <c r="I67" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>6366.666666666667</v>
       </c>
       <c r="J67" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3786,25 +3854,39 @@
       </c>
       <c r="K67" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>6366.666666666667</v>
       </c>
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="4"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3">
+        <v>13000</v>
+      </c>
       <c r="E68" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
+        <v>4333.333333333333</v>
+      </c>
+      <c r="F68" s="13">
+        <v>0</v>
+      </c>
+      <c r="G68" s="13">
+        <v>1</v>
+      </c>
+      <c r="H68" s="13">
+        <v>0</v>
+      </c>
       <c r="I68" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4333.333333333333</v>
       </c>
       <c r="J68" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3812,7 +3894,7 @@
       </c>
       <c r="K68" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4333.333333333333</v>
       </c>
       <c r="L68" s="2"/>
     </row>
@@ -7281,26 +7363,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>2652308</v>
+        <v>2703308</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>884102.66666666698</v>
+        <v>901102.66666666698</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>234510.00000000006</v>
+        <v>251510.00000000006</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>589746.66666666674</v>
+        <v>0</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>250833.3333333334</v>
+        <v>267833.33333333337</v>
       </c>
     </row>
   </sheetData>
@@ -7331,7 +7413,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
   <si>
     <t>Andres</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>Andres 10mil y zurdo 3mil</t>
+  </si>
+  <si>
+    <t>Regulador 7808 y 317</t>
   </si>
 </sst>
 </file>
@@ -1260,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C193" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="B174" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3899,20 +3902,32 @@
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="4"/>
+      <c r="A69" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="3"/>
+      <c r="C69" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2400</v>
+      </c>
       <c r="E69" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
+        <v>800</v>
+      </c>
+      <c r="F69" s="13">
+        <v>0</v>
+      </c>
+      <c r="G69" s="13">
+        <v>1</v>
+      </c>
+      <c r="H69" s="13">
+        <v>0</v>
+      </c>
       <c r="I69" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J69" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3920,7 +3935,7 @@
       </c>
       <c r="K69" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L69" s="2"/>
     </row>
@@ -7363,18 +7378,18 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>2703308</v>
+        <v>2705708</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>901102.66666666698</v>
+        <v>901902.66666666698</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>251510.00000000006</v>
+        <v>252310.00000000006</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
@@ -7382,7 +7397,7 @@
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>267833.33333333337</v>
+        <v>268633.33333333337</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
   <si>
     <t>Andres</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>Regulador 7808 y 317</t>
+  </si>
+  <si>
+    <t>PCBS SEGUNDA CORRIDA</t>
+  </si>
+  <si>
+    <t>Digikey ultima</t>
   </si>
 </sst>
 </file>
@@ -1263,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B174" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3940,54 +3946,80 @@
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="4"/>
+      <c r="A70" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="3"/>
+      <c r="C70" s="21">
+        <v>95.09</v>
+      </c>
+      <c r="D70" s="3">
+        <f>3000*Tabla2[[#This Row],[Valor en Dolares]]</f>
+        <v>285270</v>
+      </c>
       <c r="E70" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
+        <v>95090</v>
+      </c>
+      <c r="F70" s="13">
+        <v>0</v>
+      </c>
+      <c r="G70" s="13">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
+        <v>0</v>
+      </c>
       <c r="I70" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>95090</v>
       </c>
       <c r="J70" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>95090</v>
       </c>
       <c r="K70" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>95090</v>
       </c>
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="4"/>
+      <c r="A71" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="3"/>
+      <c r="C71" s="21">
+        <v>51.3</v>
+      </c>
+      <c r="D71" s="3">
+        <f>3000*Tabla2[[#This Row],[Valor en Dolares]]</f>
+        <v>153900</v>
+      </c>
       <c r="E71" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
+        <v>51300</v>
+      </c>
+      <c r="F71" s="13">
+        <v>0</v>
+      </c>
+      <c r="G71" s="13">
+        <v>0</v>
+      </c>
+      <c r="H71" s="13">
+        <v>0</v>
+      </c>
       <c r="I71" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>51300</v>
       </c>
       <c r="J71" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>51300</v>
       </c>
       <c r="K71" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>51300</v>
       </c>
       <c r="L71" s="2"/>
     </row>
@@ -7378,26 +7410,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>2705708</v>
+        <v>3144878</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>901902.66666666698</v>
+        <v>1048292.666666667</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>252310.00000000006</v>
+        <v>398700.00000000006</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>0</v>
+        <v>146390</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>268633.33333333337</v>
+        <v>415023.33333333337</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
   <si>
     <t>Andres</t>
   </si>
@@ -339,9 +339,6 @@
     <t>CASILLERO</t>
   </si>
   <si>
-    <t>Saldo a favor zurdo</t>
-  </si>
-  <si>
     <t>Capacitores tanque elc y resistencia 10k potencia</t>
   </si>
   <si>
@@ -370,6 +367,9 @@
   </si>
   <si>
     <t>Digikey ultima</t>
+  </si>
+  <si>
+    <t>Placas de retorno y bisturis 2</t>
   </si>
 </sst>
 </file>
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1824,7 +1824,7 @@
         <v>32833.333333333336</v>
       </c>
       <c r="F14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="12">
         <v>1</v>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I14" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>32833.333333333336</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -1978,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="13">
         <v>1</v>
       </c>
       <c r="H18" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="13">
         <v>1</v>
       </c>
       <c r="H19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2054,7 +2054,7 @@
         <v>25000</v>
       </c>
       <c r="F20" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="13">
         <v>1</v>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="I20" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2292,7 +2292,7 @@
         <v>1110.0000000000002</v>
       </c>
       <c r="F26" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="13">
         <v>1</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="I26" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1110.0000000000002</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="K34" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="L34" s="2"/>
     </row>
@@ -2637,7 +2637,7 @@
         <v>5000</v>
       </c>
       <c r="F35" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="13">
         <v>1</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="I35" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2787,7 +2787,7 @@
         <v>8000</v>
       </c>
       <c r="F39" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="13">
         <v>1</v>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="I39" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2825,17 +2825,17 @@
         <v>16666.666666666668</v>
       </c>
       <c r="F40" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="13">
         <v>1</v>
       </c>
       <c r="H40" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>16666.666666666668</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="K40" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>16666.666666666668</v>
+        <v>0</v>
       </c>
       <c r="L40" s="2"/>
     </row>
@@ -2901,17 +2901,17 @@
         <v>3000</v>
       </c>
       <c r="F42" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="13">
         <v>1</v>
       </c>
       <c r="H42" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="K42" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L42" s="2"/>
     </row>
@@ -2971,17 +2971,17 @@
         <v>3333.3333333333335</v>
       </c>
       <c r="F44" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="13">
         <v>1</v>
       </c>
       <c r="H44" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="K44" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="L44" s="2"/>
     </row>
@@ -3009,17 +3009,17 @@
         <v>19333.333333333332</v>
       </c>
       <c r="F45" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="13">
         <v>1</v>
       </c>
       <c r="H45" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>19333.333333333332</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="K45" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>19333.333333333332</v>
+        <v>0</v>
       </c>
       <c r="L45" s="2"/>
     </row>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="K46" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10933.333333333334</v>
+        <v>0</v>
       </c>
       <c r="L46" s="2"/>
     </row>
@@ -3085,17 +3085,17 @@
         <v>17666.666666666668</v>
       </c>
       <c r="F47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="13">
         <v>1</v>
       </c>
       <c r="H47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>17666.666666666668</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="K47" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>17666.666666666668</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2"/>
     </row>
@@ -3129,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="K48" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2"/>
     </row>
@@ -3161,17 +3161,17 @@
         <v>38333.333333333336</v>
       </c>
       <c r="F49" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="13">
         <v>1</v>
       </c>
       <c r="H49" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>38333.333333333336</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="K49" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>38333.333333333336</v>
+        <v>0</v>
       </c>
       <c r="L49" s="2"/>
     </row>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="21" t="s">
@@ -3717,7 +3717,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="21" t="s">
@@ -3755,7 +3755,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="21" t="s">
@@ -3793,7 +3793,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="21" t="s">
@@ -3831,7 +3831,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="21" t="s">
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3863,16 +3863,16 @@
       </c>
       <c r="K67" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>6366.666666666667</v>
+        <v>0</v>
       </c>
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>7</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="21" t="s">
@@ -3947,7 +3947,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="21">
@@ -3986,19 +3986,19 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="21">
-        <v>51.3</v>
+        <v>55.62</v>
       </c>
       <c r="D71" s="3">
         <f>3000*Tabla2[[#This Row],[Valor en Dolares]]</f>
-        <v>153900</v>
+        <v>166860</v>
       </c>
       <c r="E71" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>51300</v>
+        <v>55620</v>
       </c>
       <c r="F71" s="13">
         <v>0</v>
@@ -4011,41 +4011,53 @@
       </c>
       <c r="I71" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>51300</v>
+        <v>55620</v>
       </c>
       <c r="J71" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>51300</v>
+        <v>55620</v>
       </c>
       <c r="K71" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>51300</v>
+        <v>55620</v>
       </c>
       <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="4"/>
+      <c r="A72" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="3"/>
+      <c r="C72" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="3">
+        <v>125000</v>
+      </c>
       <c r="E72" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
+        <v>41666.666666666664</v>
+      </c>
+      <c r="F72" s="13">
+        <v>0</v>
+      </c>
+      <c r="G72" s="13">
+        <v>0</v>
+      </c>
+      <c r="H72" s="13">
+        <v>0</v>
+      </c>
       <c r="I72" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>41666.666666666664</v>
       </c>
       <c r="J72" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>41666.666666666664</v>
       </c>
       <c r="K72" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>41666.666666666664</v>
       </c>
       <c r="L72" s="2"/>
     </row>
@@ -7410,26 +7422,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>3144878</v>
+        <v>3282838</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1048292.666666667</v>
+        <v>1094279.3333333337</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>398700.00000000006</v>
+        <v>274410</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>146390</v>
+        <v>192376.66666666666</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>415023.33333333337</v>
+        <v>305376.66666666669</v>
       </c>
     </row>
   </sheetData>
@@ -7457,10 +7469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7469,7 +7481,7 @@
     <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -7477,7 +7489,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -7485,7 +7497,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -7493,7 +7505,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -7501,7 +7513,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -7509,15 +7521,15 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -7525,7 +7537,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -7533,40 +7545,34 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D10">
-        <v>85700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="1">
-        <v>80000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1">
         <f>SUM(B1:B23)</f>
-        <v>1445000</v>
+        <v>1570000</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="120">
   <si>
     <t>Andres</t>
   </si>
@@ -370,6 +370,24 @@
   </si>
   <si>
     <t>Placas de retorno y bisturis 2</t>
+  </si>
+  <si>
+    <t>Impuestos PCBS</t>
+  </si>
+  <si>
+    <t>Compra centro conectores</t>
+  </si>
+  <si>
+    <t>Compra conectores real de minas</t>
+  </si>
+  <si>
+    <t>Capacitores</t>
+  </si>
+  <si>
+    <t>Zurdo 20K, Andres 10K</t>
+  </si>
+  <si>
+    <t>AVANTEL</t>
   </si>
 </sst>
 </file>
@@ -1269,15 +1287,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="23" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -3950,16 +3968,15 @@
         <v>111</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="21">
-        <v>95.09</v>
+      <c r="C70" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D70" s="3">
-        <f>3000*Tabla2[[#This Row],[Valor en Dolares]]</f>
-        <v>285270</v>
+        <v>290000</v>
       </c>
       <c r="E70" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>95090</v>
+        <v>96666.666666666672</v>
       </c>
       <c r="F70" s="13">
         <v>0</v>
@@ -3972,15 +3989,15 @@
       </c>
       <c r="I70" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>95090</v>
+        <v>96666.666666666672</v>
       </c>
       <c r="J70" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>95090</v>
+        <v>96666.666666666672</v>
       </c>
       <c r="K70" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>95090</v>
+        <v>96666.666666666672</v>
       </c>
       <c r="L70" s="2"/>
     </row>
@@ -3989,16 +4006,15 @@
         <v>112</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="21">
-        <v>55.62</v>
+      <c r="C71" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D71" s="3">
-        <f>3000*Tabla2[[#This Row],[Valor en Dolares]]</f>
-        <v>166860</v>
+        <v>170000</v>
       </c>
       <c r="E71" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>55620</v>
+        <v>56666.666666666664</v>
       </c>
       <c r="F71" s="13">
         <v>0</v>
@@ -4011,15 +4027,15 @@
       </c>
       <c r="I71" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>55620</v>
+        <v>56666.666666666664</v>
       </c>
       <c r="J71" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>55620</v>
+        <v>56666.666666666664</v>
       </c>
       <c r="K71" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>55620</v>
+        <v>56666.666666666664</v>
       </c>
       <c r="L71" s="2"/>
     </row>
@@ -4062,184 +4078,270 @@
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="4"/>
+      <c r="A73" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="3"/>
+      <c r="C73" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="3">
+        <v>63000</v>
+      </c>
       <c r="E73" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+        <v>21000</v>
+      </c>
+      <c r="F73" s="13">
+        <v>0</v>
+      </c>
+      <c r="G73" s="13">
+        <v>0</v>
+      </c>
+      <c r="H73" s="13">
+        <v>0</v>
+      </c>
       <c r="I73" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="J73" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="K73" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="4"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="3">
+        <v>31200</v>
+      </c>
       <c r="E74" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
+        <v>10400</v>
+      </c>
+      <c r="F74" s="13">
+        <v>0</v>
+      </c>
+      <c r="G74" s="13">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13">
+        <v>0</v>
+      </c>
       <c r="I74" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="J74" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="K74" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="4"/>
+      <c r="A75" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="3"/>
+      <c r="C75" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="3">
+        <v>20000</v>
+      </c>
       <c r="E75" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+        <v>6666.666666666667</v>
+      </c>
+      <c r="F75" s="13">
+        <v>0</v>
+      </c>
+      <c r="G75" s="13">
+        <v>0</v>
+      </c>
+      <c r="H75" s="13">
+        <v>0</v>
+      </c>
       <c r="I75" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>6666.666666666667</v>
       </c>
       <c r="J75" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>6666.666666666667</v>
       </c>
       <c r="K75" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>6666.666666666667</v>
       </c>
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="4"/>
+      <c r="A76" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="3"/>
+      <c r="C76" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="3">
+        <v>121000</v>
+      </c>
       <c r="E76" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
+        <v>40333.333333333336</v>
+      </c>
+      <c r="F76" s="13">
+        <v>0</v>
+      </c>
+      <c r="G76" s="13">
+        <v>0</v>
+      </c>
+      <c r="H76" s="13">
+        <v>0</v>
+      </c>
       <c r="I76" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>40333.333333333336</v>
       </c>
       <c r="J76" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>40333.333333333336</v>
       </c>
       <c r="K76" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>40333.333333333336</v>
       </c>
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="4"/>
+      <c r="A77" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="3"/>
+      <c r="C77" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="3">
+        <v>130000</v>
+      </c>
       <c r="E77" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
+        <v>43333.333333333336</v>
+      </c>
+      <c r="F77" s="13">
+        <v>0</v>
+      </c>
+      <c r="G77" s="13">
+        <v>0</v>
+      </c>
+      <c r="H77" s="13">
+        <v>0</v>
+      </c>
       <c r="I77" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>43333.333333333336</v>
       </c>
       <c r="J77" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>43333.333333333336</v>
       </c>
       <c r="K77" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>43333.333333333336</v>
       </c>
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="4"/>
+      <c r="A78" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="3"/>
+      <c r="C78" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="3">
+        <v>5000</v>
+      </c>
       <c r="E78" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="F78" s="13">
+        <v>0</v>
+      </c>
+      <c r="G78" s="13">
+        <v>0</v>
+      </c>
+      <c r="H78" s="13">
+        <v>0</v>
+      </c>
       <c r="I78" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="J78" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="K78" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="4"/>
+      <c r="A79" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="3"/>
+      <c r="C79" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="3">
+        <v>44000</v>
+      </c>
       <c r="E79" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
+        <v>14666.666666666666</v>
+      </c>
+      <c r="F79" s="13">
+        <v>0</v>
+      </c>
+      <c r="G79" s="13">
+        <v>0</v>
+      </c>
+      <c r="H79" s="13">
+        <v>0</v>
+      </c>
       <c r="I79" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>14666.666666666666</v>
       </c>
       <c r="J79" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>14666.666666666666</v>
       </c>
       <c r="K79" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>14666.666666666666</v>
       </c>
       <c r="L79" s="2"/>
     </row>
@@ -7422,26 +7524,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>3282838</v>
+        <v>3704908</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1094279.3333333337</v>
+        <v>1234969.3333333337</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>274410</v>
+        <v>415100</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>192376.66666666666</v>
+        <v>333066.66666666669</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>305376.66666666669</v>
+        <v>446066.66666666669</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="124">
   <si>
     <t>Andres</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Disipador azul, speaker, resistencias, cap y 386</t>
   </si>
   <si>
-    <t>Andres 10mil y zurdo 3mil</t>
-  </si>
-  <si>
     <t>Regulador 7808 y 317</t>
   </si>
   <si>
@@ -384,10 +381,25 @@
     <t>Capacitores</t>
   </si>
   <si>
-    <t>Zurdo 20K, Andres 10K</t>
-  </si>
-  <si>
     <t>AVANTEL</t>
+  </si>
+  <si>
+    <t>CABLES, TORNILLOS…</t>
+  </si>
+  <si>
+    <t>30 gastos zurdo día de galindo</t>
+  </si>
+  <si>
+    <t>mas 30 galindo</t>
+  </si>
+  <si>
+    <t>3mil andres</t>
+  </si>
+  <si>
+    <t>26mil zurdo</t>
+  </si>
+  <si>
+    <t>servicio hasta el 14 de noviembre, falta pagar una factura</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3141,7 +3153,7 @@
         <v>4000</v>
       </c>
       <c r="F48" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="13">
         <v>1</v>
@@ -3151,7 +3163,7 @@
       </c>
       <c r="I48" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3223,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3235,7 +3247,7 @@
       </c>
       <c r="K50" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>26700</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2"/>
     </row>
@@ -3261,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3273,7 +3285,7 @@
       </c>
       <c r="K51" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>15633.333333333334</v>
+        <v>0</v>
       </c>
       <c r="L51" s="2"/>
     </row>
@@ -3299,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3311,7 +3323,7 @@
       </c>
       <c r="K52" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="L52" s="2"/>
     </row>
@@ -3331,17 +3343,17 @@
         <v>2333.3333333333335</v>
       </c>
       <c r="F53" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="13">
         <v>1</v>
       </c>
       <c r="H53" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3349,7 +3361,7 @@
       </c>
       <c r="K53" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="L53" s="2"/>
     </row>
@@ -3369,17 +3381,17 @@
         <v>1333.3333333333333</v>
       </c>
       <c r="F54" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="13">
         <v>1</v>
       </c>
       <c r="H54" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1333.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3387,7 +3399,7 @@
       </c>
       <c r="K54" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1333.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2"/>
     </row>
@@ -3407,17 +3419,17 @@
         <v>2333.3333333333335</v>
       </c>
       <c r="F55" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="13">
         <v>1</v>
       </c>
       <c r="H55" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="J55" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3425,7 +3437,7 @@
       </c>
       <c r="K55" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="L55" s="2"/>
     </row>
@@ -3445,17 +3457,17 @@
         <v>2000</v>
       </c>
       <c r="F56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="13">
         <v>1</v>
       </c>
       <c r="H56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3463,7 +3475,7 @@
       </c>
       <c r="K56" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L56" s="2"/>
     </row>
@@ -3483,7 +3495,7 @@
         <v>3166.6666666666665</v>
       </c>
       <c r="F57" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="13">
         <v>1</v>
@@ -3493,7 +3505,7 @@
       </c>
       <c r="I57" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3166.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3521,7 +3533,7 @@
         <v>17400</v>
       </c>
       <c r="F58" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="13">
         <v>1</v>
@@ -3531,7 +3543,7 @@
       </c>
       <c r="I58" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>17400</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3559,7 +3571,7 @@
         <v>3333.3333333333335</v>
       </c>
       <c r="F59" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="13">
         <v>1</v>
@@ -3569,7 +3581,7 @@
       </c>
       <c r="I59" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3597,7 +3609,7 @@
         <v>4000</v>
       </c>
       <c r="F60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="13">
         <v>1</v>
@@ -3607,7 +3619,7 @@
       </c>
       <c r="I60" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3635,7 +3647,7 @@
         <v>16000</v>
       </c>
       <c r="F61" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="13">
         <v>1</v>
@@ -3645,7 +3657,7 @@
       </c>
       <c r="I61" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3673,7 +3685,7 @@
         <v>3333.3333333333335</v>
       </c>
       <c r="F62" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="13">
         <v>1</v>
@@ -3683,7 +3695,7 @@
       </c>
       <c r="I62" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3711,7 +3723,7 @@
         <v>3333.3333333333335</v>
       </c>
       <c r="F63" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="13">
         <v>1</v>
@@ -3721,7 +3733,7 @@
       </c>
       <c r="I63" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="J63" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3749,7 +3761,7 @@
         <v>1500</v>
       </c>
       <c r="F64" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="13">
         <v>1</v>
@@ -3759,7 +3771,7 @@
       </c>
       <c r="I64" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="J64" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3787,7 +3799,7 @@
         <v>1200</v>
       </c>
       <c r="F65" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="13">
         <v>1</v>
@@ -3797,7 +3809,7 @@
       </c>
       <c r="I65" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J65" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3825,7 +3837,7 @@
         <v>3600</v>
       </c>
       <c r="F66" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="13">
         <v>1</v>
@@ -3835,7 +3847,7 @@
       </c>
       <c r="I66" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3863,7 +3875,7 @@
         <v>6366.666666666667</v>
       </c>
       <c r="F67" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="13">
         <v>1</v>
@@ -3873,7 +3885,7 @@
       </c>
       <c r="I67" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>6366.666666666667</v>
+        <v>0</v>
       </c>
       <c r="J67" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3889,9 +3901,7 @@
       <c r="A68" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="B68" s="2"/>
       <c r="C68" s="21" t="s">
         <v>7</v>
       </c>
@@ -3903,7 +3913,7 @@
         <v>4333.333333333333</v>
       </c>
       <c r="F68" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="13">
         <v>1</v>
@@ -3913,7 +3923,7 @@
       </c>
       <c r="I68" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="J68" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3927,7 +3937,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="21" t="s">
@@ -3965,7 +3975,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="21" t="s">
@@ -4003,7 +4013,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="21" t="s">
@@ -4041,7 +4051,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="21" t="s">
@@ -4079,7 +4089,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="21" t="s">
@@ -4117,11 +4127,9 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" s="21" t="s">
         <v>7</v>
       </c>
@@ -4157,7 +4165,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="21" t="s">
@@ -4240,11 +4248,11 @@
         <v>7</v>
       </c>
       <c r="D77" s="3">
-        <v>130000</v>
+        <v>132000</v>
       </c>
       <c r="E77" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>43333.333333333336</v>
+        <v>44000</v>
       </c>
       <c r="F77" s="13">
         <v>0</v>
@@ -4257,21 +4265,21 @@
       </c>
       <c r="I77" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>43333.333333333336</v>
+        <v>44000</v>
       </c>
       <c r="J77" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>43333.333333333336</v>
+        <v>44000</v>
       </c>
       <c r="K77" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>43333.333333333336</v>
+        <v>44000</v>
       </c>
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="21" t="s">
@@ -4309,9 +4317,11 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C79" s="21" t="s">
         <v>7</v>
       </c>
@@ -4346,28 +4356,38 @@
       <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="4"/>
+      <c r="A80" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="B80" s="2"/>
       <c r="C80" s="21"/>
-      <c r="D80" s="3"/>
+      <c r="D80" s="3">
+        <v>22000</v>
+      </c>
       <c r="E80" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
+        <v>7333.333333333333</v>
+      </c>
+      <c r="F80" s="13">
+        <v>0</v>
+      </c>
+      <c r="G80" s="13">
+        <v>0</v>
+      </c>
+      <c r="H80" s="13">
+        <v>0</v>
+      </c>
       <c r="I80" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>7333.333333333333</v>
       </c>
       <c r="J80" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>7333.333333333333</v>
       </c>
       <c r="K80" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>7333.333333333333</v>
       </c>
       <c r="L80" s="2"/>
     </row>
@@ -4399,7 +4419,9 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="4"/>
-      <c r="B82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="C82" s="21"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3">
@@ -4425,7 +4447,9 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="4"/>
-      <c r="B83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="C83" s="21"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3">
@@ -4451,7 +4475,9 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="4"/>
-      <c r="B84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="C84" s="21"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3">
@@ -4477,7 +4503,9 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="4"/>
-      <c r="B85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C85" s="21"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3">
@@ -7524,26 +7552,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>3704908</v>
+        <v>3728908</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1234969.3333333337</v>
+        <v>1242969.3333333337</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>415100</v>
+        <v>343533.33333333331</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>333066.66666666669</v>
+        <v>341066.66666666669</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>446066.66666666669</v>
+        <v>399066.66666666669</v>
       </c>
     </row>
   </sheetData>
@@ -7574,7 +7602,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="120">
   <si>
     <t>Andres</t>
   </si>
@@ -385,18 +385,6 @@
   </si>
   <si>
     <t>CABLES, TORNILLOS…</t>
-  </si>
-  <si>
-    <t>30 gastos zurdo día de galindo</t>
-  </si>
-  <si>
-    <t>mas 30 galindo</t>
-  </si>
-  <si>
-    <t>3mil andres</t>
-  </si>
-  <si>
-    <t>26mil zurdo</t>
   </si>
   <si>
     <t>servicio hasta el 14 de noviembre, falta pagar una factura</t>
@@ -1299,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="D196" workbookViewId="0">
+      <selection activeCell="I205" sqref="I205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2474,7 +2462,7 @@
         <v>1666.6666666666667</v>
       </c>
       <c r="F30" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="13">
         <v>1</v>
@@ -2484,7 +2472,7 @@
       </c>
       <c r="I30" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1666.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3539,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3551,7 +3539,7 @@
       </c>
       <c r="K58" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>17400</v>
+        <v>0</v>
       </c>
       <c r="L58" s="2"/>
     </row>
@@ -3577,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3589,7 +3577,7 @@
       </c>
       <c r="K59" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="L59" s="2"/>
     </row>
@@ -3691,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3703,7 +3691,7 @@
       </c>
       <c r="K62" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="L62" s="2"/>
     </row>
@@ -3767,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3779,7 +3767,7 @@
       </c>
       <c r="K64" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="L64" s="2"/>
     </row>
@@ -3843,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3855,7 +3843,7 @@
       </c>
       <c r="K66" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="L66" s="2"/>
     </row>
@@ -3951,17 +3939,17 @@
         <v>800</v>
       </c>
       <c r="F69" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="13">
         <v>1</v>
       </c>
       <c r="H69" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J69" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3969,7 +3957,7 @@
       </c>
       <c r="K69" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="L69" s="2"/>
     </row>
@@ -4065,7 +4053,7 @@
         <v>41666.666666666664</v>
       </c>
       <c r="F72" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="13">
         <v>0</v>
@@ -4075,7 +4063,7 @@
       </c>
       <c r="I72" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>41666.666666666664</v>
+        <v>0</v>
       </c>
       <c r="J72" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4248,11 +4236,11 @@
         <v>7</v>
       </c>
       <c r="D77" s="3">
-        <v>132000</v>
+        <v>102000</v>
       </c>
       <c r="E77" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>44000</v>
+        <v>34000</v>
       </c>
       <c r="F77" s="13">
         <v>0</v>
@@ -4265,15 +4253,15 @@
       </c>
       <c r="I77" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>44000</v>
+        <v>34000</v>
       </c>
       <c r="J77" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>44000</v>
+        <v>34000</v>
       </c>
       <c r="K77" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>44000</v>
+        <v>34000</v>
       </c>
       <c r="L77" s="2"/>
     </row>
@@ -4293,7 +4281,7 @@
         <v>1666.6666666666667</v>
       </c>
       <c r="F78" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="13">
         <v>0</v>
@@ -4303,7 +4291,7 @@
       </c>
       <c r="I78" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1666.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="J78" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4320,7 +4308,7 @@
         <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>7</v>
@@ -4369,7 +4357,7 @@
         <v>7333.333333333333</v>
       </c>
       <c r="F80" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="13">
         <v>0</v>
@@ -4379,7 +4367,7 @@
       </c>
       <c r="I80" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>7333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="J80" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4419,9 +4407,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="4"/>
-      <c r="B82" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="21"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3">
@@ -4447,9 +4433,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="4"/>
-      <c r="B83" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="B83" s="2"/>
       <c r="C83" s="21"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3">
@@ -4475,9 +4459,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="4"/>
-      <c r="B84" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="B84" s="2"/>
       <c r="C84" s="21"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3">
@@ -4503,9 +4485,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="4"/>
-      <c r="B85" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="B85" s="2"/>
       <c r="C85" s="21"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3">
@@ -7552,26 +7532,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>3728908</v>
+        <v>3698908</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1242969.3333333337</v>
+        <v>1232969.3333333337</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>343533.33333333331</v>
+        <v>280400.00000000006</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>341066.66666666669</v>
+        <v>331066.66666666669</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>399066.66666666669</v>
+        <v>359100</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
   <si>
     <t>Andres</t>
   </si>
@@ -388,6 +388,24 @@
   </si>
   <si>
     <t>servicio hasta el 14 de noviembre, falta pagar una factura</t>
+  </si>
+  <si>
+    <t>Compras andres</t>
+  </si>
+  <si>
+    <t>Fuente pc negra</t>
+  </si>
+  <si>
+    <t>Mosfets zurdo</t>
+  </si>
+  <si>
+    <t>Carrete de estaño</t>
+  </si>
+  <si>
+    <t>Jumpers dynamo</t>
+  </si>
+  <si>
+    <t>Conectores de tornillitos</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D196" workbookViewId="0">
-      <selection activeCell="I205" sqref="I205"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="J203" sqref="J203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4015,7 +4033,7 @@
         <v>56666.666666666664</v>
       </c>
       <c r="F71" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="13">
         <v>0</v>
@@ -4025,7 +4043,7 @@
       </c>
       <c r="I71" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>56666.666666666664</v>
+        <v>0</v>
       </c>
       <c r="J71" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4059,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4071,7 +4089,7 @@
       </c>
       <c r="K72" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>41666.666666666664</v>
+        <v>0</v>
       </c>
       <c r="L72" s="2"/>
     </row>
@@ -4211,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4223,7 +4241,7 @@
       </c>
       <c r="K76" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>40333.333333333336</v>
+        <v>0</v>
       </c>
       <c r="L76" s="2"/>
     </row>
@@ -4380,128 +4398,178 @@
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="4"/>
+      <c r="A81" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="B81" s="2"/>
       <c r="C81" s="21"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="3">
+        <v>56500</v>
+      </c>
       <c r="E81" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
+        <v>18833.333333333332</v>
+      </c>
+      <c r="F81" s="13">
+        <v>0</v>
+      </c>
+      <c r="G81" s="13">
+        <v>0</v>
+      </c>
+      <c r="H81" s="13">
+        <v>0</v>
+      </c>
       <c r="I81" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>18833.333333333332</v>
       </c>
       <c r="J81" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>18833.333333333332</v>
       </c>
       <c r="K81" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>18833.333333333332</v>
       </c>
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="4"/>
+      <c r="A82" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="B82" s="2"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="3">
+        <v>32000</v>
+      </c>
       <c r="E82" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
+        <v>10666.666666666666</v>
+      </c>
+      <c r="F82" s="13">
+        <v>0</v>
+      </c>
+      <c r="G82" s="13">
+        <v>0</v>
+      </c>
+      <c r="H82" s="13">
+        <v>0</v>
+      </c>
       <c r="I82" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="J82" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="K82" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="4"/>
+      <c r="A83" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="B83" s="2"/>
       <c r="C83" s="21"/>
-      <c r="D83" s="3"/>
+      <c r="D83" s="3">
+        <v>52000</v>
+      </c>
       <c r="E83" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
+        <v>17333.333333333332</v>
+      </c>
+      <c r="F83" s="13">
+        <v>0</v>
+      </c>
+      <c r="G83" s="13">
+        <v>0</v>
+      </c>
+      <c r="H83" s="13">
+        <v>0</v>
+      </c>
       <c r="I83" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17333.333333333332</v>
       </c>
       <c r="J83" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17333.333333333332</v>
       </c>
       <c r="K83" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17333.333333333332</v>
       </c>
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="4"/>
+      <c r="A84" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="B84" s="2"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="3"/>
+      <c r="D84" s="3">
+        <v>17000</v>
+      </c>
       <c r="E84" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+        <v>5666.666666666667</v>
+      </c>
+      <c r="F84" s="13">
+        <v>0</v>
+      </c>
+      <c r="G84" s="13">
+        <v>0</v>
+      </c>
+      <c r="H84" s="13">
+        <v>0</v>
+      </c>
       <c r="I84" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5666.666666666667</v>
       </c>
       <c r="J84" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5666.666666666667</v>
       </c>
       <c r="K84" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5666.666666666667</v>
       </c>
       <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="4"/>
+      <c r="A85" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="B85" s="2"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="3"/>
+      <c r="D85" s="3">
+        <v>6000</v>
+      </c>
       <c r="E85" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
+        <v>2000</v>
+      </c>
+      <c r="F85" s="13">
+        <v>0</v>
+      </c>
+      <c r="G85" s="13">
+        <v>0</v>
+      </c>
+      <c r="H85" s="13">
+        <v>1</v>
+      </c>
       <c r="I85" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J85" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K85" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4510,28 +4578,38 @@
       <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="4"/>
+      <c r="A86" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="B86" s="2"/>
       <c r="C86" s="21"/>
-      <c r="D86" s="3"/>
+      <c r="D86" s="3">
+        <v>3800</v>
+      </c>
       <c r="E86" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
+        <v>1266.6666666666667</v>
+      </c>
+      <c r="F86" s="13">
+        <v>0</v>
+      </c>
+      <c r="G86" s="13">
+        <v>0</v>
+      </c>
+      <c r="H86" s="13">
+        <v>0</v>
+      </c>
       <c r="I86" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1266.6666666666667</v>
       </c>
       <c r="J86" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1266.6666666666667</v>
       </c>
       <c r="K86" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1266.6666666666667</v>
       </c>
       <c r="L86" s="2"/>
     </row>
@@ -7532,26 +7610,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>3698908</v>
+        <v>3866208</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1232969.3333333337</v>
+        <v>1288736.0000000005</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>280400.00000000006</v>
+        <v>279500.00000000006</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>331066.66666666669</v>
+        <v>386833.33333333337</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>359100</v>
+        <v>330866.66666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
   <si>
     <t>Andres</t>
   </si>
@@ -406,6 +406,15 @@
   </si>
   <si>
     <t>Conectores de tornillitos</t>
+  </si>
+  <si>
+    <t>Avantel ultima factura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuota Manejo e intereses </t>
+  </si>
+  <si>
+    <t>Definir en próxima reunión alrededor de 150000 c/u</t>
   </si>
 </sst>
 </file>
@@ -1305,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="J203" sqref="J203"/>
+    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4614,34 +4623,48 @@
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="4"/>
+      <c r="A87" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="B87" s="2"/>
       <c r="C87" s="21"/>
-      <c r="D87" s="3"/>
+      <c r="D87" s="3">
+        <v>46500</v>
+      </c>
       <c r="E87" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
+        <v>15500</v>
+      </c>
+      <c r="F87" s="13">
+        <v>0</v>
+      </c>
+      <c r="G87" s="13">
+        <v>0</v>
+      </c>
+      <c r="H87" s="13">
+        <v>0</v>
+      </c>
       <c r="I87" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>15500</v>
       </c>
       <c r="J87" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>15500</v>
       </c>
       <c r="K87" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>15500</v>
       </c>
       <c r="L87" s="2"/>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="4"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="C88" s="21"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3">
@@ -7610,26 +7633,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>3866208</v>
+        <v>3912708</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1288736.0000000005</v>
+        <v>1304236.0000000005</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>279500.00000000006</v>
+        <v>295000.00000000006</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>386833.33333333337</v>
+        <v>402333.33333333337</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>330866.66666666663</v>
+        <v>346366.66666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\Gestion-Del-Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luzbin\Documents\GitHub\Gestion-Del-Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gastos!$A$1:$H$201</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
   <si>
     <t>Andres</t>
   </si>
@@ -415,12 +415,48 @@
   </si>
   <si>
     <t>Definir en próxima reunión alrededor de 150000 c/u</t>
+  </si>
+  <si>
+    <t>Cosas varias</t>
+  </si>
+  <si>
+    <t>Carcaza + Taxi</t>
+  </si>
+  <si>
+    <t>Sobrepisos</t>
+  </si>
+  <si>
+    <t>Conectores ecg y cosas</t>
+  </si>
+  <si>
+    <t>Fuente de reemplazo</t>
+  </si>
+  <si>
+    <t>Fuente día recogí zurdo</t>
+  </si>
+  <si>
+    <t>Piso en aclirico</t>
+  </si>
+  <si>
+    <t>Jabon, boton, eles, carne, cintas y correas</t>
+  </si>
+  <si>
+    <t>Torniwassas</t>
+  </si>
+  <si>
+    <t>1700 luzbin</t>
+  </si>
+  <si>
+    <t>313400 Zurdo, 200000 Andres</t>
+  </si>
+  <si>
+    <t>20k Luzbin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -1314,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4671,9 +4707,15 @@
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
         <v>0</v>
       </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="F88" s="13">
+        <v>0</v>
+      </c>
+      <c r="G88" s="13">
+        <v>0</v>
+      </c>
+      <c r="H88" s="13">
+        <v>0</v>
+      </c>
       <c r="I88" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
@@ -4689,242 +4731,338 @@
       <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="4"/>
+      <c r="A89" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="B89" s="2"/>
       <c r="C89" s="21"/>
-      <c r="D89" s="3"/>
+      <c r="D89" s="3">
+        <v>30800</v>
+      </c>
       <c r="E89" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
+        <v>10266.666666666666</v>
+      </c>
+      <c r="F89" s="13">
+        <v>0</v>
+      </c>
+      <c r="G89" s="13">
+        <v>0</v>
+      </c>
+      <c r="H89" s="13">
+        <v>0</v>
+      </c>
       <c r="I89" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10266.666666666666</v>
       </c>
       <c r="J89" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10266.666666666666</v>
       </c>
       <c r="K89" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10266.666666666666</v>
       </c>
       <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="4"/>
+      <c r="A90" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="B90" s="2"/>
       <c r="C90" s="21"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="3">
+        <v>15000</v>
+      </c>
       <c r="E90" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
+        <v>5000</v>
+      </c>
+      <c r="F90" s="13">
+        <v>0</v>
+      </c>
+      <c r="G90" s="13">
+        <v>0</v>
+      </c>
+      <c r="H90" s="13">
+        <v>0</v>
+      </c>
       <c r="I90" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J90" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K90" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="4"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="C91" s="21"/>
-      <c r="D91" s="3"/>
+      <c r="D91" s="3">
+        <v>351000</v>
+      </c>
       <c r="E91" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
+        <v>117000</v>
+      </c>
+      <c r="F91" s="13">
+        <v>0</v>
+      </c>
+      <c r="G91" s="13">
+        <v>0</v>
+      </c>
+      <c r="H91" s="13">
+        <v>0</v>
+      </c>
       <c r="I91" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>117000</v>
       </c>
       <c r="J91" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>117000</v>
       </c>
       <c r="K91" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>117000</v>
       </c>
       <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="4"/>
+      <c r="A92" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="B92" s="2"/>
       <c r="C92" s="21"/>
-      <c r="D92" s="3"/>
+      <c r="D92" s="3">
+        <v>190000</v>
+      </c>
       <c r="E92" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
+        <v>63333.333333333336</v>
+      </c>
+      <c r="F92" s="13">
+        <v>0</v>
+      </c>
+      <c r="G92" s="13">
+        <v>0</v>
+      </c>
+      <c r="H92" s="13">
+        <v>0</v>
+      </c>
       <c r="I92" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>63333.333333333336</v>
       </c>
       <c r="J92" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>63333.333333333336</v>
       </c>
       <c r="K92" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>63333.333333333336</v>
       </c>
       <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="4"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="C93" s="21"/>
-      <c r="D93" s="3"/>
+      <c r="D93" s="3">
+        <v>17100</v>
+      </c>
       <c r="E93" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
+        <v>5700</v>
+      </c>
+      <c r="F93" s="13">
+        <v>0</v>
+      </c>
+      <c r="G93" s="13">
+        <v>0</v>
+      </c>
+      <c r="H93" s="13">
+        <v>0</v>
+      </c>
       <c r="I93" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="J93" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="K93" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="4"/>
+      <c r="A94" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="B94" s="2"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="3"/>
+      <c r="D94" s="3">
+        <v>32000</v>
+      </c>
       <c r="E94" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
+        <v>10666.666666666666</v>
+      </c>
+      <c r="F94" s="13">
+        <v>0</v>
+      </c>
+      <c r="G94" s="13">
+        <v>0</v>
+      </c>
+      <c r="H94" s="13">
+        <v>0</v>
+      </c>
       <c r="I94" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="J94" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="K94" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="L94" s="2"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="4"/>
+      <c r="A95" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="B95" s="2"/>
       <c r="C95" s="21"/>
-      <c r="D95" s="3"/>
+      <c r="D95" s="3">
+        <v>30000</v>
+      </c>
       <c r="E95" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
+        <v>10000</v>
+      </c>
+      <c r="F95" s="13">
+        <v>0</v>
+      </c>
+      <c r="G95" s="13">
+        <v>0</v>
+      </c>
+      <c r="H95" s="13">
+        <v>0</v>
+      </c>
       <c r="I95" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J95" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K95" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="4"/>
+      <c r="A96" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="B96" s="2"/>
       <c r="C96" s="21"/>
-      <c r="D96" s="3"/>
+      <c r="D96" s="3">
+        <v>15000</v>
+      </c>
       <c r="E96" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
+        <v>5000</v>
+      </c>
+      <c r="F96" s="13">
+        <v>0</v>
+      </c>
+      <c r="G96" s="13">
+        <v>0</v>
+      </c>
+      <c r="H96" s="13">
+        <v>0</v>
+      </c>
       <c r="I96" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J96" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K96" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="L96" s="2"/>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="4"/>
+      <c r="A97" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="B97" s="2"/>
       <c r="C97" s="21"/>
-      <c r="D97" s="3"/>
+      <c r="D97" s="3">
+        <v>19000</v>
+      </c>
       <c r="E97" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
+        <v>6333.333333333333</v>
+      </c>
+      <c r="F97" s="13">
+        <v>0</v>
+      </c>
+      <c r="G97" s="13">
+        <v>0</v>
+      </c>
+      <c r="H97" s="13">
+        <v>0</v>
+      </c>
       <c r="I97" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>6333.333333333333</v>
       </c>
       <c r="J97" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>6333.333333333333</v>
       </c>
       <c r="K97" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>6333.333333333333</v>
       </c>
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="4"/>
-      <c r="B98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="C98" s="21"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3">
@@ -7633,26 +7771,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>3912708</v>
+        <v>4612608</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1304236.0000000005</v>
+        <v>1537536.0000000005</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>295000.00000000006</v>
+        <v>528300.00000000012</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>402333.33333333337</v>
+        <v>635633.33333333337</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>346366.66666666663</v>
+        <v>579666.66666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="K57" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3166.6666666666665</v>
+        <v>0</v>
       </c>
       <c r="L57" s="2"/>
     </row>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="K61" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="L61" s="2"/>
     </row>
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="K63" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>3333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="L63" s="2"/>
     </row>
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="K65" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="L65" s="2"/>
     </row>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="K68" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>4333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="L68" s="2"/>
     </row>
@@ -4040,25 +4040,25 @@
         <v>96666.666666666672</v>
       </c>
       <c r="F70" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="13">
         <v>0</v>
       </c>
       <c r="H70" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>96666.666666666672</v>
       </c>
-      <c r="J70" s="3">
-        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>96666.666666666672</v>
-      </c>
       <c r="K70" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>96666.666666666672</v>
+        <v>0</v>
       </c>
       <c r="L70" s="2"/>
     </row>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="K71" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>56666.666666666664</v>
+        <v>0</v>
       </c>
       <c r="L71" s="2"/>
     </row>
@@ -4154,25 +4154,25 @@
         <v>21000</v>
       </c>
       <c r="F73" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="13">
         <v>0</v>
       </c>
       <c r="H73" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>21000</v>
       </c>
-      <c r="J73" s="3">
-        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>21000</v>
-      </c>
       <c r="K73" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="L73" s="2"/>
     </row>
@@ -4192,25 +4192,25 @@
         <v>10400</v>
       </c>
       <c r="F74" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="13">
         <v>0</v>
       </c>
       <c r="H74" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>10400</v>
       </c>
-      <c r="J74" s="3">
-        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10400</v>
-      </c>
       <c r="K74" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="L74" s="2"/>
     </row>
@@ -4230,25 +4230,25 @@
         <v>6666.666666666667</v>
       </c>
       <c r="F75" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="13">
         <v>0</v>
       </c>
       <c r="H75" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>6666.666666666667</v>
       </c>
-      <c r="J75" s="3">
-        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>6666.666666666667</v>
-      </c>
       <c r="K75" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>6666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="L75" s="2"/>
     </row>
@@ -4268,7 +4268,7 @@
         <v>40333.333333333336</v>
       </c>
       <c r="F76" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="13">
         <v>0</v>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="I76" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>40333.333333333336</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="K77" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="L77" s="2"/>
     </row>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="K78" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1666.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="L78" s="2"/>
     </row>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="K79" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>14666.666666666666</v>
+        <v>0</v>
       </c>
       <c r="L79" s="2"/>
     </row>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="K80" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>7333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="L80" s="2"/>
     </row>
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="K81" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>18833.333333333332</v>
+        <v>0</v>
       </c>
       <c r="L81" s="2"/>
     </row>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="K83" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>17333.333333333332</v>
+        <v>0</v>
       </c>
       <c r="L83" s="2"/>
     </row>
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="K86" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1266.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="L86" s="2"/>
     </row>
@@ -4744,7 +4744,7 @@
         <v>10266.666666666666</v>
       </c>
       <c r="F89" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="13">
         <v>0</v>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="I89" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10266.666666666666</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4780,7 +4780,7 @@
         <v>5000</v>
       </c>
       <c r="F90" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="13">
         <v>0</v>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="I90" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J90" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4964,7 +4964,7 @@
         <v>10000</v>
       </c>
       <c r="F95" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="13">
         <v>0</v>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="I95" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J95" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>528300.00000000012</v>
+        <v>327966.66666666669</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>579666.66666666663</v>
+        <v>265133.33333333331</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
   <si>
     <t>Andres</t>
   </si>
@@ -414,9 +414,6 @@
     <t xml:space="preserve">Cuota Manejo e intereses </t>
   </si>
   <si>
-    <t>Definir en próxima reunión alrededor de 150000 c/u</t>
-  </si>
-  <si>
     <t>Cosas varias</t>
   </si>
   <si>
@@ -444,13 +441,19 @@
     <t>Torniwassas</t>
   </si>
   <si>
-    <t>1700 luzbin</t>
-  </si>
-  <si>
-    <t>313400 Zurdo, 200000 Andres</t>
-  </si>
-  <si>
-    <t>20k Luzbin</t>
+    <t>71k cuota de manejo 10 meses cada uno</t>
+  </si>
+  <si>
+    <t>120k intereses por deuda de 400k a 10 meses</t>
+  </si>
+  <si>
+    <t>Cuota de Manejo // Hasta fin de febrero 2018</t>
+  </si>
+  <si>
+    <t>Intereses // Hasta fin de febrero 2018</t>
+  </si>
+  <si>
+    <t>Ya se definió total por 191000 hasta febrero</t>
   </si>
 </sst>
 </file>
@@ -683,6 +686,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1033,16 +1046,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1057,26 +1060,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L201" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L201" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L201"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Nombre" dataDxfId="10"/>
-    <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="9"/>
-    <tableColumn id="3" name="Valor en Dolares" dataDxfId="8" dataCellStyle="Moneda"/>
-    <tableColumn id="4" name="Valor en Pesos total" dataDxfId="7" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="Valor por persona" dataDxfId="6" dataCellStyle="Moneda">
+    <tableColumn id="1" name="Nombre" dataDxfId="11"/>
+    <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="10"/>
+    <tableColumn id="3" name="Valor en Dolares" dataDxfId="9" dataCellStyle="Moneda"/>
+    <tableColumn id="4" name="Valor en Pesos total" dataDxfId="8" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Valor por persona" dataDxfId="7" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla2[[#This Row],[Valor en Pesos total]]/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Andres" dataDxfId="5"/>
-    <tableColumn id="6" name="Luzbin" dataDxfId="4"/>
-    <tableColumn id="7" name="Zurdo" dataDxfId="3"/>
-    <tableColumn id="9" name="Andres Debe" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="5" name="Andres" dataDxfId="6"/>
+    <tableColumn id="6" name="Luzbin" dataDxfId="5"/>
+    <tableColumn id="7" name="Zurdo" dataDxfId="4"/>
+    <tableColumn id="9" name="Andres Debe" dataDxfId="3" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Luzbin Debe" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="10" name="Luzbin Debe" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Zurdo Debe" dataDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="11" name="Zurdo Debe" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="Columna1"/>
@@ -1350,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="B184" workbookViewId="0">
+      <selection activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4699,7 +4702,7 @@
         <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C88" s="21"/>
       <c r="D88" s="3"/>
@@ -4732,7 +4735,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="21"/>
@@ -4768,7 +4771,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="21"/>
@@ -4804,11 +4807,9 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B91" s="2"/>
       <c r="C91" s="21"/>
       <c r="D91" s="3">
         <v>351000</v>
@@ -4842,7 +4843,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="21"/>
@@ -4878,11 +4879,9 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B93" s="2"/>
       <c r="C93" s="21"/>
       <c r="D93" s="3">
         <v>17100</v>
@@ -4916,7 +4915,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="21"/>
@@ -4952,7 +4951,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="21"/>
@@ -4988,7 +4987,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="21"/>
@@ -5024,7 +5023,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="21"/>
@@ -5059,56 +5058,78 @@
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="4"/>
+      <c r="A98" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="B98" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C98" s="21"/>
-      <c r="D98" s="3"/>
+      <c r="D98" s="3">
+        <v>213000</v>
+      </c>
       <c r="E98" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
+        <v>71000</v>
+      </c>
+      <c r="F98" s="13">
+        <v>0</v>
+      </c>
+      <c r="G98" s="13">
+        <v>0</v>
+      </c>
+      <c r="H98" s="13">
+        <v>0</v>
+      </c>
       <c r="I98" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>71000</v>
       </c>
       <c r="J98" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>71000</v>
       </c>
       <c r="K98" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>71000</v>
       </c>
       <c r="L98" s="2"/>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="4"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="C99" s="21"/>
-      <c r="D99" s="3"/>
+      <c r="D99" s="3">
+        <v>360000</v>
+      </c>
       <c r="E99" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
+        <v>120000</v>
+      </c>
+      <c r="F99" s="13">
+        <v>0</v>
+      </c>
+      <c r="G99" s="13">
+        <v>0</v>
+      </c>
+      <c r="H99" s="13">
+        <v>0</v>
+      </c>
       <c r="I99" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="J99" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="K99" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="L99" s="2"/>
     </row>
@@ -7771,31 +7792,31 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>4612608</v>
+        <v>5185608</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1537536.0000000005</v>
+        <v>1728536.0000000005</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>327966.66666666669</v>
+        <v>518966.66666666669</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>635633.33333333337</v>
+        <v>826633.33333333337</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>265133.33333333331</v>
+        <v>456133.33333333331</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:H201">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",F2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
   <si>
     <t>Andres</t>
   </si>
@@ -454,6 +454,24 @@
   </si>
   <si>
     <t>Ya se definió total por 191000 hasta febrero</t>
+  </si>
+  <si>
+    <t>Refuerzos lapiz y sobrepisos pcb's</t>
+  </si>
+  <si>
+    <t>Molex y capacitores</t>
+  </si>
+  <si>
+    <t>Taxis</t>
+  </si>
+  <si>
+    <t>Resistencias electrokit</t>
+  </si>
+  <si>
+    <t>Sma Conectores</t>
+  </si>
+  <si>
+    <t>zurdo -6K</t>
   </si>
 </sst>
 </file>
@@ -686,16 +704,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1046,6 +1054,16 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1060,26 +1078,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L201" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:L201" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:L201"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Nombre" dataDxfId="11"/>
-    <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="10"/>
-    <tableColumn id="3" name="Valor en Dolares" dataDxfId="9" dataCellStyle="Moneda"/>
-    <tableColumn id="4" name="Valor en Pesos total" dataDxfId="8" dataCellStyle="Moneda"/>
-    <tableColumn id="8" name="Valor por persona" dataDxfId="7" dataCellStyle="Moneda">
+    <tableColumn id="1" name="Nombre" dataDxfId="10"/>
+    <tableColumn id="2" name="Soporte y/o comentarios" dataDxfId="9"/>
+    <tableColumn id="3" name="Valor en Dolares" dataDxfId="8" dataCellStyle="Moneda"/>
+    <tableColumn id="4" name="Valor en Pesos total" dataDxfId="7" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="Valor por persona" dataDxfId="6" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla2[[#This Row],[Valor en Pesos total]]/3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Andres" dataDxfId="6"/>
-    <tableColumn id="6" name="Luzbin" dataDxfId="5"/>
-    <tableColumn id="7" name="Zurdo" dataDxfId="4"/>
-    <tableColumn id="9" name="Andres Debe" dataDxfId="3" dataCellStyle="Moneda">
+    <tableColumn id="5" name="Andres" dataDxfId="5"/>
+    <tableColumn id="6" name="Luzbin" dataDxfId="4"/>
+    <tableColumn id="7" name="Zurdo" dataDxfId="3"/>
+    <tableColumn id="9" name="Andres Debe" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Luzbin Debe" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="10" name="Luzbin Debe" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Zurdo Debe" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="11" name="Zurdo Debe" dataDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="Columna1"/>
@@ -1353,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B184" workbookViewId="0">
-      <selection activeCell="K201" sqref="K201"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4825,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4837,7 +4855,7 @@
       </c>
       <c r="K91" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>117000</v>
+        <v>0</v>
       </c>
       <c r="L91" s="2"/>
     </row>
@@ -5134,158 +5152,219 @@
       <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="4"/>
+      <c r="A100" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="B100" s="2"/>
       <c r="C100" s="21"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="3">
+        <v>32000</v>
+      </c>
       <c r="E100" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
+        <v>10666.666666666666</v>
+      </c>
+      <c r="F100" s="13">
+        <v>0</v>
+      </c>
+      <c r="G100" s="13">
+        <v>0</v>
+      </c>
+      <c r="H100" s="13">
+        <v>0</v>
+      </c>
       <c r="I100" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="J100" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="K100" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="4"/>
+      <c r="A101" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B101" s="2"/>
       <c r="C101" s="21"/>
-      <c r="D101" s="3"/>
+      <c r="D101" s="3">
+        <v>31000</v>
+      </c>
       <c r="E101" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
+        <v>10333.333333333334</v>
+      </c>
+      <c r="F101" s="13">
+        <v>0</v>
+      </c>
+      <c r="G101" s="13">
+        <v>0</v>
+      </c>
+      <c r="H101" s="13">
+        <v>0</v>
+      </c>
       <c r="I101" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10333.333333333334</v>
       </c>
       <c r="J101" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10333.333333333334</v>
       </c>
       <c r="K101" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10333.333333333334</v>
       </c>
       <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="4"/>
+      <c r="A102" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B102" s="2"/>
       <c r="C102" s="21"/>
-      <c r="D102" s="3"/>
+      <c r="D102" s="3">
+        <v>16000</v>
+      </c>
       <c r="E102" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
+        <v>5333.333333333333</v>
+      </c>
+      <c r="F102" s="13">
+        <v>0</v>
+      </c>
+      <c r="G102" s="13">
+        <v>0</v>
+      </c>
+      <c r="H102" s="13">
+        <v>0</v>
+      </c>
       <c r="I102" s="3">
-        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>0</v>
       </c>
       <c r="J102" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="K102" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="4"/>
+      <c r="A103" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B103" s="2"/>
       <c r="C103" s="21"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="3">
+        <v>16000</v>
+      </c>
       <c r="E103" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
+        <v>5333.333333333333</v>
+      </c>
+      <c r="F103" s="13">
+        <v>0</v>
+      </c>
+      <c r="G103" s="13">
+        <v>0</v>
+      </c>
+      <c r="H103" s="13">
+        <v>0</v>
+      </c>
       <c r="I103" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="J103" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="K103" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="4"/>
+      <c r="A104" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="B104" s="2"/>
       <c r="C104" s="21"/>
-      <c r="D104" s="3"/>
+      <c r="D104" s="3">
+        <v>7800</v>
+      </c>
       <c r="E104" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
+        <v>2600</v>
+      </c>
+      <c r="F104" s="13">
+        <v>0</v>
+      </c>
+      <c r="G104" s="13">
+        <v>0</v>
+      </c>
+      <c r="H104" s="13">
+        <v>0</v>
+      </c>
       <c r="I104" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="J104" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="K104" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="4"/>
-      <c r="B105" s="2"/>
+      <c r="A105" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="C105" s="21"/>
-      <c r="D105" s="3"/>
+      <c r="D105" s="3">
+        <v>19300</v>
+      </c>
       <c r="E105" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
+        <v>6433.333333333333</v>
+      </c>
+      <c r="F105" s="13">
+        <v>0</v>
+      </c>
+      <c r="G105" s="13">
+        <v>0</v>
+      </c>
+      <c r="H105" s="13">
+        <v>0</v>
+      </c>
       <c r="I105" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>6433.333333333333</v>
       </c>
       <c r="J105" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>6433.333333333333</v>
       </c>
       <c r="K105" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>6433.333333333333</v>
       </c>
       <c r="L105" s="2"/>
     </row>
@@ -7792,31 +7871,31 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>5185608</v>
+        <v>5307708</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1728536.0000000005</v>
+        <v>1769236.0000000002</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>518966.66666666669</v>
+        <v>554333.33333333349</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>826633.33333333337</v>
+        <v>867333.33333333349</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>456133.33333333331</v>
+        <v>379833.33333333331</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:H201">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",F2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
   <si>
     <t>Andres</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>zurdo -6K</t>
+  </si>
+  <si>
+    <t>Sobrepisos fuente y trafo.</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1375,7 @@
   <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5369,28 +5372,38 @@
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="4"/>
+      <c r="A106" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B106" s="2"/>
       <c r="C106" s="21"/>
-      <c r="D106" s="3"/>
+      <c r="D106" s="3">
+        <v>12000</v>
+      </c>
       <c r="E106" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
+        <v>4000</v>
+      </c>
+      <c r="F106" s="13">
+        <v>0</v>
+      </c>
+      <c r="G106" s="13">
+        <v>0</v>
+      </c>
+      <c r="H106" s="13">
+        <v>0</v>
+      </c>
       <c r="I106" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J106" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="K106" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="L106" s="2"/>
     </row>
@@ -7871,26 +7884,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>5307708</v>
+        <v>5319708</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1769236.0000000002</v>
+        <v>1773236.0000000002</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>554333.33333333349</v>
+        <v>558333.33333333349</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>867333.33333333349</v>
+        <v>871333.33333333349</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>379833.33333333331</v>
+        <v>383833.33333333331</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="151">
   <si>
     <t>Andres</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>Sobrepisos fuente y trafo.</t>
+  </si>
+  <si>
+    <t>Conector ECG, led RGB.</t>
+  </si>
+  <si>
+    <t>160K Andres</t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="E181" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4330,7 +4336,7 @@
         <v>34000</v>
       </c>
       <c r="F77" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="13">
         <v>0</v>
@@ -4340,7 +4346,7 @@
       </c>
       <c r="I77" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>34000</v>
+        <v>0</v>
       </c>
       <c r="J77" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4588,7 +4594,7 @@
         <v>5666.666666666667</v>
       </c>
       <c r="F84" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="13">
         <v>0</v>
@@ -4598,7 +4604,7 @@
       </c>
       <c r="I84" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>5666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="J84" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4624,7 +4630,7 @@
         <v>2000</v>
       </c>
       <c r="F85" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="13">
         <v>0</v>
@@ -4634,7 +4640,7 @@
       </c>
       <c r="I85" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J85" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4660,7 +4666,7 @@
         <v>1266.6666666666667</v>
       </c>
       <c r="F86" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="13">
         <v>0</v>
@@ -4670,7 +4676,7 @@
       </c>
       <c r="I86" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>1266.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4840,7 +4846,7 @@
         <v>117000</v>
       </c>
       <c r="F91" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="13">
         <v>0</v>
@@ -4850,7 +4856,7 @@
       </c>
       <c r="I91" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>117000</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -5408,28 +5414,40 @@
       <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="4"/>
-      <c r="B107" s="2"/>
+      <c r="A107" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="C107" s="21"/>
-      <c r="D107" s="3"/>
+      <c r="D107" s="3">
+        <v>7000</v>
+      </c>
       <c r="E107" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
+        <v>2333.3333333333335</v>
+      </c>
+      <c r="F107" s="13">
+        <v>0</v>
+      </c>
+      <c r="G107" s="13">
+        <v>0</v>
+      </c>
+      <c r="H107" s="13">
+        <v>0</v>
+      </c>
       <c r="I107" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="J107" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="K107" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="L107" s="2"/>
     </row>
@@ -7884,26 +7902,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>5319708</v>
+        <v>5326708</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1773236.0000000002</v>
+        <v>1775569.3333333335</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>558333.33333333349</v>
+        <v>400733.33333333331</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>871333.33333333349</v>
+        <v>873666.66666666686</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>383833.33333333331</v>
+        <v>386166.66666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -480,7 +480,7 @@
     <t>Conector ECG, led RGB.</t>
   </si>
   <si>
-    <t>160K Andres</t>
+    <t>Capacitores, mosfets 840</t>
   </si>
 </sst>
 </file>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E181" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5417,9 +5417,7 @@
       <c r="A107" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="B107" s="2"/>
       <c r="C107" s="21"/>
       <c r="D107" s="3">
         <v>7000</v>
@@ -5452,28 +5450,38 @@
       <c r="L107" s="2"/>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="4"/>
+      <c r="A108" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="B108" s="2"/>
       <c r="C108" s="21"/>
-      <c r="D108" s="3"/>
+      <c r="D108" s="3">
+        <v>17100</v>
+      </c>
       <c r="E108" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
+        <v>5700</v>
+      </c>
+      <c r="F108" s="13">
+        <v>0</v>
+      </c>
+      <c r="G108" s="13">
+        <v>0</v>
+      </c>
+      <c r="H108" s="13">
+        <v>0</v>
+      </c>
       <c r="I108" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="J108" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="K108" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="L108" s="2"/>
     </row>
@@ -7902,26 +7910,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>5326708</v>
+        <v>5343808</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1775569.3333333335</v>
+        <v>1781269.3333333335</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>400733.33333333331</v>
+        <v>406433.33333333331</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>873666.66666666686</v>
+        <v>879366.66666666686</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>386166.66666666663</v>
+        <v>391866.66666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="155">
   <si>
     <t>Andres</t>
   </si>
@@ -471,9 +471,6 @@
     <t>Sma Conectores</t>
   </si>
   <si>
-    <t>zurdo -6K</t>
-  </si>
-  <si>
     <t>Sobrepisos fuente y trafo.</t>
   </si>
   <si>
@@ -481,6 +478,21 @@
   </si>
   <si>
     <t>Capacitores, mosfets 840</t>
+  </si>
+  <si>
+    <t>zurdo -3,8K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casillero, Trimmer, tornillos, botones reset, Jumpers pcb, </t>
+  </si>
+  <si>
+    <t>Aclirico para placa de retorno</t>
+  </si>
+  <si>
+    <t>Cooler disipadores azules, disipadores pequeños</t>
+  </si>
+  <si>
+    <t>Disipadores azules electrokit</t>
   </si>
 </sst>
 </file>
@@ -1380,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4528,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4540,7 +4552,7 @@
       </c>
       <c r="K82" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10666.666666666666</v>
+        <v>0</v>
       </c>
       <c r="L82" s="2"/>
     </row>
@@ -4600,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4612,7 +4624,7 @@
       </c>
       <c r="K84" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>5666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="L84" s="2"/>
     </row>
@@ -4708,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4720,7 +4732,7 @@
       </c>
       <c r="K87" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="L87" s="2"/>
     </row>
@@ -5343,9 +5355,7 @@
       <c r="A105" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="B105" s="2"/>
       <c r="C105" s="21"/>
       <c r="D105" s="3">
         <v>19300</v>
@@ -5379,7 +5389,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="21"/>
@@ -5415,7 +5425,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="21"/>
@@ -5451,9 +5461,11 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B108" s="2"/>
       <c r="C108" s="21"/>
       <c r="D108" s="3">
         <v>17100</v>
@@ -5486,106 +5498,146 @@
       <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="4"/>
+      <c r="A109" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="B109" s="2"/>
       <c r="C109" s="21"/>
-      <c r="D109" s="3"/>
+      <c r="D109" s="3">
+        <v>22000</v>
+      </c>
       <c r="E109" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
+        <v>7333.333333333333</v>
+      </c>
+      <c r="F109" s="13">
+        <v>0</v>
+      </c>
+      <c r="G109" s="13">
+        <v>0</v>
+      </c>
+      <c r="H109" s="13">
+        <v>0</v>
+      </c>
       <c r="I109" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>7333.333333333333</v>
       </c>
       <c r="J109" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>7333.333333333333</v>
       </c>
       <c r="K109" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>7333.333333333333</v>
       </c>
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="4"/>
+      <c r="A110" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="B110" s="2"/>
       <c r="C110" s="21"/>
-      <c r="D110" s="3"/>
+      <c r="D110" s="3">
+        <v>14000</v>
+      </c>
       <c r="E110" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
+        <v>4666.666666666667</v>
+      </c>
+      <c r="F110" s="13">
+        <v>0</v>
+      </c>
+      <c r="G110" s="13">
+        <v>0</v>
+      </c>
+      <c r="H110" s="13">
+        <v>0</v>
+      </c>
       <c r="I110" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4666.666666666667</v>
       </c>
       <c r="J110" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4666.666666666667</v>
       </c>
       <c r="K110" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4666.666666666667</v>
       </c>
       <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="4"/>
+      <c r="A111" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="B111" s="2"/>
       <c r="C111" s="21"/>
-      <c r="D111" s="3"/>
+      <c r="D111" s="3">
+        <v>9600</v>
+      </c>
       <c r="E111" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
+        <v>3200</v>
+      </c>
+      <c r="F111" s="13">
+        <v>0</v>
+      </c>
+      <c r="G111" s="13">
+        <v>0</v>
+      </c>
+      <c r="H111" s="13">
+        <v>0</v>
+      </c>
       <c r="I111" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J111" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="K111" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="4"/>
+      <c r="A112" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="B112" s="2"/>
       <c r="C112" s="21"/>
-      <c r="D112" s="3"/>
+      <c r="D112" s="3">
+        <v>5000</v>
+      </c>
       <c r="E112" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="F112" s="13">
+        <v>0</v>
+      </c>
+      <c r="G112" s="13">
+        <v>0</v>
+      </c>
+      <c r="H112" s="13">
+        <v>0</v>
+      </c>
       <c r="I112" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="J112" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="K112" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="L112" s="2"/>
     </row>
@@ -7910,26 +7962,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>5343808</v>
+        <v>5394408</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1781269.3333333335</v>
+        <v>1798136.0000000002</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>406433.33333333331</v>
+        <v>423300</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>879366.66666666686</v>
+        <v>896233.33333333349</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>391866.66666666663</v>
+        <v>376899.99999999994</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="160">
   <si>
     <t>Andres</t>
   </si>
@@ -480,9 +480,6 @@
     <t>Capacitores, mosfets 840</t>
   </si>
   <si>
-    <t>zurdo -3,8K</t>
-  </si>
-  <si>
     <t xml:space="preserve">Casillero, Trimmer, tornillos, botones reset, Jumpers pcb, </t>
   </si>
   <si>
@@ -493,6 +490,24 @@
   </si>
   <si>
     <t>Disipadores azules electrokit</t>
+  </si>
+  <si>
+    <t>Corte plotter</t>
+  </si>
+  <si>
+    <t>Conectores</t>
+  </si>
+  <si>
+    <t>Gasto zurdo actualizado 4.27.2018</t>
+  </si>
+  <si>
+    <t>Zurdo Total: 34200 // Andres Total:40700</t>
+  </si>
+  <si>
+    <t>Intereses actulizado hasta fin de abril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos los gastos actualizados </t>
   </si>
 </sst>
 </file>
@@ -500,8 +515,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -676,21 +691,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,20 +719,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -726,7 +742,7 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -741,7 +757,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -758,7 +774,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -871,7 +887,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -909,7 +925,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1392,13 +1408,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="E127" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="23" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -4426,7 +4442,7 @@
         <v>14666.666666666666</v>
       </c>
       <c r="F79" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="13">
         <v>0</v>
@@ -4436,7 +4452,7 @@
       </c>
       <c r="I79" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>14666.666666666666</v>
+        <v>0</v>
       </c>
       <c r="J79" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4498,7 +4514,7 @@
         <v>18833.333333333332</v>
       </c>
       <c r="F81" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="13">
         <v>0</v>
@@ -4508,7 +4524,7 @@
       </c>
       <c r="I81" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>18833.333333333332</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4534,7 +4550,7 @@
         <v>10666.666666666666</v>
       </c>
       <c r="F82" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="13">
         <v>0</v>
@@ -4544,7 +4560,7 @@
       </c>
       <c r="I82" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10666.666666666666</v>
+        <v>0</v>
       </c>
       <c r="J82" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4570,7 +4586,7 @@
         <v>17333.333333333332</v>
       </c>
       <c r="F83" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="13">
         <v>0</v>
@@ -4580,7 +4596,7 @@
       </c>
       <c r="I83" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>17333.333333333332</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4714,7 +4730,7 @@
         <v>15500</v>
       </c>
       <c r="F87" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="13">
         <v>0</v>
@@ -4724,7 +4740,7 @@
       </c>
       <c r="I87" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="J87" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4792,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4804,7 +4820,7 @@
       </c>
       <c r="K89" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10266.666666666666</v>
+        <v>0</v>
       </c>
       <c r="L89" s="2"/>
     </row>
@@ -4828,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4840,7 +4856,7 @@
       </c>
       <c r="K90" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="L90" s="2"/>
     </row>
@@ -4900,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -4912,7 +4928,7 @@
       </c>
       <c r="K92" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>63333.333333333336</v>
+        <v>0</v>
       </c>
       <c r="L92" s="2"/>
     </row>
@@ -4930,25 +4946,25 @@
         <v>5700</v>
       </c>
       <c r="F93" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="13">
         <v>0</v>
       </c>
       <c r="H93" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>5700</v>
       </c>
-      <c r="J93" s="3">
-        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>5700</v>
-      </c>
       <c r="K93" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="L93" s="2"/>
     </row>
@@ -4966,25 +4982,25 @@
         <v>10666.666666666666</v>
       </c>
       <c r="F94" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="13">
         <v>0</v>
       </c>
       <c r="H94" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>10666.666666666666</v>
       </c>
-      <c r="J94" s="3">
-        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10666.666666666666</v>
-      </c>
       <c r="K94" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10666.666666666666</v>
+        <v>0</v>
       </c>
       <c r="L94" s="2"/>
     </row>
@@ -5008,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -5020,7 +5036,7 @@
       </c>
       <c r="K95" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="L95" s="2"/>
     </row>
@@ -5038,25 +5054,25 @@
         <v>5000</v>
       </c>
       <c r="F96" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="13">
         <v>0</v>
       </c>
       <c r="H96" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>5000</v>
       </c>
-      <c r="J96" s="3">
-        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>5000</v>
-      </c>
       <c r="K96" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="L96" s="2"/>
     </row>
@@ -5080,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -5092,7 +5108,7 @@
       </c>
       <c r="K97" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="L97" s="2"/>
     </row>
@@ -5192,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -5204,7 +5220,7 @@
       </c>
       <c r="K100" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>10666.666666666666</v>
+        <v>0</v>
       </c>
       <c r="L100" s="2"/>
     </row>
@@ -5299,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -5311,7 +5327,7 @@
       </c>
       <c r="K103" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="L103" s="2"/>
     </row>
@@ -5329,7 +5345,7 @@
         <v>2600</v>
       </c>
       <c r="F104" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="13">
         <v>0</v>
@@ -5339,7 +5355,7 @@
       </c>
       <c r="I104" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="J104" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -5463,9 +5479,7 @@
       <c r="A108" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="B108" s="2"/>
       <c r="C108" s="21"/>
       <c r="D108" s="3">
         <v>17100</v>
@@ -5499,7 +5513,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="21"/>
@@ -5535,7 +5549,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="21"/>
@@ -5571,7 +5585,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="21"/>
@@ -5607,7 +5621,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="21"/>
@@ -5642,106 +5656,150 @@
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="4"/>
+      <c r="A113" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="B113" s="2"/>
       <c r="C113" s="21"/>
-      <c r="D113" s="3"/>
+      <c r="D113" s="3">
+        <v>5000</v>
+      </c>
       <c r="E113" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="3">
-        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="F113" s="13">
+        <v>0</v>
+      </c>
+      <c r="G113" s="13">
+        <v>0</v>
+      </c>
+      <c r="H113" s="13">
+        <v>0</v>
+      </c>
+      <c r="I113" s="30">
+        <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>1666.6666666666667</v>
       </c>
       <c r="J113" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="K113" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>1666.6666666666667</v>
       </c>
       <c r="L113" s="2"/>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="4"/>
+      <c r="A114" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="B114" s="2"/>
       <c r="C114" s="21"/>
-      <c r="D114" s="3"/>
+      <c r="D114" s="3">
+        <v>2500</v>
+      </c>
       <c r="E114" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="F114" s="13">
+        <v>0</v>
+      </c>
+      <c r="G114" s="13">
+        <v>0</v>
+      </c>
+      <c r="H114" s="13">
+        <v>0</v>
+      </c>
       <c r="I114" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="J114" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="K114" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="L114" s="2"/>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="4"/>
-      <c r="B115" s="2"/>
+      <c r="A115" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="C115" s="21"/>
-      <c r="D115" s="3"/>
+      <c r="D115" s="3">
+        <v>47900</v>
+      </c>
       <c r="E115" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
+        <v>15966.666666666666</v>
+      </c>
+      <c r="F115" s="13">
+        <v>0</v>
+      </c>
+      <c r="G115" s="13">
+        <v>0</v>
+      </c>
+      <c r="H115" s="13">
+        <v>0</v>
+      </c>
       <c r="I115" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>15966.666666666666</v>
       </c>
       <c r="J115" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>15966.666666666666</v>
       </c>
       <c r="K115" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>15966.666666666666</v>
       </c>
       <c r="L115" s="2"/>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="4"/>
-      <c r="B116" s="2"/>
+      <c r="A116" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="C116" s="21"/>
-      <c r="D116" s="3"/>
+      <c r="D116" s="3">
+        <v>122100</v>
+      </c>
       <c r="E116" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
+        <v>40700</v>
+      </c>
+      <c r="F116" s="13">
+        <v>0</v>
+      </c>
+      <c r="G116" s="13">
+        <v>0</v>
+      </c>
+      <c r="H116" s="13">
+        <v>0</v>
+      </c>
       <c r="I116" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>40700</v>
       </c>
       <c r="J116" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>40700</v>
       </c>
       <c r="K116" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>40700</v>
       </c>
       <c r="L116" s="2"/>
     </row>
@@ -7962,26 +8020,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>5394408</v>
+        <v>5571908</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1798136.0000000002</v>
+        <v>1857302.666666667</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>423300</v>
+        <v>381500</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>896233.33333333349</v>
+        <v>955400.00000000012</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>376899.99999999994</v>
+        <v>303766.66666666669</v>
       </c>
     </row>
   </sheetData>
@@ -8012,7 +8070,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="166">
   <si>
     <t>Andres</t>
   </si>
@@ -508,6 +508,24 @@
   </si>
   <si>
     <t xml:space="preserve">Todos los gastos actualizados </t>
+  </si>
+  <si>
+    <t>Impresion y otros</t>
+  </si>
+  <si>
+    <t>Carne vídeo</t>
+  </si>
+  <si>
+    <t>Carton x2, cartulina guantes, JABON</t>
+  </si>
+  <si>
+    <t>Fuente último cambio</t>
+  </si>
+  <si>
+    <t>Compra el 5 25 2018</t>
+  </si>
+  <si>
+    <t>Zurdo +500</t>
   </si>
 </sst>
 </file>
@@ -1408,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E127" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="D189" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5128,7 +5146,7 @@
         <v>71000</v>
       </c>
       <c r="F98" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="13">
         <v>0</v>
@@ -5138,7 +5156,7 @@
       </c>
       <c r="I98" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>71000</v>
+        <v>0</v>
       </c>
       <c r="J98" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -5781,47 +5799,57 @@
         <v>40700</v>
       </c>
       <c r="F116" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="13">
         <v>0</v>
       </c>
       <c r="H116" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
+        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
         <v>40700</v>
       </c>
-      <c r="J116" s="3">
-        <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>40700</v>
-      </c>
       <c r="K116" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>40700</v>
+        <v>0</v>
       </c>
       <c r="L116" s="2"/>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="4"/>
+      <c r="A117" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="B117" s="2"/>
       <c r="C117" s="21"/>
-      <c r="D117" s="3"/>
+      <c r="D117" s="3">
+        <v>53000</v>
+      </c>
       <c r="E117" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
+        <v>17666.666666666668</v>
+      </c>
+      <c r="F117" s="13">
+        <v>0</v>
+      </c>
+      <c r="G117" s="13">
+        <v>0</v>
+      </c>
+      <c r="H117" s="13">
+        <v>1</v>
+      </c>
       <c r="I117" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17666.666666666668</v>
       </c>
       <c r="J117" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>17666.666666666668</v>
       </c>
       <c r="K117" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
@@ -5830,80 +5858,114 @@
       <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="4"/>
-      <c r="B118" s="2"/>
+      <c r="A118" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="C118" s="21"/>
-      <c r="D118" s="3"/>
+      <c r="D118" s="3">
+        <v>12000</v>
+      </c>
       <c r="E118" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
+        <v>4000</v>
+      </c>
+      <c r="F118" s="13">
+        <v>0</v>
+      </c>
+      <c r="G118" s="13">
+        <v>0</v>
+      </c>
+      <c r="H118" s="13">
+        <v>0</v>
+      </c>
       <c r="I118" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J118" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="K118" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="L118" s="2"/>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="4"/>
+      <c r="A119" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="B119" s="2"/>
       <c r="C119" s="21"/>
-      <c r="D119" s="3"/>
+      <c r="D119" s="3">
+        <v>10000</v>
+      </c>
       <c r="E119" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="F119" s="13">
+        <v>0</v>
+      </c>
+      <c r="G119" s="13">
+        <v>0</v>
+      </c>
+      <c r="H119" s="13">
+        <v>0</v>
+      </c>
       <c r="I119" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="J119" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="K119" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="L119" s="2"/>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="4"/>
-      <c r="B120" s="2"/>
+      <c r="A120" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="C120" s="21"/>
-      <c r="D120" s="3"/>
+      <c r="D120" s="3">
+        <v>32000</v>
+      </c>
       <c r="E120" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
+        <v>10666.666666666666</v>
+      </c>
+      <c r="F120" s="13">
+        <v>0</v>
+      </c>
+      <c r="G120" s="13">
+        <v>0</v>
+      </c>
+      <c r="H120" s="13">
+        <v>0</v>
+      </c>
       <c r="I120" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="J120" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="K120" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="L120" s="2"/>
     </row>
@@ -8020,26 +8082,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>5571908</v>
+        <v>5678908</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1857302.666666667</v>
+        <v>1892969.3333333337</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>381500</v>
+        <v>305466.66666666674</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>955400.00000000012</v>
+        <v>991066.66666666674</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>303766.66666666669</v>
+        <v>281066.66666666669</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="167">
   <si>
     <t>Andres</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Zurdo +500</t>
+  </si>
+  <si>
+    <t>Intereses actualizado hasta fin de mayo</t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -752,6 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1426,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D189" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="B187" workbookViewId="0">
+      <selection activeCell="K203" sqref="K203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5970,28 +5974,40 @@
       <c r="L120" s="2"/>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="4"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" s="31">
+        <v>43245</v>
+      </c>
       <c r="C121" s="21"/>
-      <c r="D121" s="3"/>
+      <c r="D121" s="3">
+        <v>48000</v>
+      </c>
       <c r="E121" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
+        <v>16000</v>
+      </c>
+      <c r="F121" s="13">
+        <v>0</v>
+      </c>
+      <c r="G121" s="13">
+        <v>0</v>
+      </c>
+      <c r="H121" s="13">
+        <v>0</v>
+      </c>
       <c r="I121" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="J121" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="K121" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="L121" s="2"/>
     </row>
@@ -8082,26 +8098,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>5678908</v>
+        <v>5726908</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1892969.3333333337</v>
+        <v>1908969.3333333337</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>305466.66666666674</v>
+        <v>321466.66666666674</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>991066.66666666674</v>
+        <v>1007066.6666666667</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>281066.66666666669</v>
+        <v>297066.66666666669</v>
       </c>
     </row>
   </sheetData>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B187" workbookViewId="0">
-      <selection activeCell="K203" sqref="K203"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Flujo de Caja.xlsx
+++ b/Flujo de Caja.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="169">
   <si>
     <t>Andres</t>
   </si>
@@ -529,6 +529,12 @@
   </si>
   <si>
     <t>Intereses actualizado hasta fin de mayo</t>
+  </si>
+  <si>
+    <t>Carne sustentación (no se usó)</t>
+  </si>
+  <si>
+    <t>Intereses Junio</t>
   </si>
 </sst>
 </file>
@@ -1430,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="B189" workbookViewId="0">
+      <selection activeCell="G204" sqref="G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6012,33 +6018,45 @@
       <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="4"/>
+      <c r="A122" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="B122" s="2"/>
       <c r="C122" s="21"/>
-      <c r="D122" s="3"/>
+      <c r="D122" s="3">
+        <v>9000</v>
+      </c>
       <c r="E122" s="3">
         <f>Tabla2[[#This Row],[Valor en Pesos total]]/3</f>
-        <v>0</v>
-      </c>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
+        <v>3000</v>
+      </c>
+      <c r="F122" s="13">
+        <v>0</v>
+      </c>
+      <c r="G122" s="13">
+        <v>0</v>
+      </c>
+      <c r="H122" s="13">
+        <v>0</v>
+      </c>
       <c r="I122" s="3">
         <f>IF(Tabla2[[#This Row],[Andres]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J122" s="3">
         <f>IF(Tabla2[[#This Row],[Luzbin]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K122" s="3">
         <f>IF(Tabla2[[#This Row],[Zurdo]]=1,0,Tabla2[[#This Row],[Valor por persona]])</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="4"/>
+      <c r="A123" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="B123" s="2"/>
       <c r="C123" s="21"/>
       <c r="D123" s="3"/>
@@ -8098,26 +8116,26 @@
     <row r="203" spans="1:12">
       <c r="D203" s="1">
         <f>SUM(D2:D202)</f>
-        <v>5726908</v>
+        <v>5735908</v>
       </c>
       <c r="E203" s="1">
         <f>SUM(E2:E202)</f>
-        <v>1908969.3333333337</v>
+        <v>1911969.3333333337</v>
       </c>
       <c r="H203" s="15" t="s">
         <v>15</v>
       </c>
       <c r="I203" s="17">
         <f>SUM(I2:I202)</f>
-        <v>321466.66666666674</v>
+        <v>324466.66666666674</v>
       </c>
       <c r="J203" s="17">
         <f>SUM(J2:J202)</f>
-        <v>1007066.6666666667</v>
+        <v>1010066.6666666667</v>
       </c>
       <c r="K203" s="17">
         <f>SUM(K2:K202)</f>
-        <v>297066.66666666669</v>
+        <v>300066.66666666669</v>
       </c>
     </row>
   </sheetData>
